--- a/red2.xlsx
+++ b/red2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Miguel-Angel\Code\Python\red_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B86850-9AFA-4026-B841-E98AEB4AF908}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CD8D6-B674-473F-9CA9-DA16312DF115}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7469" uniqueCount="5131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="5133">
   <si>
     <t>Number</t>
   </si>
@@ -13356,9 +13356,6 @@
     <t>Este puente, de los siglos XII-XIII. es un elemento de vital importancia para entender el devenir histórico de la villa a lo largo del tiempo.</t>
   </si>
   <si>
-    <t>http://listarojapatrimonio.org/ficha/puente-mayor</t>
-  </si>
-  <si>
     <t>Cuevas Menudas</t>
   </si>
   <si>
@@ -15424,6 +15421,15 @@
   </si>
   <si>
     <t>http://listarojapatrimonio.org/ficha/castillo-de-casarrubios-del-monte/</t>
+  </si>
+  <si>
+    <t>http://listarojapatrimonio.org/ficha/puente-mayor/</t>
+  </si>
+  <si>
+    <t>Soba</t>
+  </si>
+  <si>
+    <t>Q29982228</t>
   </si>
 </sst>
 </file>
@@ -15825,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D425" sqref="D425"/>
+    <sheetView tabSelected="1" topLeftCell="D686" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D702" sqref="D702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19658,7 +19664,7 @@
         <v>793</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -38455,8 +38461,8 @@
       <c r="K654" t="s">
         <v>4440</v>
       </c>
-      <c r="L654" t="s">
-        <v>4441</v>
+      <c r="L654" s="2" t="s">
+        <v>5130</v>
       </c>
     </row>
     <row r="655" spans="1:15" x14ac:dyDescent="0.25">
@@ -38464,16 +38470,16 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
+        <v>4441</v>
+      </c>
+      <c r="E655" t="s">
         <v>4442</v>
       </c>
-      <c r="E655" t="s">
+      <c r="F655" t="s">
         <v>4443</v>
       </c>
-      <c r="F655" t="s">
+      <c r="H655" t="s">
         <v>4444</v>
-      </c>
-      <c r="H655" t="s">
-        <v>4445</v>
       </c>
       <c r="I655" t="s">
         <v>251</v>
@@ -38482,10 +38488,10 @@
         <v>41</v>
       </c>
       <c r="K655" t="s">
+        <v>4445</v>
+      </c>
+      <c r="L655" t="s">
         <v>4446</v>
-      </c>
-      <c r="L655" t="s">
-        <v>4447</v>
       </c>
       <c r="M655" t="s">
         <v>34</v>
@@ -38496,19 +38502,19 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D656" t="s">
         <v>4448</v>
       </c>
-      <c r="D656" t="s">
+      <c r="E656" t="s">
         <v>4449</v>
       </c>
-      <c r="E656" t="s">
+      <c r="F656" t="s">
         <v>4450</v>
       </c>
-      <c r="F656" t="s">
+      <c r="H656" t="s">
         <v>4451</v>
-      </c>
-      <c r="H656" t="s">
-        <v>4452</v>
       </c>
       <c r="I656" t="s">
         <v>286</v>
@@ -38517,10 +38523,10 @@
         <v>31</v>
       </c>
       <c r="K656" t="s">
+        <v>4452</v>
+      </c>
+      <c r="L656" t="s">
         <v>4453</v>
-      </c>
-      <c r="L656" t="s">
-        <v>4454</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.25">
@@ -38528,19 +38534,19 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
+        <v>4454</v>
+      </c>
+      <c r="E657" t="s">
         <v>4455</v>
       </c>
-      <c r="E657" t="s">
+      <c r="F657" t="s">
         <v>4456</v>
       </c>
-      <c r="F657" t="s">
+      <c r="G657" t="s">
         <v>4457</v>
       </c>
-      <c r="G657" t="s">
+      <c r="H657" t="s">
         <v>4458</v>
-      </c>
-      <c r="H657" t="s">
-        <v>4459</v>
       </c>
       <c r="I657" t="s">
         <v>106</v>
@@ -38549,10 +38555,10 @@
         <v>41</v>
       </c>
       <c r="K657" t="s">
+        <v>4459</v>
+      </c>
+      <c r="L657" t="s">
         <v>4460</v>
-      </c>
-      <c r="L657" t="s">
-        <v>4461</v>
       </c>
       <c r="M657" t="s">
         <v>34</v>
@@ -38563,16 +38569,16 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D658" t="s">
         <v>4462</v>
       </c>
-      <c r="D658" t="s">
+      <c r="E658" t="s">
         <v>4463</v>
       </c>
-      <c r="E658" t="s">
+      <c r="F658" t="s">
         <v>4464</v>
-      </c>
-      <c r="F658" t="s">
-        <v>4465</v>
       </c>
       <c r="H658" t="s">
         <v>3175</v>
@@ -38584,10 +38590,10 @@
         <v>41</v>
       </c>
       <c r="K658" t="s">
+        <v>4465</v>
+      </c>
+      <c r="L658" t="s">
         <v>4466</v>
-      </c>
-      <c r="L658" t="s">
-        <v>4467</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.25">
@@ -38595,22 +38601,22 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C659" t="s">
         <v>4468</v>
       </c>
-      <c r="C659" t="s">
+      <c r="D659" t="s">
         <v>4469</v>
       </c>
-      <c r="D659" t="s">
+      <c r="E659" t="s">
         <v>4470</v>
       </c>
-      <c r="E659" t="s">
+      <c r="F659" t="s">
         <v>4471</v>
       </c>
-      <c r="F659" t="s">
+      <c r="H659" t="s">
         <v>4472</v>
-      </c>
-      <c r="H659" t="s">
-        <v>4473</v>
       </c>
       <c r="I659" t="s">
         <v>714</v>
@@ -38619,10 +38625,10 @@
         <v>41</v>
       </c>
       <c r="K659" t="s">
+        <v>4473</v>
+      </c>
+      <c r="L659" t="s">
         <v>4474</v>
-      </c>
-      <c r="L659" t="s">
-        <v>4475</v>
       </c>
       <c r="M659" t="s">
         <v>24</v>
@@ -38633,19 +38639,19 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D660" t="s">
         <v>4476</v>
       </c>
-      <c r="D660" t="s">
+      <c r="E660" t="s">
         <v>4477</v>
       </c>
-      <c r="E660" t="s">
+      <c r="F660" t="s">
         <v>4478</v>
       </c>
-      <c r="F660" t="s">
+      <c r="H660" t="s">
         <v>4479</v>
-      </c>
-      <c r="H660" t="s">
-        <v>4480</v>
       </c>
       <c r="I660" t="s">
         <v>278</v>
@@ -38654,10 +38660,10 @@
         <v>279</v>
       </c>
       <c r="K660" t="s">
+        <v>4480</v>
+      </c>
+      <c r="L660" t="s">
         <v>4481</v>
-      </c>
-      <c r="L660" t="s">
-        <v>4482</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.25">
@@ -38665,16 +38671,16 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E661" t="s">
         <v>4483</v>
       </c>
-      <c r="E661" t="s">
+      <c r="F661" t="s">
         <v>4484</v>
       </c>
-      <c r="F661" t="s">
+      <c r="G661" t="s">
         <v>4485</v>
-      </c>
-      <c r="G661" t="s">
-        <v>4486</v>
       </c>
       <c r="H661" t="s">
         <v>3049</v>
@@ -38686,10 +38692,10 @@
         <v>21</v>
       </c>
       <c r="K661" t="s">
+        <v>4486</v>
+      </c>
+      <c r="L661" t="s">
         <v>4487</v>
-      </c>
-      <c r="L661" t="s">
-        <v>4488</v>
       </c>
       <c r="M661" t="s">
         <v>34</v>
@@ -38700,22 +38706,22 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C662" t="s">
         <v>4489</v>
       </c>
-      <c r="C662" t="s">
+      <c r="D662" t="s">
         <v>4490</v>
       </c>
-      <c r="D662" t="s">
+      <c r="E662" t="s">
         <v>4491</v>
       </c>
-      <c r="E662" t="s">
+      <c r="F662" t="s">
         <v>4492</v>
       </c>
-      <c r="F662" t="s">
+      <c r="H662" t="s">
         <v>4493</v>
-      </c>
-      <c r="H662" t="s">
-        <v>4494</v>
       </c>
       <c r="I662" t="s">
         <v>193</v>
@@ -38724,10 +38730,10 @@
         <v>194</v>
       </c>
       <c r="K662" t="s">
+        <v>4494</v>
+      </c>
+      <c r="L662" t="s">
         <v>4495</v>
-      </c>
-      <c r="L662" t="s">
-        <v>4496</v>
       </c>
       <c r="M662" t="s">
         <v>24</v>
@@ -38738,22 +38744,22 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D663" t="s">
         <v>4497</v>
       </c>
-      <c r="D663" t="s">
+      <c r="E663" t="s">
         <v>4498</v>
       </c>
-      <c r="E663" t="s">
+      <c r="F663" t="s">
         <v>4499</v>
       </c>
-      <c r="F663" t="s">
+      <c r="G663" t="s">
         <v>4500</v>
       </c>
-      <c r="G663" t="s">
+      <c r="H663" t="s">
         <v>4501</v>
-      </c>
-      <c r="H663" t="s">
-        <v>4502</v>
       </c>
       <c r="I663" t="s">
         <v>91</v>
@@ -38762,10 +38768,10 @@
         <v>91</v>
       </c>
       <c r="K663" t="s">
+        <v>4502</v>
+      </c>
+      <c r="L663" t="s">
         <v>4503</v>
-      </c>
-      <c r="L663" t="s">
-        <v>4504</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.25">
@@ -38773,19 +38779,19 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="C664" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="D664" t="s">
         <v>2430</v>
       </c>
       <c r="E664" t="s">
+        <v>4505</v>
+      </c>
+      <c r="F664" t="s">
         <v>4506</v>
-      </c>
-      <c r="F664" t="s">
-        <v>4507</v>
       </c>
       <c r="H664" t="s">
         <v>2433</v>
@@ -38808,19 +38814,19 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C665" t="s">
         <v>4508</v>
       </c>
-      <c r="C665" t="s">
+      <c r="D665" t="s">
         <v>4509</v>
       </c>
-      <c r="D665" t="s">
+      <c r="E665" t="s">
         <v>4510</v>
       </c>
-      <c r="E665" t="s">
+      <c r="F665" t="s">
         <v>4511</v>
-      </c>
-      <c r="F665" t="s">
-        <v>4512</v>
       </c>
       <c r="H665" t="s">
         <v>564</v>
@@ -38832,10 +38838,10 @@
         <v>31</v>
       </c>
       <c r="K665" t="s">
+        <v>4512</v>
+      </c>
+      <c r="L665" t="s">
         <v>4513</v>
-      </c>
-      <c r="L665" t="s">
-        <v>4514</v>
       </c>
       <c r="M665" t="s">
         <v>24</v>
@@ -38846,22 +38852,22 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C666" t="s">
         <v>4515</v>
       </c>
-      <c r="C666" t="s">
+      <c r="D666" t="s">
         <v>4516</v>
       </c>
-      <c r="D666" t="s">
+      <c r="E666" t="s">
         <v>4517</v>
       </c>
-      <c r="E666" t="s">
+      <c r="F666" t="s">
         <v>4518</v>
       </c>
-      <c r="F666" t="s">
+      <c r="H666" t="s">
         <v>4519</v>
-      </c>
-      <c r="H666" t="s">
-        <v>4520</v>
       </c>
       <c r="I666" t="s">
         <v>251</v>
@@ -38870,10 +38876,10 @@
         <v>41</v>
       </c>
       <c r="K666" t="s">
+        <v>4520</v>
+      </c>
+      <c r="L666" t="s">
         <v>4521</v>
-      </c>
-      <c r="L666" t="s">
-        <v>4522</v>
       </c>
       <c r="M666" t="s">
         <v>24</v>
@@ -38884,16 +38890,16 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D667" t="s">
         <v>4523</v>
       </c>
-      <c r="D667" t="s">
+      <c r="E667" t="s">
         <v>4524</v>
       </c>
-      <c r="E667" t="s">
+      <c r="F667" t="s">
         <v>4525</v>
-      </c>
-      <c r="F667" t="s">
-        <v>4526</v>
       </c>
       <c r="H667" t="s">
         <v>264</v>
@@ -38905,10 +38911,10 @@
         <v>31</v>
       </c>
       <c r="K667" t="s">
+        <v>4526</v>
+      </c>
+      <c r="L667" t="s">
         <v>4527</v>
-      </c>
-      <c r="L667" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.25">
@@ -38916,22 +38922,22 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C668" t="s">
         <v>4529</v>
       </c>
-      <c r="C668" t="s">
+      <c r="D668" t="s">
         <v>4530</v>
       </c>
-      <c r="D668" t="s">
+      <c r="E668" t="s">
         <v>4531</v>
       </c>
-      <c r="E668" t="s">
+      <c r="F668" t="s">
         <v>4532</v>
       </c>
-      <c r="F668" t="s">
+      <c r="H668" t="s">
         <v>4533</v>
-      </c>
-      <c r="H668" t="s">
-        <v>4534</v>
       </c>
       <c r="I668" t="s">
         <v>313</v>
@@ -38940,10 +38946,10 @@
         <v>65</v>
       </c>
       <c r="K668" t="s">
+        <v>4534</v>
+      </c>
+      <c r="L668" t="s">
         <v>4535</v>
-      </c>
-      <c r="L668" t="s">
-        <v>4536</v>
       </c>
       <c r="M668" t="s">
         <v>24</v>
@@ -38954,22 +38960,22 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C669" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D669" t="s">
         <v>4537</v>
       </c>
-      <c r="C669" t="s">
-        <v>4537</v>
-      </c>
-      <c r="D669" t="s">
+      <c r="E669" t="s">
         <v>4538</v>
       </c>
-      <c r="E669" t="s">
+      <c r="F669" t="s">
         <v>4539</v>
       </c>
-      <c r="F669" t="s">
+      <c r="H669" t="s">
         <v>4540</v>
-      </c>
-      <c r="H669" t="s">
-        <v>4541</v>
       </c>
       <c r="I669" t="s">
         <v>660</v>
@@ -38978,10 +38984,10 @@
         <v>295</v>
       </c>
       <c r="K669" t="s">
+        <v>4541</v>
+      </c>
+      <c r="L669" t="s">
         <v>4542</v>
-      </c>
-      <c r="L669" t="s">
-        <v>4543</v>
       </c>
       <c r="M669" t="s">
         <v>24</v>
@@ -38992,16 +38998,16 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E670" t="s">
         <v>4544</v>
       </c>
-      <c r="E670" t="s">
+      <c r="F670" t="s">
         <v>4545</v>
       </c>
-      <c r="F670" t="s">
+      <c r="H670" t="s">
         <v>4546</v>
-      </c>
-      <c r="H670" t="s">
-        <v>4547</v>
       </c>
       <c r="I670" t="s">
         <v>30</v>
@@ -39010,7 +39016,7 @@
         <v>31</v>
       </c>
       <c r="L670" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="M670" t="s">
         <v>34</v>
@@ -39021,19 +39027,19 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
+        <v>4548</v>
+      </c>
+      <c r="D671" t="s">
         <v>4549</v>
       </c>
-      <c r="D671" t="s">
+      <c r="E671" t="s">
         <v>4550</v>
       </c>
-      <c r="E671" t="s">
+      <c r="F671" t="s">
         <v>4551</v>
       </c>
-      <c r="F671" t="s">
+      <c r="H671" t="s">
         <v>4552</v>
-      </c>
-      <c r="H671" t="s">
-        <v>4553</v>
       </c>
       <c r="I671" t="s">
         <v>527</v>
@@ -39042,10 +39048,10 @@
         <v>528</v>
       </c>
       <c r="K671" t="s">
+        <v>4553</v>
+      </c>
+      <c r="L671" t="s">
         <v>4554</v>
-      </c>
-      <c r="L671" t="s">
-        <v>4555</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.25">
@@ -39053,13 +39059,13 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E672" t="s">
         <v>4556</v>
       </c>
-      <c r="E672" t="s">
+      <c r="F672" t="s">
         <v>4557</v>
-      </c>
-      <c r="F672" t="s">
-        <v>4558</v>
       </c>
       <c r="H672" t="s">
         <v>660</v>
@@ -39071,10 +39077,10 @@
         <v>295</v>
       </c>
       <c r="K672" t="s">
+        <v>4558</v>
+      </c>
+      <c r="L672" t="s">
         <v>4559</v>
-      </c>
-      <c r="L672" t="s">
-        <v>4560</v>
       </c>
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.25">
@@ -39082,16 +39088,16 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D673" t="s">
         <v>4561</v>
       </c>
-      <c r="D673" t="s">
+      <c r="E673" t="s">
         <v>4562</v>
       </c>
-      <c r="E673" t="s">
+      <c r="F673" t="s">
         <v>4563</v>
-      </c>
-      <c r="F673" t="s">
-        <v>4564</v>
       </c>
       <c r="H673" t="s">
         <v>1598</v>
@@ -39103,10 +39109,10 @@
         <v>21</v>
       </c>
       <c r="K673" t="s">
+        <v>4564</v>
+      </c>
+      <c r="L673" t="s">
         <v>4565</v>
-      </c>
-      <c r="L673" t="s">
-        <v>4566</v>
       </c>
     </row>
     <row r="674" spans="1:15" x14ac:dyDescent="0.25">
@@ -39114,22 +39120,22 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
+        <v>4566</v>
+      </c>
+      <c r="D674" t="s">
         <v>4567</v>
       </c>
-      <c r="D674" t="s">
+      <c r="E674" t="s">
         <v>4568</v>
       </c>
-      <c r="E674" t="s">
+      <c r="F674" t="s">
         <v>4569</v>
       </c>
-      <c r="F674" t="s">
+      <c r="G674" t="s">
         <v>4570</v>
       </c>
-      <c r="G674" t="s">
+      <c r="H674" t="s">
         <v>4571</v>
-      </c>
-      <c r="H674" t="s">
-        <v>4572</v>
       </c>
       <c r="I674" t="s">
         <v>294</v>
@@ -39138,10 +39144,10 @@
         <v>295</v>
       </c>
       <c r="K674" t="s">
+        <v>4572</v>
+      </c>
+      <c r="L674" t="s">
         <v>4573</v>
-      </c>
-      <c r="L674" t="s">
-        <v>4574</v>
       </c>
     </row>
     <row r="675" spans="1:15" x14ac:dyDescent="0.25">
@@ -39149,16 +39155,16 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
+        <v>4574</v>
+      </c>
+      <c r="E675" t="s">
         <v>4575</v>
       </c>
-      <c r="E675" t="s">
+      <c r="F675" t="s">
         <v>4576</v>
       </c>
-      <c r="F675" t="s">
+      <c r="H675" t="s">
         <v>4577</v>
-      </c>
-      <c r="H675" t="s">
-        <v>4578</v>
       </c>
       <c r="I675" t="s">
         <v>170</v>
@@ -39167,16 +39173,16 @@
         <v>171</v>
       </c>
       <c r="K675" t="s">
+        <v>4578</v>
+      </c>
+      <c r="L675" t="s">
         <v>4579</v>
-      </c>
-      <c r="L675" t="s">
-        <v>4580</v>
       </c>
       <c r="M675" t="s">
         <v>34</v>
       </c>
       <c r="O675" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="676" spans="1:15" x14ac:dyDescent="0.25">
@@ -39184,19 +39190,19 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
+        <v>4581</v>
+      </c>
+      <c r="D676" t="s">
         <v>4582</v>
       </c>
-      <c r="D676" t="s">
+      <c r="E676" t="s">
         <v>4583</v>
       </c>
-      <c r="E676" t="s">
+      <c r="F676" t="s">
         <v>4584</v>
       </c>
-      <c r="F676" t="s">
+      <c r="H676" t="s">
         <v>4585</v>
-      </c>
-      <c r="H676" t="s">
-        <v>4586</v>
       </c>
       <c r="I676" t="s">
         <v>374</v>
@@ -39205,10 +39211,10 @@
         <v>2171</v>
       </c>
       <c r="K676" t="s">
+        <v>4586</v>
+      </c>
+      <c r="L676" t="s">
         <v>4587</v>
-      </c>
-      <c r="L676" t="s">
-        <v>4588</v>
       </c>
       <c r="M676" t="s">
         <v>34</v>
@@ -39219,34 +39225,34 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C677" t="s">
         <v>4589</v>
       </c>
-      <c r="C677" t="s">
+      <c r="D677" t="s">
         <v>4590</v>
       </c>
-      <c r="D677" t="s">
+      <c r="E677" t="s">
         <v>4591</v>
       </c>
-      <c r="E677" t="s">
+      <c r="F677" t="s">
         <v>4592</v>
       </c>
-      <c r="F677" t="s">
+      <c r="H677" t="s">
         <v>4593</v>
       </c>
-      <c r="H677" t="s">
+      <c r="I677" t="s">
         <v>4594</v>
-      </c>
-      <c r="I677" t="s">
-        <v>4595</v>
       </c>
       <c r="J677" t="s">
         <v>915</v>
       </c>
       <c r="K677" t="s">
+        <v>4595</v>
+      </c>
+      <c r="L677" t="s">
         <v>4596</v>
-      </c>
-      <c r="L677" t="s">
-        <v>4597</v>
       </c>
       <c r="M677" t="s">
         <v>24</v>
@@ -39257,19 +39263,19 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D678" t="s">
         <v>4598</v>
       </c>
-      <c r="D678" t="s">
+      <c r="E678" t="s">
         <v>4599</v>
       </c>
-      <c r="E678" t="s">
+      <c r="F678" t="s">
         <v>4600</v>
       </c>
-      <c r="F678" t="s">
+      <c r="H678" t="s">
         <v>4601</v>
-      </c>
-      <c r="H678" t="s">
-        <v>4602</v>
       </c>
       <c r="I678" t="s">
         <v>431</v>
@@ -39278,10 +39284,10 @@
         <v>432</v>
       </c>
       <c r="K678" t="s">
+        <v>4602</v>
+      </c>
+      <c r="L678" t="s">
         <v>4603</v>
-      </c>
-      <c r="L678" t="s">
-        <v>4604</v>
       </c>
     </row>
     <row r="679" spans="1:15" x14ac:dyDescent="0.25">
@@ -39289,16 +39295,16 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D679" t="s">
         <v>4605</v>
       </c>
-      <c r="D679" t="s">
+      <c r="E679" t="s">
         <v>4606</v>
       </c>
-      <c r="E679" t="s">
+      <c r="F679" t="s">
         <v>4607</v>
-      </c>
-      <c r="F679" t="s">
-        <v>4608</v>
       </c>
       <c r="H679" t="s">
         <v>2343</v>
@@ -39310,10 +39316,10 @@
         <v>528</v>
       </c>
       <c r="K679" t="s">
+        <v>4608</v>
+      </c>
+      <c r="L679" t="s">
         <v>4609</v>
-      </c>
-      <c r="L679" t="s">
-        <v>4610</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.25">
@@ -39321,19 +39327,19 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
+        <v>4610</v>
+      </c>
+      <c r="E680" t="s">
         <v>4611</v>
       </c>
-      <c r="E680" t="s">
+      <c r="F680" t="s">
         <v>4612</v>
       </c>
-      <c r="F680" t="s">
+      <c r="G680" t="s">
         <v>4613</v>
       </c>
-      <c r="G680" t="s">
+      <c r="H680" t="s">
         <v>4614</v>
-      </c>
-      <c r="H680" t="s">
-        <v>4615</v>
       </c>
       <c r="I680" t="s">
         <v>20</v>
@@ -39342,10 +39348,10 @@
         <v>21</v>
       </c>
       <c r="K680" t="s">
+        <v>4615</v>
+      </c>
+      <c r="L680" t="s">
         <v>4616</v>
-      </c>
-      <c r="L680" t="s">
-        <v>4617</v>
       </c>
       <c r="M680" t="s">
         <v>34</v>
@@ -39356,19 +39362,19 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
+        <v>4617</v>
+      </c>
+      <c r="D681" t="s">
         <v>4618</v>
       </c>
-      <c r="D681" t="s">
+      <c r="E681" t="s">
         <v>4619</v>
       </c>
-      <c r="E681" t="s">
+      <c r="F681" t="s">
         <v>4620</v>
       </c>
-      <c r="F681" t="s">
+      <c r="H681" t="s">
         <v>4621</v>
-      </c>
-      <c r="H681" t="s">
-        <v>4622</v>
       </c>
       <c r="I681" t="s">
         <v>1183</v>
@@ -39377,7 +39383,7 @@
         <v>171</v>
       </c>
       <c r="L681" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.25">
@@ -39385,22 +39391,22 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C682" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D682" t="s">
         <v>4624</v>
       </c>
-      <c r="C682" t="s">
-        <v>4624</v>
-      </c>
-      <c r="D682" t="s">
+      <c r="E682" t="s">
         <v>4625</v>
       </c>
-      <c r="E682" t="s">
+      <c r="F682" t="s">
         <v>4626</v>
       </c>
-      <c r="F682" t="s">
+      <c r="G682" t="s">
         <v>4627</v>
-      </c>
-      <c r="G682" t="s">
-        <v>4628</v>
       </c>
       <c r="H682" t="s">
         <v>48</v>
@@ -39412,10 +39418,10 @@
         <v>31</v>
       </c>
       <c r="K682" t="s">
+        <v>4628</v>
+      </c>
+      <c r="L682" t="s">
         <v>4629</v>
-      </c>
-      <c r="L682" t="s">
-        <v>4630</v>
       </c>
       <c r="M682" t="s">
         <v>24</v>
@@ -39426,22 +39432,22 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C683" t="s">
         <v>4631</v>
       </c>
-      <c r="C683" t="s">
+      <c r="D683" t="s">
         <v>4632</v>
       </c>
-      <c r="D683" t="s">
+      <c r="E683" t="s">
         <v>4633</v>
       </c>
-      <c r="E683" t="s">
+      <c r="F683" t="s">
         <v>4634</v>
       </c>
-      <c r="F683" t="s">
+      <c r="H683" t="s">
         <v>4635</v>
-      </c>
-      <c r="H683" t="s">
-        <v>4636</v>
       </c>
       <c r="I683" t="s">
         <v>294</v>
@@ -39450,10 +39456,10 @@
         <v>295</v>
       </c>
       <c r="K683" t="s">
+        <v>4636</v>
+      </c>
+      <c r="L683" t="s">
         <v>4637</v>
-      </c>
-      <c r="L683" t="s">
-        <v>4638</v>
       </c>
       <c r="M683" t="s">
         <v>24</v>
@@ -39464,22 +39470,22 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C684" t="s">
         <v>4639</v>
       </c>
-      <c r="C684" t="s">
+      <c r="D684" t="s">
         <v>4640</v>
       </c>
-      <c r="D684" t="s">
+      <c r="E684" t="s">
         <v>4641</v>
       </c>
-      <c r="E684" t="s">
+      <c r="F684" t="s">
         <v>4642</v>
       </c>
-      <c r="F684" t="s">
+      <c r="H684" t="s">
         <v>4643</v>
-      </c>
-      <c r="H684" t="s">
-        <v>4644</v>
       </c>
       <c r="I684" t="s">
         <v>106</v>
@@ -39488,10 +39494,10 @@
         <v>41</v>
       </c>
       <c r="K684" t="s">
+        <v>4644</v>
+      </c>
+      <c r="L684" t="s">
         <v>4645</v>
-      </c>
-      <c r="L684" t="s">
-        <v>4646</v>
       </c>
       <c r="M684" t="s">
         <v>24</v>
@@ -39502,19 +39508,19 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
+        <v>4646</v>
+      </c>
+      <c r="D685" t="s">
         <v>4647</v>
       </c>
-      <c r="D685" t="s">
+      <c r="E685" t="s">
         <v>4648</v>
       </c>
-      <c r="E685" t="s">
+      <c r="F685" t="s">
         <v>4649</v>
       </c>
-      <c r="F685" t="s">
+      <c r="H685" t="s">
         <v>4650</v>
-      </c>
-      <c r="H685" t="s">
-        <v>4651</v>
       </c>
       <c r="I685" t="s">
         <v>1183</v>
@@ -39523,10 +39529,10 @@
         <v>171</v>
       </c>
       <c r="K685" t="s">
+        <v>4651</v>
+      </c>
+      <c r="L685" t="s">
         <v>4652</v>
-      </c>
-      <c r="L685" t="s">
-        <v>4653</v>
       </c>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.25">
@@ -39534,19 +39540,19 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E686" t="s">
         <v>4654</v>
       </c>
-      <c r="E686" t="s">
+      <c r="F686" t="s">
         <v>4655</v>
       </c>
-      <c r="F686" t="s">
+      <c r="G686" t="s">
         <v>4656</v>
       </c>
-      <c r="G686" t="s">
+      <c r="H686" t="s">
         <v>4657</v>
-      </c>
-      <c r="H686" t="s">
-        <v>4658</v>
       </c>
       <c r="I686" t="s">
         <v>20</v>
@@ -39555,16 +39561,16 @@
         <v>21</v>
       </c>
       <c r="K686" t="s">
+        <v>4658</v>
+      </c>
+      <c r="L686" t="s">
         <v>4659</v>
-      </c>
-      <c r="L686" t="s">
-        <v>4660</v>
       </c>
       <c r="M686" t="s">
         <v>34</v>
       </c>
       <c r="O686" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.25">
@@ -39572,19 +39578,19 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D687" t="s">
         <v>4662</v>
       </c>
-      <c r="D687" t="s">
+      <c r="E687" t="s">
         <v>4663</v>
       </c>
-      <c r="E687" t="s">
+      <c r="F687" t="s">
         <v>4664</v>
       </c>
-      <c r="F687" t="s">
+      <c r="H687" t="s">
         <v>4665</v>
-      </c>
-      <c r="H687" t="s">
-        <v>4666</v>
       </c>
       <c r="I687" t="s">
         <v>106</v>
@@ -39593,10 +39599,10 @@
         <v>41</v>
       </c>
       <c r="K687" t="s">
+        <v>4666</v>
+      </c>
+      <c r="L687" t="s">
         <v>4667</v>
-      </c>
-      <c r="L687" t="s">
-        <v>4668</v>
       </c>
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.25">
@@ -39604,13 +39610,13 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E688" t="s">
         <v>4669</v>
       </c>
-      <c r="E688" t="s">
+      <c r="F688" t="s">
         <v>4670</v>
-      </c>
-      <c r="F688" t="s">
-        <v>4671</v>
       </c>
       <c r="H688" t="s">
         <v>30</v>
@@ -39622,10 +39628,10 @@
         <v>31</v>
       </c>
       <c r="K688" t="s">
+        <v>4671</v>
+      </c>
+      <c r="L688" t="s">
         <v>4672</v>
-      </c>
-      <c r="L688" t="s">
-        <v>4673</v>
       </c>
       <c r="M688" t="s">
         <v>34</v>
@@ -39636,16 +39642,16 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
+        <v>4673</v>
+      </c>
+      <c r="E689" t="s">
         <v>4674</v>
       </c>
-      <c r="E689" t="s">
+      <c r="F689" t="s">
         <v>4675</v>
       </c>
-      <c r="F689" t="s">
+      <c r="H689" t="s">
         <v>4676</v>
-      </c>
-      <c r="H689" t="s">
-        <v>4677</v>
       </c>
       <c r="I689" t="s">
         <v>201</v>
@@ -39654,10 +39660,10 @@
         <v>202</v>
       </c>
       <c r="K689" t="s">
+        <v>4677</v>
+      </c>
+      <c r="L689" t="s">
         <v>4678</v>
-      </c>
-      <c r="L689" t="s">
-        <v>4679</v>
       </c>
       <c r="M689" t="s">
         <v>34</v>
@@ -39668,16 +39674,16 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
+        <v>4679</v>
+      </c>
+      <c r="D690" t="s">
         <v>4680</v>
       </c>
-      <c r="D690" t="s">
+      <c r="E690" t="s">
         <v>4681</v>
       </c>
-      <c r="E690" t="s">
+      <c r="F690" t="s">
         <v>4682</v>
-      </c>
-      <c r="F690" t="s">
-        <v>4683</v>
       </c>
       <c r="H690" t="s">
         <v>170</v>
@@ -39689,10 +39695,10 @@
         <v>171</v>
       </c>
       <c r="K690" t="s">
+        <v>4683</v>
+      </c>
+      <c r="L690" t="s">
         <v>4684</v>
-      </c>
-      <c r="L690" t="s">
-        <v>4685</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.25">
@@ -39700,19 +39706,19 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
+        <v>4685</v>
+      </c>
+      <c r="E691" t="s">
         <v>4686</v>
       </c>
-      <c r="E691" t="s">
+      <c r="F691" t="s">
         <v>4687</v>
       </c>
-      <c r="F691" t="s">
+      <c r="G691" t="s">
         <v>4688</v>
       </c>
-      <c r="G691" t="s">
+      <c r="H691" t="s">
         <v>4689</v>
-      </c>
-      <c r="H691" t="s">
-        <v>4690</v>
       </c>
       <c r="I691" t="s">
         <v>251</v>
@@ -39721,10 +39727,10 @@
         <v>41</v>
       </c>
       <c r="K691" t="s">
+        <v>4690</v>
+      </c>
+      <c r="L691" t="s">
         <v>4691</v>
-      </c>
-      <c r="L691" t="s">
-        <v>4692</v>
       </c>
       <c r="M691" t="s">
         <v>34</v>
@@ -39735,19 +39741,19 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
+        <v>4692</v>
+      </c>
+      <c r="D692" t="s">
         <v>4693</v>
       </c>
-      <c r="D692" t="s">
+      <c r="E692" t="s">
         <v>4694</v>
       </c>
-      <c r="E692" t="s">
+      <c r="F692" t="s">
         <v>4695</v>
       </c>
-      <c r="F692" t="s">
+      <c r="H692" t="s">
         <v>4696</v>
-      </c>
-      <c r="H692" t="s">
-        <v>4697</v>
       </c>
       <c r="I692" t="s">
         <v>40</v>
@@ -39756,10 +39762,10 @@
         <v>41</v>
       </c>
       <c r="K692" t="s">
+        <v>4697</v>
+      </c>
+      <c r="L692" s="1" t="s">
         <v>4698</v>
-      </c>
-      <c r="L692" s="1" t="s">
-        <v>4699</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.25">
@@ -39767,16 +39773,16 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D693" t="s">
         <v>4700</v>
       </c>
-      <c r="D693" t="s">
+      <c r="E693" t="s">
         <v>4701</v>
       </c>
-      <c r="E693" t="s">
+      <c r="F693" t="s">
         <v>4702</v>
-      </c>
-      <c r="F693" t="s">
-        <v>4703</v>
       </c>
       <c r="H693" t="s">
         <v>1610</v>
@@ -39788,10 +39794,10 @@
         <v>41</v>
       </c>
       <c r="K693" t="s">
+        <v>4703</v>
+      </c>
+      <c r="L693" t="s">
         <v>4704</v>
-      </c>
-      <c r="L693" t="s">
-        <v>4705</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.25">
@@ -39799,19 +39805,19 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
+        <v>4705</v>
+      </c>
+      <c r="E694" t="s">
         <v>4706</v>
       </c>
-      <c r="E694" t="s">
+      <c r="F694" t="s">
         <v>4707</v>
       </c>
-      <c r="F694" t="s">
+      <c r="G694" t="s">
         <v>4708</v>
       </c>
-      <c r="G694" t="s">
+      <c r="H694" t="s">
         <v>4709</v>
-      </c>
-      <c r="H694" t="s">
-        <v>4710</v>
       </c>
       <c r="I694" t="s">
         <v>374</v>
@@ -39820,10 +39826,10 @@
         <v>2171</v>
       </c>
       <c r="K694" t="s">
+        <v>4710</v>
+      </c>
+      <c r="L694" t="s">
         <v>4711</v>
-      </c>
-      <c r="L694" t="s">
-        <v>4712</v>
       </c>
       <c r="M694" t="s">
         <v>34</v>
@@ -39834,19 +39840,19 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E695" t="s">
         <v>4713</v>
       </c>
-      <c r="E695" t="s">
+      <c r="F695" t="s">
         <v>4714</v>
       </c>
-      <c r="F695" t="s">
+      <c r="G695" t="s">
         <v>4715</v>
       </c>
-      <c r="G695" t="s">
+      <c r="H695" t="s">
         <v>4716</v>
-      </c>
-      <c r="H695" t="s">
-        <v>4717</v>
       </c>
       <c r="I695" t="s">
         <v>294</v>
@@ -39855,10 +39861,10 @@
         <v>295</v>
       </c>
       <c r="K695" t="s">
+        <v>4717</v>
+      </c>
+      <c r="L695" t="s">
         <v>4718</v>
-      </c>
-      <c r="L695" t="s">
-        <v>4719</v>
       </c>
       <c r="M695" t="s">
         <v>34</v>
@@ -39869,16 +39875,16 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
+        <v>4719</v>
+      </c>
+      <c r="D696" t="s">
         <v>4720</v>
       </c>
-      <c r="D696" t="s">
+      <c r="E696" t="s">
         <v>4721</v>
       </c>
-      <c r="E696" t="s">
+      <c r="F696" t="s">
         <v>4722</v>
-      </c>
-      <c r="F696" t="s">
-        <v>4723</v>
       </c>
       <c r="H696" t="s">
         <v>29</v>
@@ -39890,10 +39896,10 @@
         <v>31</v>
       </c>
       <c r="K696" t="s">
+        <v>4723</v>
+      </c>
+      <c r="L696" t="s">
         <v>4724</v>
-      </c>
-      <c r="L696" t="s">
-        <v>4725</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.25">
@@ -39901,19 +39907,19 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D697" t="s">
         <v>4726</v>
       </c>
-      <c r="D697" t="s">
+      <c r="E697" t="s">
         <v>4727</v>
       </c>
-      <c r="E697" t="s">
+      <c r="F697" t="s">
         <v>4728</v>
       </c>
-      <c r="F697" t="s">
+      <c r="H697" t="s">
         <v>4729</v>
-      </c>
-      <c r="H697" t="s">
-        <v>4730</v>
       </c>
       <c r="I697" t="s">
         <v>264</v>
@@ -39922,10 +39928,10 @@
         <v>31</v>
       </c>
       <c r="K697" t="s">
+        <v>4730</v>
+      </c>
+      <c r="L697" t="s">
         <v>4731</v>
-      </c>
-      <c r="L697" t="s">
-        <v>4732</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.25">
@@ -39933,16 +39939,16 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E698" t="s">
         <v>4733</v>
       </c>
-      <c r="E698" t="s">
+      <c r="F698" t="s">
         <v>4734</v>
       </c>
-      <c r="F698" t="s">
+      <c r="G698" t="s">
         <v>4735</v>
-      </c>
-      <c r="G698" t="s">
-        <v>4736</v>
       </c>
       <c r="H698" t="s">
         <v>1832</v>
@@ -39954,10 +39960,10 @@
         <v>31</v>
       </c>
       <c r="K698" t="s">
+        <v>4736</v>
+      </c>
+      <c r="L698" s="1" t="s">
         <v>4737</v>
-      </c>
-      <c r="L698" s="1" t="s">
-        <v>4738</v>
       </c>
       <c r="M698" t="s">
         <v>34</v>
@@ -39968,22 +39974,22 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C699" t="s">
+        <v>4738</v>
+      </c>
+      <c r="D699" t="s">
         <v>4739</v>
       </c>
-      <c r="C699" t="s">
-        <v>4739</v>
-      </c>
-      <c r="D699" t="s">
+      <c r="E699" t="s">
         <v>4740</v>
       </c>
-      <c r="E699" t="s">
+      <c r="F699" t="s">
         <v>4741</v>
       </c>
-      <c r="F699" t="s">
+      <c r="H699" t="s">
         <v>4742</v>
-      </c>
-      <c r="H699" t="s">
-        <v>4743</v>
       </c>
       <c r="I699" t="s">
         <v>660</v>
@@ -39992,10 +39998,10 @@
         <v>295</v>
       </c>
       <c r="K699" t="s">
+        <v>4743</v>
+      </c>
+      <c r="L699" t="s">
         <v>4744</v>
-      </c>
-      <c r="L699" t="s">
-        <v>4745</v>
       </c>
       <c r="M699" t="s">
         <v>24</v>
@@ -40006,19 +40012,19 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
+        <v>4745</v>
+      </c>
+      <c r="D700" t="s">
         <v>4746</v>
       </c>
-      <c r="D700" t="s">
+      <c r="E700" t="s">
         <v>4747</v>
       </c>
-      <c r="E700" t="s">
+      <c r="F700" t="s">
         <v>4748</v>
       </c>
-      <c r="F700" t="s">
+      <c r="G700" t="s">
         <v>4749</v>
-      </c>
-      <c r="G700" t="s">
-        <v>4750</v>
       </c>
       <c r="H700" t="s">
         <v>55</v>
@@ -40030,7 +40036,7 @@
         <v>56</v>
       </c>
       <c r="L700" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.25">
@@ -40038,22 +40044,25 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C701" t="s">
+        <v>4751</v>
+      </c>
+      <c r="D701" t="s">
         <v>4752</v>
       </c>
-      <c r="C701" t="s">
-        <v>4752</v>
-      </c>
-      <c r="D701" t="s">
+      <c r="E701" t="s">
         <v>4753</v>
       </c>
-      <c r="E701" t="s">
+      <c r="F701" t="s">
         <v>4754</v>
       </c>
-      <c r="F701" t="s">
+      <c r="G701" t="s">
         <v>4755</v>
       </c>
       <c r="H701" t="s">
-        <v>4756</v>
+        <v>5131</v>
       </c>
       <c r="I701" t="s">
         <v>91</v>
@@ -40062,10 +40071,10 @@
         <v>91</v>
       </c>
       <c r="K701" t="s">
+        <v>4756</v>
+      </c>
+      <c r="L701" t="s">
         <v>4757</v>
-      </c>
-      <c r="L701" t="s">
-        <v>4758</v>
       </c>
       <c r="M701" t="s">
         <v>24</v>
@@ -40076,19 +40085,19 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
       <c r="D702" t="s">
-        <v>4753</v>
+        <v>5132</v>
       </c>
       <c r="E702" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F702" t="s">
         <v>4759</v>
       </c>
-      <c r="F702" t="s">
+      <c r="H702" t="s">
         <v>4760</v>
-      </c>
-      <c r="H702" t="s">
-        <v>4761</v>
       </c>
       <c r="I702" t="s">
         <v>106</v>
@@ -40097,10 +40106,10 @@
         <v>41</v>
       </c>
       <c r="K702" t="s">
+        <v>4761</v>
+      </c>
+      <c r="L702" t="s">
         <v>4762</v>
-      </c>
-      <c r="L702" t="s">
-        <v>4763</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.25">
@@ -40108,16 +40117,16 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
+        <v>4763</v>
+      </c>
+      <c r="D703" t="s">
         <v>4764</v>
       </c>
-      <c r="D703" t="s">
+      <c r="E703" t="s">
         <v>4765</v>
       </c>
-      <c r="E703" t="s">
+      <c r="F703" t="s">
         <v>4766</v>
-      </c>
-      <c r="F703" t="s">
-        <v>4767</v>
       </c>
       <c r="H703" t="s">
         <v>200</v>
@@ -40129,10 +40138,10 @@
         <v>202</v>
       </c>
       <c r="K703" t="s">
+        <v>4767</v>
+      </c>
+      <c r="L703" t="s">
         <v>4768</v>
-      </c>
-      <c r="L703" t="s">
-        <v>4769</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.25">
@@ -40140,22 +40149,22 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D704" t="s">
         <v>4770</v>
       </c>
-      <c r="D704" t="s">
+      <c r="E704" t="s">
         <v>4771</v>
       </c>
-      <c r="E704" t="s">
+      <c r="F704" t="s">
         <v>4772</v>
       </c>
-      <c r="F704" t="s">
+      <c r="G704" t="s">
         <v>4773</v>
       </c>
-      <c r="G704" t="s">
+      <c r="H704" t="s">
         <v>4774</v>
-      </c>
-      <c r="H704" t="s">
-        <v>4775</v>
       </c>
       <c r="I704" t="s">
         <v>91</v>
@@ -40164,10 +40173,10 @@
         <v>91</v>
       </c>
       <c r="K704" t="s">
+        <v>4775</v>
+      </c>
+      <c r="L704" t="s">
         <v>4776</v>
-      </c>
-      <c r="L704" t="s">
-        <v>4777</v>
       </c>
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.25">
@@ -40175,19 +40184,19 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
+        <v>4777</v>
+      </c>
+      <c r="E705" t="s">
         <v>4778</v>
       </c>
-      <c r="E705" t="s">
+      <c r="F705" t="s">
         <v>4779</v>
       </c>
-      <c r="F705" t="s">
+      <c r="G705" t="s">
         <v>4780</v>
       </c>
-      <c r="G705" t="s">
-        <v>4781</v>
-      </c>
       <c r="H705" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="I705" t="s">
         <v>106</v>
@@ -40196,19 +40205,19 @@
         <v>41</v>
       </c>
       <c r="K705" t="s">
+        <v>4781</v>
+      </c>
+      <c r="L705" t="s">
         <v>4782</v>
-      </c>
-      <c r="L705" t="s">
-        <v>4783</v>
       </c>
       <c r="M705" t="s">
         <v>34</v>
       </c>
       <c r="N705" t="s">
+        <v>4783</v>
+      </c>
+      <c r="O705" t="s">
         <v>4784</v>
-      </c>
-      <c r="O705" t="s">
-        <v>4785</v>
       </c>
     </row>
     <row r="706" spans="1:15" x14ac:dyDescent="0.25">
@@ -40216,19 +40225,19 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E706" t="s">
         <v>4786</v>
       </c>
-      <c r="E706" t="s">
+      <c r="F706" t="s">
         <v>4787</v>
       </c>
-      <c r="F706" t="s">
+      <c r="G706" t="s">
         <v>4788</v>
       </c>
-      <c r="G706" t="s">
+      <c r="H706" t="s">
         <v>4789</v>
-      </c>
-      <c r="H706" t="s">
-        <v>4790</v>
       </c>
       <c r="I706" t="s">
         <v>1183</v>
@@ -40237,10 +40246,10 @@
         <v>171</v>
       </c>
       <c r="K706" t="s">
+        <v>4790</v>
+      </c>
+      <c r="L706" t="s">
         <v>4791</v>
-      </c>
-      <c r="L706" t="s">
-        <v>4792</v>
       </c>
       <c r="M706" t="s">
         <v>34</v>
@@ -40254,13 +40263,13 @@
         <v>2065</v>
       </c>
       <c r="E707" t="s">
+        <v>4792</v>
+      </c>
+      <c r="F707" t="s">
         <v>4793</v>
       </c>
-      <c r="F707" t="s">
+      <c r="G707" t="s">
         <v>4794</v>
-      </c>
-      <c r="G707" t="s">
-        <v>4795</v>
       </c>
       <c r="H707" t="s">
         <v>3066</v>
@@ -40272,10 +40281,10 @@
         <v>295</v>
       </c>
       <c r="K707" t="s">
+        <v>4795</v>
+      </c>
+      <c r="L707" t="s">
         <v>4796</v>
-      </c>
-      <c r="L707" t="s">
-        <v>4797</v>
       </c>
       <c r="M707" t="s">
         <v>34</v>
@@ -40286,19 +40295,19 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
+        <v>4797</v>
+      </c>
+      <c r="E708" t="s">
         <v>4798</v>
       </c>
-      <c r="E708" t="s">
+      <c r="F708" t="s">
         <v>4799</v>
       </c>
-      <c r="F708" t="s">
+      <c r="G708" t="s">
         <v>4800</v>
       </c>
-      <c r="G708" t="s">
+      <c r="H708" t="s">
         <v>4801</v>
-      </c>
-      <c r="H708" t="s">
-        <v>4802</v>
       </c>
       <c r="I708" t="s">
         <v>294</v>
@@ -40307,10 +40316,10 @@
         <v>295</v>
       </c>
       <c r="K708" t="s">
+        <v>4802</v>
+      </c>
+      <c r="L708" t="s">
         <v>4803</v>
-      </c>
-      <c r="L708" t="s">
-        <v>4804</v>
       </c>
       <c r="M708" t="s">
         <v>34</v>
@@ -40321,19 +40330,19 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D709" t="s">
         <v>4805</v>
       </c>
-      <c r="D709" t="s">
+      <c r="E709" t="s">
         <v>4806</v>
       </c>
-      <c r="E709" t="s">
+      <c r="F709" t="s">
         <v>4807</v>
       </c>
-      <c r="F709" t="s">
+      <c r="H709" t="s">
         <v>4808</v>
-      </c>
-      <c r="H709" t="s">
-        <v>4809</v>
       </c>
       <c r="I709" t="s">
         <v>660</v>
@@ -40342,10 +40351,10 @@
         <v>295</v>
       </c>
       <c r="K709" t="s">
+        <v>4809</v>
+      </c>
+      <c r="L709" s="1" t="s">
         <v>4810</v>
-      </c>
-      <c r="L709" s="1" t="s">
-        <v>4811</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.25">
@@ -40353,31 +40362,31 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
+        <v>4811</v>
+      </c>
+      <c r="D710" t="s">
         <v>4812</v>
       </c>
-      <c r="D710" t="s">
+      <c r="E710" t="s">
         <v>4813</v>
       </c>
-      <c r="E710" t="s">
+      <c r="F710" t="s">
         <v>4814</v>
-      </c>
-      <c r="F710" t="s">
-        <v>4815</v>
       </c>
       <c r="H710" t="s">
         <v>431</v>
       </c>
       <c r="I710" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="J710" t="s">
         <v>432</v>
       </c>
       <c r="K710" t="s">
+        <v>4816</v>
+      </c>
+      <c r="L710" t="s">
         <v>4817</v>
-      </c>
-      <c r="L710" t="s">
-        <v>4818</v>
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.25">
@@ -40385,22 +40394,22 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
+        <v>4818</v>
+      </c>
+      <c r="D711" t="s">
         <v>4819</v>
       </c>
-      <c r="D711" t="s">
+      <c r="E711" t="s">
         <v>4820</v>
       </c>
-      <c r="E711" t="s">
+      <c r="F711" t="s">
         <v>4821</v>
       </c>
-      <c r="F711" t="s">
+      <c r="G711" t="s">
         <v>4822</v>
       </c>
-      <c r="G711" t="s">
-        <v>4823</v>
-      </c>
       <c r="H711" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="I711" t="s">
         <v>264</v>
@@ -40409,10 +40418,10 @@
         <v>31</v>
       </c>
       <c r="K711" t="s">
+        <v>4823</v>
+      </c>
+      <c r="L711" t="s">
         <v>4824</v>
-      </c>
-      <c r="L711" t="s">
-        <v>4825</v>
       </c>
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.25">
@@ -40420,25 +40429,25 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C712" t="s">
+        <v>4825</v>
+      </c>
+      <c r="D712" t="s">
         <v>4826</v>
       </c>
-      <c r="C712" t="s">
-        <v>4826</v>
-      </c>
-      <c r="D712" t="s">
+      <c r="E712" t="s">
         <v>4827</v>
       </c>
-      <c r="E712" t="s">
+      <c r="F712" t="s">
         <v>4828</v>
       </c>
-      <c r="F712" t="s">
+      <c r="G712" t="s">
         <v>4829</v>
       </c>
-      <c r="G712" t="s">
+      <c r="H712" t="s">
         <v>4830</v>
-      </c>
-      <c r="H712" t="s">
-        <v>4831</v>
       </c>
       <c r="I712" t="s">
         <v>374</v>
@@ -40447,10 +40456,10 @@
         <v>2171</v>
       </c>
       <c r="K712" t="s">
+        <v>4831</v>
+      </c>
+      <c r="L712" t="s">
         <v>4832</v>
-      </c>
-      <c r="L712" t="s">
-        <v>4833</v>
       </c>
       <c r="M712" t="s">
         <v>24</v>
@@ -40461,16 +40470,16 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
+        <v>4833</v>
+      </c>
+      <c r="E713" t="s">
         <v>4834</v>
       </c>
-      <c r="E713" t="s">
+      <c r="F713" t="s">
         <v>4835</v>
       </c>
-      <c r="F713" t="s">
+      <c r="H713" t="s">
         <v>4836</v>
-      </c>
-      <c r="H713" t="s">
-        <v>4837</v>
       </c>
       <c r="I713" t="s">
         <v>201</v>
@@ -40479,10 +40488,10 @@
         <v>202</v>
       </c>
       <c r="K713" t="s">
+        <v>4837</v>
+      </c>
+      <c r="L713" t="s">
         <v>4838</v>
-      </c>
-      <c r="L713" t="s">
-        <v>4839</v>
       </c>
       <c r="M713" t="s">
         <v>34</v>
@@ -40493,16 +40502,16 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E714" t="s">
         <v>4840</v>
       </c>
-      <c r="E714" t="s">
+      <c r="F714" t="s">
         <v>4841</v>
       </c>
-      <c r="F714" t="s">
+      <c r="H714" t="s">
         <v>4842</v>
-      </c>
-      <c r="H714" t="s">
-        <v>4843</v>
       </c>
       <c r="I714" t="s">
         <v>201</v>
@@ -40511,10 +40520,10 @@
         <v>202</v>
       </c>
       <c r="K714" t="s">
+        <v>4843</v>
+      </c>
+      <c r="L714" t="s">
         <v>4844</v>
-      </c>
-      <c r="L714" t="s">
-        <v>4845</v>
       </c>
       <c r="M714" t="s">
         <v>34</v>
@@ -40525,13 +40534,13 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E715" t="s">
         <v>4846</v>
       </c>
-      <c r="E715" t="s">
+      <c r="F715" t="s">
         <v>4847</v>
-      </c>
-      <c r="F715" t="s">
-        <v>4848</v>
       </c>
       <c r="H715" t="s">
         <v>135</v>
@@ -40543,16 +40552,16 @@
         <v>56</v>
       </c>
       <c r="K715" t="s">
+        <v>4848</v>
+      </c>
+      <c r="L715" t="s">
         <v>4849</v>
-      </c>
-      <c r="L715" t="s">
-        <v>4850</v>
       </c>
       <c r="M715" t="s">
         <v>34</v>
       </c>
       <c r="O715" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.25">
@@ -40560,19 +40569,19 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C716" t="s">
+        <v>4851</v>
+      </c>
+      <c r="D716" t="s">
         <v>4852</v>
       </c>
-      <c r="C716" t="s">
-        <v>4852</v>
-      </c>
-      <c r="D716" t="s">
+      <c r="E716" t="s">
         <v>4853</v>
       </c>
-      <c r="E716" t="s">
+      <c r="F716" t="s">
         <v>4854</v>
-      </c>
-      <c r="F716" t="s">
-        <v>4855</v>
       </c>
       <c r="H716" t="s">
         <v>1082</v>
@@ -40584,10 +40593,10 @@
         <v>295</v>
       </c>
       <c r="K716" t="s">
+        <v>4855</v>
+      </c>
+      <c r="L716" t="s">
         <v>4856</v>
-      </c>
-      <c r="L716" t="s">
-        <v>4857</v>
       </c>
       <c r="M716" t="s">
         <v>24</v>
@@ -40598,19 +40607,19 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E717" t="s">
         <v>4858</v>
       </c>
-      <c r="E717" t="s">
+      <c r="F717" t="s">
         <v>4859</v>
       </c>
-      <c r="F717" t="s">
+      <c r="G717" t="s">
         <v>4860</v>
       </c>
-      <c r="G717" t="s">
+      <c r="H717" t="s">
         <v>4861</v>
-      </c>
-      <c r="H717" t="s">
-        <v>4862</v>
       </c>
       <c r="I717" t="s">
         <v>304</v>
@@ -40619,16 +40628,16 @@
         <v>41</v>
       </c>
       <c r="K717" t="s">
+        <v>4862</v>
+      </c>
+      <c r="L717" s="1" t="s">
         <v>4863</v>
-      </c>
-      <c r="L717" s="1" t="s">
-        <v>4864</v>
       </c>
       <c r="M717" t="s">
         <v>34</v>
       </c>
       <c r="O717" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.25">
@@ -40636,16 +40645,16 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
+        <v>4865</v>
+      </c>
+      <c r="E718" t="s">
         <v>4866</v>
       </c>
-      <c r="E718" t="s">
+      <c r="F718" t="s">
         <v>4867</v>
       </c>
-      <c r="F718" t="s">
+      <c r="H718" t="s">
         <v>4868</v>
-      </c>
-      <c r="H718" t="s">
-        <v>4869</v>
       </c>
       <c r="I718" t="s">
         <v>320</v>
@@ -40654,10 +40663,10 @@
         <v>31</v>
       </c>
       <c r="K718" t="s">
+        <v>4869</v>
+      </c>
+      <c r="L718" t="s">
         <v>4870</v>
-      </c>
-      <c r="L718" t="s">
-        <v>4871</v>
       </c>
       <c r="M718" t="s">
         <v>34</v>
@@ -40668,16 +40677,16 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
+        <v>4871</v>
+      </c>
+      <c r="D719" t="s">
         <v>4872</v>
       </c>
-      <c r="D719" t="s">
+      <c r="E719" t="s">
         <v>4873</v>
       </c>
-      <c r="E719" t="s">
+      <c r="F719" t="s">
         <v>4874</v>
-      </c>
-      <c r="F719" t="s">
-        <v>4875</v>
       </c>
       <c r="H719" t="s">
         <v>591</v>
@@ -40689,10 +40698,10 @@
         <v>65</v>
       </c>
       <c r="K719" t="s">
+        <v>4875</v>
+      </c>
+      <c r="L719" t="s">
         <v>4876</v>
-      </c>
-      <c r="L719" t="s">
-        <v>4877</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.25">
@@ -40700,16 +40709,16 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E720" t="s">
         <v>4878</v>
       </c>
-      <c r="E720" t="s">
+      <c r="F720" t="s">
         <v>4879</v>
       </c>
-      <c r="F720" t="s">
+      <c r="H720" t="s">
         <v>4880</v>
-      </c>
-      <c r="H720" t="s">
-        <v>4881</v>
       </c>
       <c r="I720" t="s">
         <v>30</v>
@@ -40718,10 +40727,10 @@
         <v>31</v>
       </c>
       <c r="K720" t="s">
+        <v>4881</v>
+      </c>
+      <c r="L720" t="s">
         <v>4882</v>
-      </c>
-      <c r="L720" t="s">
-        <v>4883</v>
       </c>
       <c r="M720" t="s">
         <v>34</v>
@@ -40732,16 +40741,16 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
+        <v>4883</v>
+      </c>
+      <c r="E721" t="s">
         <v>4884</v>
       </c>
-      <c r="E721" t="s">
+      <c r="F721" t="s">
         <v>4885</v>
       </c>
-      <c r="F721" t="s">
+      <c r="H721" t="s">
         <v>4886</v>
-      </c>
-      <c r="H721" t="s">
-        <v>4887</v>
       </c>
       <c r="I721" t="s">
         <v>135</v>
@@ -40750,10 +40759,10 @@
         <v>56</v>
       </c>
       <c r="K721" t="s">
+        <v>4887</v>
+      </c>
+      <c r="L721" t="s">
         <v>4888</v>
-      </c>
-      <c r="L721" t="s">
-        <v>4889</v>
       </c>
       <c r="M721" t="s">
         <v>34</v>
@@ -40764,16 +40773,16 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E722" t="s">
         <v>4890</v>
       </c>
-      <c r="E722" t="s">
+      <c r="F722" t="s">
         <v>4891</v>
       </c>
-      <c r="F722" t="s">
+      <c r="H722" t="s">
         <v>4892</v>
-      </c>
-      <c r="H722" t="s">
-        <v>4893</v>
       </c>
       <c r="I722" t="s">
         <v>271</v>
@@ -40782,7 +40791,7 @@
         <v>41</v>
       </c>
       <c r="L722" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="M722" t="s">
         <v>34</v>
@@ -40793,22 +40802,22 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
+        <v>4894</v>
+      </c>
+      <c r="C723" t="s">
+        <v>4894</v>
+      </c>
+      <c r="D723" t="s">
         <v>4895</v>
       </c>
-      <c r="C723" t="s">
-        <v>4895</v>
-      </c>
-      <c r="D723" t="s">
+      <c r="E723" t="s">
         <v>4896</v>
       </c>
-      <c r="E723" t="s">
+      <c r="F723" t="s">
         <v>4897</v>
       </c>
-      <c r="F723" t="s">
+      <c r="H723" t="s">
         <v>4898</v>
-      </c>
-      <c r="H723" t="s">
-        <v>4899</v>
       </c>
       <c r="I723" t="s">
         <v>374</v>
@@ -40817,10 +40826,10 @@
         <v>2171</v>
       </c>
       <c r="K723" t="s">
+        <v>4899</v>
+      </c>
+      <c r="L723" t="s">
         <v>4900</v>
-      </c>
-      <c r="L723" t="s">
-        <v>4901</v>
       </c>
       <c r="M723" t="s">
         <v>24</v>
@@ -40831,16 +40840,16 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
+        <v>4901</v>
+      </c>
+      <c r="E724" t="s">
         <v>4902</v>
       </c>
-      <c r="E724" t="s">
+      <c r="F724" t="s">
         <v>4903</v>
       </c>
-      <c r="F724" t="s">
+      <c r="H724" t="s">
         <v>4904</v>
-      </c>
-      <c r="H724" t="s">
-        <v>4905</v>
       </c>
       <c r="I724" t="s">
         <v>286</v>
@@ -40849,10 +40858,10 @@
         <v>31</v>
       </c>
       <c r="K724" t="s">
+        <v>4905</v>
+      </c>
+      <c r="L724" t="s">
         <v>4906</v>
-      </c>
-      <c r="L724" t="s">
-        <v>4907</v>
       </c>
       <c r="M724" t="s">
         <v>34</v>
@@ -40863,22 +40872,22 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C725" t="s">
         <v>4908</v>
       </c>
-      <c r="C725" t="s">
+      <c r="D725" t="s">
         <v>4909</v>
       </c>
-      <c r="D725" t="s">
+      <c r="E725" t="s">
         <v>4910</v>
       </c>
-      <c r="E725" t="s">
+      <c r="F725" t="s">
         <v>4911</v>
       </c>
-      <c r="F725" t="s">
+      <c r="H725" t="s">
         <v>4912</v>
-      </c>
-      <c r="H725" t="s">
-        <v>4913</v>
       </c>
       <c r="I725" t="s">
         <v>91</v>
@@ -40887,10 +40896,10 @@
         <v>91</v>
       </c>
       <c r="K725" t="s">
+        <v>4913</v>
+      </c>
+      <c r="L725" t="s">
         <v>4914</v>
-      </c>
-      <c r="L725" t="s">
-        <v>4915</v>
       </c>
       <c r="M725" t="s">
         <v>24</v>
@@ -40901,13 +40910,13 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
+        <v>4915</v>
+      </c>
+      <c r="E726" t="s">
         <v>4916</v>
       </c>
-      <c r="E726" t="s">
+      <c r="F726" t="s">
         <v>4917</v>
-      </c>
-      <c r="F726" t="s">
-        <v>4918</v>
       </c>
       <c r="H726" t="s">
         <v>30</v>
@@ -40919,10 +40928,10 @@
         <v>31</v>
       </c>
       <c r="K726" t="s">
+        <v>4918</v>
+      </c>
+      <c r="L726" t="s">
         <v>4919</v>
-      </c>
-      <c r="L726" t="s">
-        <v>4920</v>
       </c>
       <c r="M726" t="s">
         <v>34</v>
@@ -40933,16 +40942,16 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
+        <v>4920</v>
+      </c>
+      <c r="E727" t="s">
         <v>4921</v>
       </c>
-      <c r="E727" t="s">
+      <c r="F727" t="s">
         <v>4922</v>
       </c>
-      <c r="F727" t="s">
+      <c r="H727" t="s">
         <v>4923</v>
-      </c>
-      <c r="H727" t="s">
-        <v>4924</v>
       </c>
       <c r="I727" t="s">
         <v>591</v>
@@ -40951,10 +40960,10 @@
         <v>65</v>
       </c>
       <c r="K727" t="s">
+        <v>4924</v>
+      </c>
+      <c r="L727" t="s">
         <v>4925</v>
-      </c>
-      <c r="L727" t="s">
-        <v>4926</v>
       </c>
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.25">
@@ -40962,16 +40971,16 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
+        <v>4926</v>
+      </c>
+      <c r="E728" t="s">
         <v>4927</v>
       </c>
-      <c r="E728" t="s">
+      <c r="F728" t="s">
         <v>4928</v>
       </c>
-      <c r="F728" t="s">
+      <c r="H728" t="s">
         <v>4929</v>
-      </c>
-      <c r="H728" t="s">
-        <v>4930</v>
       </c>
       <c r="I728" t="s">
         <v>320</v>
@@ -40980,10 +40989,10 @@
         <v>31</v>
       </c>
       <c r="K728" t="s">
+        <v>4930</v>
+      </c>
+      <c r="L728" t="s">
         <v>4931</v>
-      </c>
-      <c r="L728" t="s">
-        <v>4932</v>
       </c>
       <c r="M728" t="s">
         <v>34</v>
@@ -40994,16 +41003,16 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
+        <v>4932</v>
+      </c>
+      <c r="E729" t="s">
         <v>4933</v>
       </c>
-      <c r="E729" t="s">
+      <c r="F729" t="s">
         <v>4934</v>
       </c>
-      <c r="F729" t="s">
+      <c r="H729" t="s">
         <v>4935</v>
-      </c>
-      <c r="H729" t="s">
-        <v>4936</v>
       </c>
       <c r="I729" t="s">
         <v>55</v>
@@ -41012,10 +41021,10 @@
         <v>56</v>
       </c>
       <c r="K729" t="s">
+        <v>4936</v>
+      </c>
+      <c r="L729" t="s">
         <v>4937</v>
-      </c>
-      <c r="L729" t="s">
-        <v>4938</v>
       </c>
       <c r="M729" t="s">
         <v>34</v>
@@ -41026,19 +41035,19 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
+        <v>4938</v>
+      </c>
+      <c r="D730" t="s">
         <v>4939</v>
       </c>
-      <c r="D730" t="s">
+      <c r="E730" t="s">
         <v>4940</v>
       </c>
-      <c r="E730" t="s">
+      <c r="F730" t="s">
         <v>4941</v>
       </c>
-      <c r="F730" t="s">
+      <c r="H730" t="s">
         <v>4942</v>
-      </c>
-      <c r="H730" t="s">
-        <v>4943</v>
       </c>
       <c r="I730" t="s">
         <v>304</v>
@@ -41047,10 +41056,10 @@
         <v>41</v>
       </c>
       <c r="K730" t="s">
+        <v>4943</v>
+      </c>
+      <c r="L730" t="s">
         <v>4944</v>
-      </c>
-      <c r="L730" t="s">
-        <v>4945</v>
       </c>
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.25">
@@ -41058,13 +41067,13 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C731" t="s">
         <v>4946</v>
       </c>
-      <c r="C731" t="s">
+      <c r="D731" t="s">
         <v>4947</v>
-      </c>
-      <c r="D731" t="s">
-        <v>4948</v>
       </c>
       <c r="E731" t="s">
         <v>3743</v>
@@ -41073,13 +41082,13 @@
         <v>3744</v>
       </c>
       <c r="H731" t="s">
+        <v>4948</v>
+      </c>
+      <c r="K731" t="s">
         <v>4949</v>
       </c>
-      <c r="K731" t="s">
+      <c r="L731" t="s">
         <v>4950</v>
-      </c>
-      <c r="L731" t="s">
-        <v>4951</v>
       </c>
       <c r="M731" t="s">
         <v>24</v>
@@ -41090,16 +41099,16 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
+        <v>4951</v>
+      </c>
+      <c r="D732" t="s">
         <v>4952</v>
       </c>
-      <c r="D732" t="s">
+      <c r="E732" t="s">
         <v>4953</v>
       </c>
-      <c r="E732" t="s">
+      <c r="F732" t="s">
         <v>4954</v>
-      </c>
-      <c r="F732" t="s">
-        <v>4955</v>
       </c>
       <c r="H732" t="s">
         <v>4070</v>
@@ -41111,10 +41120,10 @@
         <v>279</v>
       </c>
       <c r="K732" t="s">
+        <v>4955</v>
+      </c>
+      <c r="L732" t="s">
         <v>4956</v>
-      </c>
-      <c r="L732" t="s">
-        <v>4957</v>
       </c>
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.25">
@@ -41122,19 +41131,19 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
+        <v>4957</v>
+      </c>
+      <c r="D733" t="s">
         <v>4958</v>
       </c>
-      <c r="D733" t="s">
+      <c r="E733" t="s">
         <v>4959</v>
       </c>
-      <c r="E733" t="s">
+      <c r="F733" t="s">
         <v>4960</v>
       </c>
-      <c r="F733" t="s">
+      <c r="H733" t="s">
         <v>4961</v>
-      </c>
-      <c r="H733" t="s">
-        <v>4962</v>
       </c>
       <c r="I733" t="s">
         <v>345</v>
@@ -41143,10 +41152,10 @@
         <v>21</v>
       </c>
       <c r="K733" t="s">
+        <v>4962</v>
+      </c>
+      <c r="L733" t="s">
         <v>4963</v>
-      </c>
-      <c r="L733" t="s">
-        <v>4964</v>
       </c>
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.25">
@@ -41154,16 +41163,16 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D734" t="s">
         <v>4965</v>
       </c>
-      <c r="D734" t="s">
+      <c r="E734" t="s">
         <v>4966</v>
       </c>
-      <c r="E734" t="s">
+      <c r="F734" t="s">
         <v>4967</v>
-      </c>
-      <c r="F734" t="s">
-        <v>4968</v>
       </c>
       <c r="H734" t="s">
         <v>200</v>
@@ -41175,10 +41184,10 @@
         <v>202</v>
       </c>
       <c r="K734" t="s">
+        <v>4968</v>
+      </c>
+      <c r="L734" t="s">
         <v>4969</v>
-      </c>
-      <c r="L734" t="s">
-        <v>4970</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.25">
@@ -41186,16 +41195,16 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
+        <v>4970</v>
+      </c>
+      <c r="E735" t="s">
         <v>4971</v>
       </c>
-      <c r="E735" t="s">
+      <c r="F735" t="s">
         <v>4972</v>
       </c>
-      <c r="F735" t="s">
+      <c r="H735" t="s">
         <v>4973</v>
-      </c>
-      <c r="H735" t="s">
-        <v>4974</v>
       </c>
       <c r="I735" t="s">
         <v>135</v>
@@ -41204,10 +41213,10 @@
         <v>56</v>
       </c>
       <c r="K735" t="s">
+        <v>4974</v>
+      </c>
+      <c r="L735" t="s">
         <v>4975</v>
-      </c>
-      <c r="L735" t="s">
-        <v>4976</v>
       </c>
       <c r="M735" t="s">
         <v>34</v>
@@ -41218,13 +41227,13 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
+        <v>4976</v>
+      </c>
+      <c r="E736" t="s">
         <v>4977</v>
       </c>
-      <c r="E736" t="s">
+      <c r="F736" t="s">
         <v>4978</v>
-      </c>
-      <c r="F736" t="s">
-        <v>4979</v>
       </c>
       <c r="H736" t="s">
         <v>135</v>
@@ -41236,10 +41245,10 @@
         <v>56</v>
       </c>
       <c r="K736" t="s">
+        <v>4979</v>
+      </c>
+      <c r="L736" t="s">
         <v>4980</v>
-      </c>
-      <c r="L736" t="s">
-        <v>4981</v>
       </c>
       <c r="M736" t="s">
         <v>34</v>
@@ -41250,19 +41259,19 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
+        <v>4981</v>
+      </c>
+      <c r="D737" t="s">
         <v>4982</v>
       </c>
-      <c r="D737" t="s">
+      <c r="E737" t="s">
         <v>4983</v>
       </c>
-      <c r="E737" t="s">
+      <c r="F737" t="s">
         <v>4984</v>
       </c>
-      <c r="F737" t="s">
+      <c r="H737" t="s">
         <v>4985</v>
-      </c>
-      <c r="H737" t="s">
-        <v>4986</v>
       </c>
       <c r="I737" t="s">
         <v>251</v>
@@ -41271,10 +41280,10 @@
         <v>41</v>
       </c>
       <c r="K737" t="s">
+        <v>4986</v>
+      </c>
+      <c r="L737" t="s">
         <v>4987</v>
-      </c>
-      <c r="L737" t="s">
-        <v>4988</v>
       </c>
     </row>
     <row r="738" spans="1:13" x14ac:dyDescent="0.25">
@@ -41282,19 +41291,19 @@
         <v>737</v>
       </c>
       <c r="B738" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D738" t="s">
         <v>4989</v>
       </c>
-      <c r="D738" t="s">
+      <c r="E738" t="s">
         <v>4990</v>
       </c>
-      <c r="E738" t="s">
+      <c r="F738" t="s">
         <v>4991</v>
       </c>
-      <c r="F738" t="s">
+      <c r="H738" t="s">
         <v>4992</v>
-      </c>
-      <c r="H738" t="s">
-        <v>4993</v>
       </c>
       <c r="I738" t="s">
         <v>64</v>
@@ -41303,10 +41312,10 @@
         <v>65</v>
       </c>
       <c r="K738" t="s">
+        <v>4993</v>
+      </c>
+      <c r="L738" t="s">
         <v>4994</v>
-      </c>
-      <c r="L738" t="s">
-        <v>4995</v>
       </c>
     </row>
     <row r="739" spans="1:13" x14ac:dyDescent="0.25">
@@ -41314,16 +41323,16 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
+        <v>4995</v>
+      </c>
+      <c r="E739" t="s">
         <v>4996</v>
       </c>
-      <c r="E739" t="s">
+      <c r="F739" t="s">
         <v>4997</v>
       </c>
-      <c r="F739" t="s">
+      <c r="H739" t="s">
         <v>4998</v>
-      </c>
-      <c r="H739" t="s">
-        <v>4999</v>
       </c>
       <c r="I739" t="s">
         <v>135</v>
@@ -41332,10 +41341,10 @@
         <v>56</v>
       </c>
       <c r="K739" t="s">
+        <v>4999</v>
+      </c>
+      <c r="L739" t="s">
         <v>5000</v>
-      </c>
-      <c r="L739" t="s">
-        <v>5001</v>
       </c>
       <c r="M739" t="s">
         <v>34</v>
@@ -41346,13 +41355,13 @@
         <v>739</v>
       </c>
       <c r="B740" t="s">
+        <v>5001</v>
+      </c>
+      <c r="E740" t="s">
         <v>5002</v>
       </c>
-      <c r="E740" t="s">
+      <c r="F740" t="s">
         <v>5003</v>
-      </c>
-      <c r="F740" t="s">
-        <v>5004</v>
       </c>
       <c r="H740" t="s">
         <v>115</v>
@@ -41364,10 +41373,10 @@
         <v>31</v>
       </c>
       <c r="K740" t="s">
+        <v>5004</v>
+      </c>
+      <c r="L740" t="s">
         <v>5005</v>
-      </c>
-      <c r="L740" t="s">
-        <v>5006</v>
       </c>
       <c r="M740" t="s">
         <v>34</v>
@@ -41378,16 +41387,16 @@
         <v>740</v>
       </c>
       <c r="B741" t="s">
+        <v>5006</v>
+      </c>
+      <c r="D741" t="s">
         <v>5007</v>
       </c>
-      <c r="D741" t="s">
+      <c r="E741" t="s">
         <v>5008</v>
       </c>
-      <c r="E741" t="s">
+      <c r="F741" t="s">
         <v>5009</v>
-      </c>
-      <c r="F741" t="s">
-        <v>5010</v>
       </c>
       <c r="H741" t="s">
         <v>201</v>
@@ -41399,10 +41408,10 @@
         <v>202</v>
       </c>
       <c r="K741" t="s">
+        <v>5010</v>
+      </c>
+      <c r="L741" t="s">
         <v>5011</v>
-      </c>
-      <c r="L741" t="s">
-        <v>5012</v>
       </c>
       <c r="M741" t="s">
         <v>34</v>
@@ -41413,19 +41422,19 @@
         <v>741</v>
       </c>
       <c r="B742" t="s">
+        <v>5012</v>
+      </c>
+      <c r="D742" t="s">
         <v>5013</v>
       </c>
-      <c r="D742" t="s">
+      <c r="E742" t="s">
         <v>5014</v>
       </c>
-      <c r="E742" t="s">
+      <c r="F742" t="s">
         <v>5015</v>
       </c>
-      <c r="F742" t="s">
+      <c r="H742" t="s">
         <v>5016</v>
-      </c>
-      <c r="H742" t="s">
-        <v>5017</v>
       </c>
       <c r="I742" t="s">
         <v>286</v>
@@ -41434,10 +41443,10 @@
         <v>31</v>
       </c>
       <c r="K742" t="s">
+        <v>5017</v>
+      </c>
+      <c r="L742" t="s">
         <v>5018</v>
-      </c>
-      <c r="L742" t="s">
-        <v>5019</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.25">
@@ -41445,16 +41454,16 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
+        <v>5019</v>
+      </c>
+      <c r="E743" t="s">
         <v>5020</v>
       </c>
-      <c r="E743" t="s">
+      <c r="F743" t="s">
         <v>5021</v>
       </c>
-      <c r="F743" t="s">
+      <c r="H743" t="s">
         <v>5022</v>
-      </c>
-      <c r="H743" t="s">
-        <v>5023</v>
       </c>
       <c r="I743" t="s">
         <v>30</v>
@@ -41463,10 +41472,10 @@
         <v>31</v>
       </c>
       <c r="K743" t="s">
+        <v>5023</v>
+      </c>
+      <c r="L743" t="s">
         <v>5024</v>
-      </c>
-      <c r="L743" t="s">
-        <v>5025</v>
       </c>
       <c r="M743" t="s">
         <v>34</v>
@@ -41477,22 +41486,22 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
+        <v>5025</v>
+      </c>
+      <c r="C744" t="s">
         <v>5026</v>
       </c>
-      <c r="C744" t="s">
+      <c r="D744" t="s">
         <v>5027</v>
       </c>
-      <c r="D744" t="s">
+      <c r="E744" t="s">
         <v>5028</v>
       </c>
-      <c r="E744" t="s">
+      <c r="F744" t="s">
         <v>5029</v>
       </c>
-      <c r="F744" t="s">
+      <c r="H744" t="s">
         <v>5030</v>
-      </c>
-      <c r="H744" t="s">
-        <v>5031</v>
       </c>
       <c r="I744" t="s">
         <v>714</v>
@@ -41501,10 +41510,10 @@
         <v>41</v>
       </c>
       <c r="K744" t="s">
+        <v>5031</v>
+      </c>
+      <c r="L744" t="s">
         <v>5032</v>
-      </c>
-      <c r="L744" t="s">
-        <v>5033</v>
       </c>
       <c r="M744" t="s">
         <v>24</v>
@@ -41515,22 +41524,22 @@
         <v>744</v>
       </c>
       <c r="B745" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C745" t="s">
         <v>5034</v>
       </c>
-      <c r="C745" t="s">
+      <c r="D745" t="s">
         <v>5035</v>
       </c>
-      <c r="D745" t="s">
+      <c r="E745" t="s">
         <v>5036</v>
       </c>
-      <c r="E745" t="s">
+      <c r="F745" t="s">
         <v>5037</v>
       </c>
-      <c r="F745" t="s">
+      <c r="H745" t="s">
         <v>5038</v>
-      </c>
-      <c r="H745" t="s">
-        <v>5039</v>
       </c>
       <c r="I745" t="s">
         <v>714</v>
@@ -41539,10 +41548,10 @@
         <v>41</v>
       </c>
       <c r="K745" t="s">
+        <v>5039</v>
+      </c>
+      <c r="L745" t="s">
         <v>5040</v>
-      </c>
-      <c r="L745" t="s">
-        <v>5041</v>
       </c>
       <c r="M745" t="s">
         <v>24</v>
@@ -41553,16 +41562,16 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
+        <v>5041</v>
+      </c>
+      <c r="D746" t="s">
         <v>5042</v>
       </c>
-      <c r="D746" t="s">
+      <c r="E746" t="s">
         <v>5043</v>
       </c>
-      <c r="E746" t="s">
+      <c r="F746" t="s">
         <v>5044</v>
-      </c>
-      <c r="F746" t="s">
-        <v>5045</v>
       </c>
       <c r="H746" t="s">
         <v>2879</v>
@@ -41574,10 +41583,10 @@
         <v>41</v>
       </c>
       <c r="K746" t="s">
+        <v>5045</v>
+      </c>
+      <c r="L746" t="s">
         <v>5046</v>
-      </c>
-      <c r="L746" t="s">
-        <v>5047</v>
       </c>
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.25">
@@ -41585,19 +41594,19 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
+        <v>5047</v>
+      </c>
+      <c r="E747" t="s">
         <v>5048</v>
       </c>
-      <c r="E747" t="s">
+      <c r="F747" t="s">
         <v>5049</v>
       </c>
-      <c r="F747" t="s">
+      <c r="G747" t="s">
         <v>5050</v>
       </c>
-      <c r="G747" t="s">
+      <c r="H747" t="s">
         <v>5051</v>
-      </c>
-      <c r="H747" t="s">
-        <v>5052</v>
       </c>
       <c r="I747" t="s">
         <v>251</v>
@@ -41606,10 +41615,10 @@
         <v>41</v>
       </c>
       <c r="K747" t="s">
+        <v>5052</v>
+      </c>
+      <c r="L747" t="s">
         <v>5053</v>
-      </c>
-      <c r="L747" t="s">
-        <v>5054</v>
       </c>
       <c r="M747" t="s">
         <v>34</v>
@@ -41620,16 +41629,16 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
+        <v>5054</v>
+      </c>
+      <c r="E748" t="s">
         <v>5055</v>
       </c>
-      <c r="E748" t="s">
+      <c r="F748" t="s">
         <v>5056</v>
       </c>
-      <c r="F748" t="s">
+      <c r="H748" t="s">
         <v>5057</v>
-      </c>
-      <c r="H748" t="s">
-        <v>5058</v>
       </c>
       <c r="I748" t="s">
         <v>30</v>
@@ -41638,7 +41647,7 @@
         <v>31</v>
       </c>
       <c r="L748" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="M748" t="s">
         <v>34</v>
@@ -41649,19 +41658,19 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
+        <v>5059</v>
+      </c>
+      <c r="D749" t="s">
         <v>5060</v>
       </c>
-      <c r="D749" t="s">
+      <c r="E749" t="s">
         <v>5061</v>
       </c>
-      <c r="E749" t="s">
+      <c r="F749" t="s">
         <v>5062</v>
       </c>
-      <c r="F749" t="s">
+      <c r="H749" t="s">
         <v>5063</v>
-      </c>
-      <c r="H749" t="s">
-        <v>5064</v>
       </c>
       <c r="I749" t="s">
         <v>55</v>
@@ -41670,10 +41679,10 @@
         <v>56</v>
       </c>
       <c r="K749" t="s">
+        <v>5064</v>
+      </c>
+      <c r="L749" t="s">
         <v>5065</v>
-      </c>
-      <c r="L749" t="s">
-        <v>5066</v>
       </c>
     </row>
   </sheetData>
@@ -41744,24 +41753,24 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="M1" t="s">
         <v>5067</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5068</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5069</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5069</v>
+      </c>
+      <c r="D2" t="s">
         <v>5070</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5071</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5072</v>
       </c>
       <c r="G2" t="s">
         <v>4252</v>
@@ -41773,24 +41782,24 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
+        <v>5072</v>
+      </c>
+      <c r="K2" t="s">
         <v>5073</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5074</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5075</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D3" t="s">
         <v>5076</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5077</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5078</v>
       </c>
       <c r="G3" t="s">
         <v>2676</v>
@@ -41802,44 +41811,44 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
+        <v>5078</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>5079</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5080</v>
-      </c>
       <c r="L3" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D4" t="s">
         <v>5081</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5082</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>5083</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5084</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5084</v>
+      </c>
+      <c r="C5" t="s">
         <v>5085</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5086</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5087</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>5088</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5089</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -41848,30 +41857,30 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
+        <v>5089</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>5090</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>5091</v>
-      </c>
       <c r="L5" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5084</v>
+      </c>
+      <c r="C6" t="s">
         <v>5085</v>
       </c>
-      <c r="C6" t="s">
-        <v>5086</v>
-      </c>
       <c r="D6" t="s">
+        <v>5091</v>
+      </c>
+      <c r="E6" t="s">
         <v>5092</v>
       </c>
-      <c r="E6" t="s">
-        <v>5093</v>
-      </c>
       <c r="G6" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="H6" t="s">
         <v>64</v>
@@ -41880,30 +41889,30 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
+        <v>5093</v>
+      </c>
+      <c r="K6" t="s">
         <v>5094</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>5074</v>
+      </c>
+      <c r="N6" t="s">
         <v>5095</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5075</v>
-      </c>
-      <c r="N6" t="s">
-        <v>5096</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5096</v>
+      </c>
+      <c r="D7" t="s">
         <v>5097</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5098</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>5099</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5100</v>
       </c>
       <c r="H7" t="s">
         <v>591</v>
@@ -41912,52 +41921,52 @@
         <v>65</v>
       </c>
       <c r="J7" t="s">
+        <v>5100</v>
+      </c>
+      <c r="K7" t="s">
         <v>5101</v>
       </c>
-      <c r="K7" t="s">
-        <v>5102</v>
-      </c>
       <c r="L7" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D8" t="s">
         <v>5103</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>5104</v>
       </c>
-      <c r="E8" t="s">
-        <v>5105</v>
-      </c>
       <c r="L8" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5105</v>
+      </c>
+      <c r="D9" t="s">
         <v>5106</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>5107</v>
       </c>
-      <c r="E9" t="s">
-        <v>5108</v>
-      </c>
       <c r="L9" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5108</v>
+      </c>
+      <c r="D10" t="s">
         <v>5109</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>5110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5111</v>
       </c>
       <c r="G10" t="s">
         <v>1852</v>
@@ -41969,41 +41978,41 @@
         <v>279</v>
       </c>
       <c r="J10" t="s">
+        <v>5111</v>
+      </c>
+      <c r="K10" t="s">
         <v>5112</v>
       </c>
-      <c r="K10" t="s">
-        <v>5113</v>
-      </c>
       <c r="L10" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5113</v>
+      </c>
+      <c r="D11" t="s">
         <v>5114</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5115</v>
       </c>
-      <c r="E11" t="s">
-        <v>5116</v>
-      </c>
       <c r="L11" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5116</v>
+      </c>
+      <c r="D12" t="s">
         <v>5117</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5118</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>5119</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5120</v>
       </c>
       <c r="H12" t="s">
         <v>304</v>
@@ -42012,30 +42021,30 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
+        <v>5120</v>
+      </c>
+      <c r="K12" t="s">
         <v>5121</v>
       </c>
-      <c r="K12" t="s">
-        <v>5122</v>
-      </c>
       <c r="L12" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C13" t="s">
         <v>5123</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>5124</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>5125</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>5126</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5127</v>
       </c>
       <c r="H13" t="s">
         <v>400</v>
@@ -42044,13 +42053,13 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
+        <v>5127</v>
+      </c>
+      <c r="K13" t="s">
         <v>5128</v>
       </c>
-      <c r="K13" t="s">
-        <v>5129</v>
-      </c>
       <c r="L13" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
   </sheetData>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Miguel-Angel\Code\Python\red_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CD8D6-B674-473F-9CA9-DA16312DF115}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D873E3-03FF-4361-AD9E-8E621DF606BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="5133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7469" uniqueCount="5132">
   <si>
     <t>Number</t>
   </si>
@@ -13846,9 +13846,6 @@
   </si>
   <si>
     <t>Teatro Bellas Artes</t>
-  </si>
-  <si>
-    <t>Q6139609</t>
   </si>
   <si>
     <t>43.313918</t>
@@ -15831,17 +15828,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D686" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D702" sqref="D702"/>
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K335" sqref="K335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125"/>
     <col min="2" max="2" width="44"/>
-    <col min="3" max="3" width="0" hidden="1"/>
     <col min="4" max="4" width="14"/>
-    <col min="5" max="6" width="0" hidden="1"/>
     <col min="7" max="7" width="17.5703125"/>
     <col min="8" max="8" width="36.42578125"/>
     <col min="9" max="9" width="28"/>
@@ -19664,7 +19659,7 @@
         <v>793</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -38462,7 +38457,7 @@
         <v>4440</v>
       </c>
       <c r="L654" s="2" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="655" spans="1:15" x14ac:dyDescent="0.25">
@@ -39297,14 +39292,11 @@
       <c r="B679" t="s">
         <v>4604</v>
       </c>
-      <c r="D679" t="s">
+      <c r="E679" t="s">
         <v>4605</v>
       </c>
-      <c r="E679" t="s">
+      <c r="F679" t="s">
         <v>4606</v>
-      </c>
-      <c r="F679" t="s">
-        <v>4607</v>
       </c>
       <c r="H679" t="s">
         <v>2343</v>
@@ -39316,10 +39308,10 @@
         <v>528</v>
       </c>
       <c r="K679" t="s">
+        <v>4607</v>
+      </c>
+      <c r="L679" t="s">
         <v>4608</v>
-      </c>
-      <c r="L679" t="s">
-        <v>4609</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.25">
@@ -39327,19 +39319,19 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E680" t="s">
         <v>4610</v>
       </c>
-      <c r="E680" t="s">
+      <c r="F680" t="s">
         <v>4611</v>
       </c>
-      <c r="F680" t="s">
+      <c r="G680" t="s">
         <v>4612</v>
       </c>
-      <c r="G680" t="s">
+      <c r="H680" t="s">
         <v>4613</v>
-      </c>
-      <c r="H680" t="s">
-        <v>4614</v>
       </c>
       <c r="I680" t="s">
         <v>20</v>
@@ -39348,10 +39340,10 @@
         <v>21</v>
       </c>
       <c r="K680" t="s">
+        <v>4614</v>
+      </c>
+      <c r="L680" t="s">
         <v>4615</v>
-      </c>
-      <c r="L680" t="s">
-        <v>4616</v>
       </c>
       <c r="M680" t="s">
         <v>34</v>
@@ -39362,19 +39354,19 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D681" t="s">
         <v>4617</v>
       </c>
-      <c r="D681" t="s">
+      <c r="E681" t="s">
         <v>4618</v>
       </c>
-      <c r="E681" t="s">
+      <c r="F681" t="s">
         <v>4619</v>
       </c>
-      <c r="F681" t="s">
+      <c r="H681" t="s">
         <v>4620</v>
-      </c>
-      <c r="H681" t="s">
-        <v>4621</v>
       </c>
       <c r="I681" t="s">
         <v>1183</v>
@@ -39383,7 +39375,7 @@
         <v>171</v>
       </c>
       <c r="L681" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.25">
@@ -39391,22 +39383,22 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C682" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D682" t="s">
         <v>4623</v>
       </c>
-      <c r="C682" t="s">
-        <v>4623</v>
-      </c>
-      <c r="D682" t="s">
+      <c r="E682" t="s">
         <v>4624</v>
       </c>
-      <c r="E682" t="s">
+      <c r="F682" t="s">
         <v>4625</v>
       </c>
-      <c r="F682" t="s">
+      <c r="G682" t="s">
         <v>4626</v>
-      </c>
-      <c r="G682" t="s">
-        <v>4627</v>
       </c>
       <c r="H682" t="s">
         <v>48</v>
@@ -39418,10 +39410,10 @@
         <v>31</v>
       </c>
       <c r="K682" t="s">
+        <v>4627</v>
+      </c>
+      <c r="L682" t="s">
         <v>4628</v>
-      </c>
-      <c r="L682" t="s">
-        <v>4629</v>
       </c>
       <c r="M682" t="s">
         <v>24</v>
@@ -39432,22 +39424,22 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C683" t="s">
         <v>4630</v>
       </c>
-      <c r="C683" t="s">
+      <c r="D683" t="s">
         <v>4631</v>
       </c>
-      <c r="D683" t="s">
+      <c r="E683" t="s">
         <v>4632</v>
       </c>
-      <c r="E683" t="s">
+      <c r="F683" t="s">
         <v>4633</v>
       </c>
-      <c r="F683" t="s">
+      <c r="H683" t="s">
         <v>4634</v>
-      </c>
-      <c r="H683" t="s">
-        <v>4635</v>
       </c>
       <c r="I683" t="s">
         <v>294</v>
@@ -39456,10 +39448,10 @@
         <v>295</v>
       </c>
       <c r="K683" t="s">
+        <v>4635</v>
+      </c>
+      <c r="L683" t="s">
         <v>4636</v>
-      </c>
-      <c r="L683" t="s">
-        <v>4637</v>
       </c>
       <c r="M683" t="s">
         <v>24</v>
@@ -39470,22 +39462,22 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C684" t="s">
         <v>4638</v>
       </c>
-      <c r="C684" t="s">
+      <c r="D684" t="s">
         <v>4639</v>
       </c>
-      <c r="D684" t="s">
+      <c r="E684" t="s">
         <v>4640</v>
       </c>
-      <c r="E684" t="s">
+      <c r="F684" t="s">
         <v>4641</v>
       </c>
-      <c r="F684" t="s">
+      <c r="H684" t="s">
         <v>4642</v>
-      </c>
-      <c r="H684" t="s">
-        <v>4643</v>
       </c>
       <c r="I684" t="s">
         <v>106</v>
@@ -39494,10 +39486,10 @@
         <v>41</v>
       </c>
       <c r="K684" t="s">
+        <v>4643</v>
+      </c>
+      <c r="L684" t="s">
         <v>4644</v>
-      </c>
-      <c r="L684" t="s">
-        <v>4645</v>
       </c>
       <c r="M684" t="s">
         <v>24</v>
@@ -39508,19 +39500,19 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D685" t="s">
         <v>4646</v>
       </c>
-      <c r="D685" t="s">
+      <c r="E685" t="s">
         <v>4647</v>
       </c>
-      <c r="E685" t="s">
+      <c r="F685" t="s">
         <v>4648</v>
       </c>
-      <c r="F685" t="s">
+      <c r="H685" t="s">
         <v>4649</v>
-      </c>
-      <c r="H685" t="s">
-        <v>4650</v>
       </c>
       <c r="I685" t="s">
         <v>1183</v>
@@ -39529,10 +39521,10 @@
         <v>171</v>
       </c>
       <c r="K685" t="s">
+        <v>4650</v>
+      </c>
+      <c r="L685" t="s">
         <v>4651</v>
-      </c>
-      <c r="L685" t="s">
-        <v>4652</v>
       </c>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.25">
@@ -39540,19 +39532,19 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E686" t="s">
         <v>4653</v>
       </c>
-      <c r="E686" t="s">
+      <c r="F686" t="s">
         <v>4654</v>
       </c>
-      <c r="F686" t="s">
+      <c r="G686" t="s">
         <v>4655</v>
       </c>
-      <c r="G686" t="s">
+      <c r="H686" t="s">
         <v>4656</v>
-      </c>
-      <c r="H686" t="s">
-        <v>4657</v>
       </c>
       <c r="I686" t="s">
         <v>20</v>
@@ -39561,16 +39553,16 @@
         <v>21</v>
       </c>
       <c r="K686" t="s">
+        <v>4657</v>
+      </c>
+      <c r="L686" t="s">
         <v>4658</v>
-      </c>
-      <c r="L686" t="s">
-        <v>4659</v>
       </c>
       <c r="M686" t="s">
         <v>34</v>
       </c>
       <c r="O686" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.25">
@@ -39578,19 +39570,19 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
+        <v>4660</v>
+      </c>
+      <c r="D687" t="s">
         <v>4661</v>
       </c>
-      <c r="D687" t="s">
+      <c r="E687" t="s">
         <v>4662</v>
       </c>
-      <c r="E687" t="s">
+      <c r="F687" t="s">
         <v>4663</v>
       </c>
-      <c r="F687" t="s">
+      <c r="H687" t="s">
         <v>4664</v>
-      </c>
-      <c r="H687" t="s">
-        <v>4665</v>
       </c>
       <c r="I687" t="s">
         <v>106</v>
@@ -39599,10 +39591,10 @@
         <v>41</v>
       </c>
       <c r="K687" t="s">
+        <v>4665</v>
+      </c>
+      <c r="L687" t="s">
         <v>4666</v>
-      </c>
-      <c r="L687" t="s">
-        <v>4667</v>
       </c>
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.25">
@@ -39610,13 +39602,13 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E688" t="s">
         <v>4668</v>
       </c>
-      <c r="E688" t="s">
+      <c r="F688" t="s">
         <v>4669</v>
-      </c>
-      <c r="F688" t="s">
-        <v>4670</v>
       </c>
       <c r="H688" t="s">
         <v>30</v>
@@ -39628,10 +39620,10 @@
         <v>31</v>
       </c>
       <c r="K688" t="s">
+        <v>4670</v>
+      </c>
+      <c r="L688" t="s">
         <v>4671</v>
-      </c>
-      <c r="L688" t="s">
-        <v>4672</v>
       </c>
       <c r="M688" t="s">
         <v>34</v>
@@ -39642,16 +39634,16 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E689" t="s">
         <v>4673</v>
       </c>
-      <c r="E689" t="s">
+      <c r="F689" t="s">
         <v>4674</v>
       </c>
-      <c r="F689" t="s">
+      <c r="H689" t="s">
         <v>4675</v>
-      </c>
-      <c r="H689" t="s">
-        <v>4676</v>
       </c>
       <c r="I689" t="s">
         <v>201</v>
@@ -39660,10 +39652,10 @@
         <v>202</v>
       </c>
       <c r="K689" t="s">
+        <v>4676</v>
+      </c>
+      <c r="L689" t="s">
         <v>4677</v>
-      </c>
-      <c r="L689" t="s">
-        <v>4678</v>
       </c>
       <c r="M689" t="s">
         <v>34</v>
@@ -39674,16 +39666,16 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
+        <v>4678</v>
+      </c>
+      <c r="D690" t="s">
         <v>4679</v>
       </c>
-      <c r="D690" t="s">
+      <c r="E690" t="s">
         <v>4680</v>
       </c>
-      <c r="E690" t="s">
+      <c r="F690" t="s">
         <v>4681</v>
-      </c>
-      <c r="F690" t="s">
-        <v>4682</v>
       </c>
       <c r="H690" t="s">
         <v>170</v>
@@ -39695,10 +39687,10 @@
         <v>171</v>
       </c>
       <c r="K690" t="s">
+        <v>4682</v>
+      </c>
+      <c r="L690" t="s">
         <v>4683</v>
-      </c>
-      <c r="L690" t="s">
-        <v>4684</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.25">
@@ -39706,19 +39698,19 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E691" t="s">
         <v>4685</v>
       </c>
-      <c r="E691" t="s">
+      <c r="F691" t="s">
         <v>4686</v>
       </c>
-      <c r="F691" t="s">
+      <c r="G691" t="s">
         <v>4687</v>
       </c>
-      <c r="G691" t="s">
+      <c r="H691" t="s">
         <v>4688</v>
-      </c>
-      <c r="H691" t="s">
-        <v>4689</v>
       </c>
       <c r="I691" t="s">
         <v>251</v>
@@ -39727,10 +39719,10 @@
         <v>41</v>
       </c>
       <c r="K691" t="s">
+        <v>4689</v>
+      </c>
+      <c r="L691" t="s">
         <v>4690</v>
-      </c>
-      <c r="L691" t="s">
-        <v>4691</v>
       </c>
       <c r="M691" t="s">
         <v>34</v>
@@ -39741,19 +39733,19 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
+        <v>4691</v>
+      </c>
+      <c r="D692" t="s">
         <v>4692</v>
       </c>
-      <c r="D692" t="s">
+      <c r="E692" t="s">
         <v>4693</v>
       </c>
-      <c r="E692" t="s">
+      <c r="F692" t="s">
         <v>4694</v>
       </c>
-      <c r="F692" t="s">
+      <c r="H692" t="s">
         <v>4695</v>
-      </c>
-      <c r="H692" t="s">
-        <v>4696</v>
       </c>
       <c r="I692" t="s">
         <v>40</v>
@@ -39762,10 +39754,10 @@
         <v>41</v>
       </c>
       <c r="K692" t="s">
+        <v>4696</v>
+      </c>
+      <c r="L692" s="1" t="s">
         <v>4697</v>
-      </c>
-      <c r="L692" s="1" t="s">
-        <v>4698</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.25">
@@ -39773,16 +39765,16 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
+        <v>4698</v>
+      </c>
+      <c r="D693" t="s">
         <v>4699</v>
       </c>
-      <c r="D693" t="s">
+      <c r="E693" t="s">
         <v>4700</v>
       </c>
-      <c r="E693" t="s">
+      <c r="F693" t="s">
         <v>4701</v>
-      </c>
-      <c r="F693" t="s">
-        <v>4702</v>
       </c>
       <c r="H693" t="s">
         <v>1610</v>
@@ -39794,10 +39786,10 @@
         <v>41</v>
       </c>
       <c r="K693" t="s">
+        <v>4702</v>
+      </c>
+      <c r="L693" t="s">
         <v>4703</v>
-      </c>
-      <c r="L693" t="s">
-        <v>4704</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.25">
@@ -39805,19 +39797,19 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E694" t="s">
         <v>4705</v>
       </c>
-      <c r="E694" t="s">
+      <c r="F694" t="s">
         <v>4706</v>
       </c>
-      <c r="F694" t="s">
+      <c r="G694" t="s">
         <v>4707</v>
       </c>
-      <c r="G694" t="s">
+      <c r="H694" t="s">
         <v>4708</v>
-      </c>
-      <c r="H694" t="s">
-        <v>4709</v>
       </c>
       <c r="I694" t="s">
         <v>374</v>
@@ -39826,10 +39818,10 @@
         <v>2171</v>
       </c>
       <c r="K694" t="s">
+        <v>4709</v>
+      </c>
+      <c r="L694" t="s">
         <v>4710</v>
-      </c>
-      <c r="L694" t="s">
-        <v>4711</v>
       </c>
       <c r="M694" t="s">
         <v>34</v>
@@ -39840,19 +39832,19 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E695" t="s">
         <v>4712</v>
       </c>
-      <c r="E695" t="s">
+      <c r="F695" t="s">
         <v>4713</v>
       </c>
-      <c r="F695" t="s">
+      <c r="G695" t="s">
         <v>4714</v>
       </c>
-      <c r="G695" t="s">
+      <c r="H695" t="s">
         <v>4715</v>
-      </c>
-      <c r="H695" t="s">
-        <v>4716</v>
       </c>
       <c r="I695" t="s">
         <v>294</v>
@@ -39861,10 +39853,10 @@
         <v>295</v>
       </c>
       <c r="K695" t="s">
+        <v>4716</v>
+      </c>
+      <c r="L695" t="s">
         <v>4717</v>
-      </c>
-      <c r="L695" t="s">
-        <v>4718</v>
       </c>
       <c r="M695" t="s">
         <v>34</v>
@@ -39875,16 +39867,16 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D696" t="s">
         <v>4719</v>
       </c>
-      <c r="D696" t="s">
+      <c r="E696" t="s">
         <v>4720</v>
       </c>
-      <c r="E696" t="s">
+      <c r="F696" t="s">
         <v>4721</v>
-      </c>
-      <c r="F696" t="s">
-        <v>4722</v>
       </c>
       <c r="H696" t="s">
         <v>29</v>
@@ -39896,10 +39888,10 @@
         <v>31</v>
       </c>
       <c r="K696" t="s">
+        <v>4722</v>
+      </c>
+      <c r="L696" t="s">
         <v>4723</v>
-      </c>
-      <c r="L696" t="s">
-        <v>4724</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.25">
@@ -39907,19 +39899,19 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
+        <v>4724</v>
+      </c>
+      <c r="D697" t="s">
         <v>4725</v>
       </c>
-      <c r="D697" t="s">
+      <c r="E697" t="s">
         <v>4726</v>
       </c>
-      <c r="E697" t="s">
+      <c r="F697" t="s">
         <v>4727</v>
       </c>
-      <c r="F697" t="s">
+      <c r="H697" t="s">
         <v>4728</v>
-      </c>
-      <c r="H697" t="s">
-        <v>4729</v>
       </c>
       <c r="I697" t="s">
         <v>264</v>
@@ -39928,10 +39920,10 @@
         <v>31</v>
       </c>
       <c r="K697" t="s">
+        <v>4729</v>
+      </c>
+      <c r="L697" t="s">
         <v>4730</v>
-      </c>
-      <c r="L697" t="s">
-        <v>4731</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.25">
@@ -39939,16 +39931,16 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
+        <v>4731</v>
+      </c>
+      <c r="E698" t="s">
         <v>4732</v>
       </c>
-      <c r="E698" t="s">
+      <c r="F698" t="s">
         <v>4733</v>
       </c>
-      <c r="F698" t="s">
+      <c r="G698" t="s">
         <v>4734</v>
-      </c>
-      <c r="G698" t="s">
-        <v>4735</v>
       </c>
       <c r="H698" t="s">
         <v>1832</v>
@@ -39960,10 +39952,10 @@
         <v>31</v>
       </c>
       <c r="K698" t="s">
+        <v>4735</v>
+      </c>
+      <c r="L698" s="1" t="s">
         <v>4736</v>
-      </c>
-      <c r="L698" s="1" t="s">
-        <v>4737</v>
       </c>
       <c r="M698" t="s">
         <v>34</v>
@@ -39974,22 +39966,22 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
+        <v>4737</v>
+      </c>
+      <c r="C699" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D699" t="s">
         <v>4738</v>
       </c>
-      <c r="C699" t="s">
-        <v>4738</v>
-      </c>
-      <c r="D699" t="s">
+      <c r="E699" t="s">
         <v>4739</v>
       </c>
-      <c r="E699" t="s">
+      <c r="F699" t="s">
         <v>4740</v>
       </c>
-      <c r="F699" t="s">
+      <c r="H699" t="s">
         <v>4741</v>
-      </c>
-      <c r="H699" t="s">
-        <v>4742</v>
       </c>
       <c r="I699" t="s">
         <v>660</v>
@@ -39998,10 +39990,10 @@
         <v>295</v>
       </c>
       <c r="K699" t="s">
+        <v>4742</v>
+      </c>
+      <c r="L699" t="s">
         <v>4743</v>
-      </c>
-      <c r="L699" t="s">
-        <v>4744</v>
       </c>
       <c r="M699" t="s">
         <v>24</v>
@@ -40012,19 +40004,19 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
+        <v>4744</v>
+      </c>
+      <c r="D700" t="s">
         <v>4745</v>
       </c>
-      <c r="D700" t="s">
+      <c r="E700" t="s">
         <v>4746</v>
       </c>
-      <c r="E700" t="s">
+      <c r="F700" t="s">
         <v>4747</v>
       </c>
-      <c r="F700" t="s">
+      <c r="G700" t="s">
         <v>4748</v>
-      </c>
-      <c r="G700" t="s">
-        <v>4749</v>
       </c>
       <c r="H700" t="s">
         <v>55</v>
@@ -40036,7 +40028,7 @@
         <v>56</v>
       </c>
       <c r="L700" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.25">
@@ -40044,25 +40036,25 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
+        <v>4750</v>
+      </c>
+      <c r="C701" t="s">
+        <v>4750</v>
+      </c>
+      <c r="D701" t="s">
         <v>4751</v>
       </c>
-      <c r="C701" t="s">
-        <v>4751</v>
-      </c>
-      <c r="D701" t="s">
+      <c r="E701" t="s">
         <v>4752</v>
       </c>
-      <c r="E701" t="s">
+      <c r="F701" t="s">
         <v>4753</v>
       </c>
-      <c r="F701" t="s">
+      <c r="G701" t="s">
         <v>4754</v>
       </c>
-      <c r="G701" t="s">
-        <v>4755</v>
-      </c>
       <c r="H701" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="I701" t="s">
         <v>91</v>
@@ -40071,10 +40063,10 @@
         <v>91</v>
       </c>
       <c r="K701" t="s">
+        <v>4755</v>
+      </c>
+      <c r="L701" t="s">
         <v>4756</v>
-      </c>
-      <c r="L701" t="s">
-        <v>4757</v>
       </c>
       <c r="M701" t="s">
         <v>24</v>
@@ -40085,19 +40077,19 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="D702" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="E702" t="s">
+        <v>4757</v>
+      </c>
+      <c r="F702" t="s">
         <v>4758</v>
       </c>
-      <c r="F702" t="s">
+      <c r="H702" t="s">
         <v>4759</v>
-      </c>
-      <c r="H702" t="s">
-        <v>4760</v>
       </c>
       <c r="I702" t="s">
         <v>106</v>
@@ -40106,10 +40098,10 @@
         <v>41</v>
       </c>
       <c r="K702" t="s">
+        <v>4760</v>
+      </c>
+      <c r="L702" t="s">
         <v>4761</v>
-      </c>
-      <c r="L702" t="s">
-        <v>4762</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.25">
@@ -40117,16 +40109,16 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
+        <v>4762</v>
+      </c>
+      <c r="D703" t="s">
         <v>4763</v>
       </c>
-      <c r="D703" t="s">
+      <c r="E703" t="s">
         <v>4764</v>
       </c>
-      <c r="E703" t="s">
+      <c r="F703" t="s">
         <v>4765</v>
-      </c>
-      <c r="F703" t="s">
-        <v>4766</v>
       </c>
       <c r="H703" t="s">
         <v>200</v>
@@ -40138,10 +40130,10 @@
         <v>202</v>
       </c>
       <c r="K703" t="s">
+        <v>4766</v>
+      </c>
+      <c r="L703" t="s">
         <v>4767</v>
-      </c>
-      <c r="L703" t="s">
-        <v>4768</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.25">
@@ -40149,22 +40141,22 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D704" t="s">
         <v>4769</v>
       </c>
-      <c r="D704" t="s">
+      <c r="E704" t="s">
         <v>4770</v>
       </c>
-      <c r="E704" t="s">
+      <c r="F704" t="s">
         <v>4771</v>
       </c>
-      <c r="F704" t="s">
+      <c r="G704" t="s">
         <v>4772</v>
       </c>
-      <c r="G704" t="s">
+      <c r="H704" t="s">
         <v>4773</v>
-      </c>
-      <c r="H704" t="s">
-        <v>4774</v>
       </c>
       <c r="I704" t="s">
         <v>91</v>
@@ -40173,10 +40165,10 @@
         <v>91</v>
       </c>
       <c r="K704" t="s">
+        <v>4774</v>
+      </c>
+      <c r="L704" t="s">
         <v>4775</v>
-      </c>
-      <c r="L704" t="s">
-        <v>4776</v>
       </c>
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.25">
@@ -40184,16 +40176,16 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E705" t="s">
         <v>4777</v>
       </c>
-      <c r="E705" t="s">
+      <c r="F705" t="s">
         <v>4778</v>
       </c>
-      <c r="F705" t="s">
+      <c r="G705" t="s">
         <v>4779</v>
-      </c>
-      <c r="G705" t="s">
-        <v>4780</v>
       </c>
       <c r="H705" t="s">
         <v>4458</v>
@@ -40205,19 +40197,19 @@
         <v>41</v>
       </c>
       <c r="K705" t="s">
+        <v>4780</v>
+      </c>
+      <c r="L705" t="s">
         <v>4781</v>
-      </c>
-      <c r="L705" t="s">
-        <v>4782</v>
       </c>
       <c r="M705" t="s">
         <v>34</v>
       </c>
       <c r="N705" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O705" t="s">
         <v>4783</v>
-      </c>
-      <c r="O705" t="s">
-        <v>4784</v>
       </c>
     </row>
     <row r="706" spans="1:15" x14ac:dyDescent="0.25">
@@ -40225,19 +40217,19 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
+        <v>4784</v>
+      </c>
+      <c r="E706" t="s">
         <v>4785</v>
       </c>
-      <c r="E706" t="s">
+      <c r="F706" t="s">
         <v>4786</v>
       </c>
-      <c r="F706" t="s">
+      <c r="G706" t="s">
         <v>4787</v>
       </c>
-      <c r="G706" t="s">
+      <c r="H706" t="s">
         <v>4788</v>
-      </c>
-      <c r="H706" t="s">
-        <v>4789</v>
       </c>
       <c r="I706" t="s">
         <v>1183</v>
@@ -40246,10 +40238,10 @@
         <v>171</v>
       </c>
       <c r="K706" t="s">
+        <v>4789</v>
+      </c>
+      <c r="L706" t="s">
         <v>4790</v>
-      </c>
-      <c r="L706" t="s">
-        <v>4791</v>
       </c>
       <c r="M706" t="s">
         <v>34</v>
@@ -40263,13 +40255,13 @@
         <v>2065</v>
       </c>
       <c r="E707" t="s">
+        <v>4791</v>
+      </c>
+      <c r="F707" t="s">
         <v>4792</v>
       </c>
-      <c r="F707" t="s">
+      <c r="G707" t="s">
         <v>4793</v>
-      </c>
-      <c r="G707" t="s">
-        <v>4794</v>
       </c>
       <c r="H707" t="s">
         <v>3066</v>
@@ -40281,10 +40273,10 @@
         <v>295</v>
       </c>
       <c r="K707" t="s">
+        <v>4794</v>
+      </c>
+      <c r="L707" t="s">
         <v>4795</v>
-      </c>
-      <c r="L707" t="s">
-        <v>4796</v>
       </c>
       <c r="M707" t="s">
         <v>34</v>
@@ -40295,19 +40287,19 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E708" t="s">
         <v>4797</v>
       </c>
-      <c r="E708" t="s">
+      <c r="F708" t="s">
         <v>4798</v>
       </c>
-      <c r="F708" t="s">
+      <c r="G708" t="s">
         <v>4799</v>
       </c>
-      <c r="G708" t="s">
+      <c r="H708" t="s">
         <v>4800</v>
-      </c>
-      <c r="H708" t="s">
-        <v>4801</v>
       </c>
       <c r="I708" t="s">
         <v>294</v>
@@ -40316,10 +40308,10 @@
         <v>295</v>
       </c>
       <c r="K708" t="s">
+        <v>4801</v>
+      </c>
+      <c r="L708" t="s">
         <v>4802</v>
-      </c>
-      <c r="L708" t="s">
-        <v>4803</v>
       </c>
       <c r="M708" t="s">
         <v>34</v>
@@ -40330,19 +40322,19 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D709" t="s">
         <v>4804</v>
       </c>
-      <c r="D709" t="s">
+      <c r="E709" t="s">
         <v>4805</v>
       </c>
-      <c r="E709" t="s">
+      <c r="F709" t="s">
         <v>4806</v>
       </c>
-      <c r="F709" t="s">
+      <c r="H709" t="s">
         <v>4807</v>
-      </c>
-      <c r="H709" t="s">
-        <v>4808</v>
       </c>
       <c r="I709" t="s">
         <v>660</v>
@@ -40351,10 +40343,10 @@
         <v>295</v>
       </c>
       <c r="K709" t="s">
+        <v>4808</v>
+      </c>
+      <c r="L709" s="1" t="s">
         <v>4809</v>
-      </c>
-      <c r="L709" s="1" t="s">
-        <v>4810</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.25">
@@ -40362,31 +40354,31 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
+        <v>4810</v>
+      </c>
+      <c r="D710" t="s">
         <v>4811</v>
       </c>
-      <c r="D710" t="s">
+      <c r="E710" t="s">
         <v>4812</v>
       </c>
-      <c r="E710" t="s">
+      <c r="F710" t="s">
         <v>4813</v>
-      </c>
-      <c r="F710" t="s">
-        <v>4814</v>
       </c>
       <c r="H710" t="s">
         <v>431</v>
       </c>
       <c r="I710" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="J710" t="s">
         <v>432</v>
       </c>
       <c r="K710" t="s">
+        <v>4815</v>
+      </c>
+      <c r="L710" t="s">
         <v>4816</v>
-      </c>
-      <c r="L710" t="s">
-        <v>4817</v>
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.25">
@@ -40394,22 +40386,22 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D711" t="s">
         <v>4818</v>
       </c>
-      <c r="D711" t="s">
+      <c r="E711" t="s">
         <v>4819</v>
       </c>
-      <c r="E711" t="s">
+      <c r="F711" t="s">
         <v>4820</v>
       </c>
-      <c r="F711" t="s">
+      <c r="G711" t="s">
         <v>4821</v>
       </c>
-      <c r="G711" t="s">
-        <v>4822</v>
-      </c>
       <c r="H711" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="I711" t="s">
         <v>264</v>
@@ -40418,10 +40410,10 @@
         <v>31</v>
       </c>
       <c r="K711" t="s">
+        <v>4822</v>
+      </c>
+      <c r="L711" t="s">
         <v>4823</v>
-      </c>
-      <c r="L711" t="s">
-        <v>4824</v>
       </c>
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.25">
@@ -40429,25 +40421,25 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C712" t="s">
+        <v>4824</v>
+      </c>
+      <c r="D712" t="s">
         <v>4825</v>
       </c>
-      <c r="C712" t="s">
-        <v>4825</v>
-      </c>
-      <c r="D712" t="s">
+      <c r="E712" t="s">
         <v>4826</v>
       </c>
-      <c r="E712" t="s">
+      <c r="F712" t="s">
         <v>4827</v>
       </c>
-      <c r="F712" t="s">
+      <c r="G712" t="s">
         <v>4828</v>
       </c>
-      <c r="G712" t="s">
+      <c r="H712" t="s">
         <v>4829</v>
-      </c>
-      <c r="H712" t="s">
-        <v>4830</v>
       </c>
       <c r="I712" t="s">
         <v>374</v>
@@ -40456,10 +40448,10 @@
         <v>2171</v>
       </c>
       <c r="K712" t="s">
+        <v>4830</v>
+      </c>
+      <c r="L712" t="s">
         <v>4831</v>
-      </c>
-      <c r="L712" t="s">
-        <v>4832</v>
       </c>
       <c r="M712" t="s">
         <v>24</v>
@@ -40470,16 +40462,16 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E713" t="s">
         <v>4833</v>
       </c>
-      <c r="E713" t="s">
+      <c r="F713" t="s">
         <v>4834</v>
       </c>
-      <c r="F713" t="s">
+      <c r="H713" t="s">
         <v>4835</v>
-      </c>
-      <c r="H713" t="s">
-        <v>4836</v>
       </c>
       <c r="I713" t="s">
         <v>201</v>
@@ -40488,10 +40480,10 @@
         <v>202</v>
       </c>
       <c r="K713" t="s">
+        <v>4836</v>
+      </c>
+      <c r="L713" t="s">
         <v>4837</v>
-      </c>
-      <c r="L713" t="s">
-        <v>4838</v>
       </c>
       <c r="M713" t="s">
         <v>34</v>
@@ -40502,16 +40494,16 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
+        <v>4838</v>
+      </c>
+      <c r="E714" t="s">
         <v>4839</v>
       </c>
-      <c r="E714" t="s">
+      <c r="F714" t="s">
         <v>4840</v>
       </c>
-      <c r="F714" t="s">
+      <c r="H714" t="s">
         <v>4841</v>
-      </c>
-      <c r="H714" t="s">
-        <v>4842</v>
       </c>
       <c r="I714" t="s">
         <v>201</v>
@@ -40520,10 +40512,10 @@
         <v>202</v>
       </c>
       <c r="K714" t="s">
+        <v>4842</v>
+      </c>
+      <c r="L714" t="s">
         <v>4843</v>
-      </c>
-      <c r="L714" t="s">
-        <v>4844</v>
       </c>
       <c r="M714" t="s">
         <v>34</v>
@@ -40534,13 +40526,13 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E715" t="s">
         <v>4845</v>
       </c>
-      <c r="E715" t="s">
+      <c r="F715" t="s">
         <v>4846</v>
-      </c>
-      <c r="F715" t="s">
-        <v>4847</v>
       </c>
       <c r="H715" t="s">
         <v>135</v>
@@ -40552,16 +40544,16 @@
         <v>56</v>
       </c>
       <c r="K715" t="s">
+        <v>4847</v>
+      </c>
+      <c r="L715" t="s">
         <v>4848</v>
-      </c>
-      <c r="L715" t="s">
-        <v>4849</v>
       </c>
       <c r="M715" t="s">
         <v>34</v>
       </c>
       <c r="O715" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.25">
@@ -40569,19 +40561,19 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
+        <v>4850</v>
+      </c>
+      <c r="C716" t="s">
+        <v>4850</v>
+      </c>
+      <c r="D716" t="s">
         <v>4851</v>
       </c>
-      <c r="C716" t="s">
-        <v>4851</v>
-      </c>
-      <c r="D716" t="s">
+      <c r="E716" t="s">
         <v>4852</v>
       </c>
-      <c r="E716" t="s">
+      <c r="F716" t="s">
         <v>4853</v>
-      </c>
-      <c r="F716" t="s">
-        <v>4854</v>
       </c>
       <c r="H716" t="s">
         <v>1082</v>
@@ -40593,10 +40585,10 @@
         <v>295</v>
       </c>
       <c r="K716" t="s">
+        <v>4854</v>
+      </c>
+      <c r="L716" t="s">
         <v>4855</v>
-      </c>
-      <c r="L716" t="s">
-        <v>4856</v>
       </c>
       <c r="M716" t="s">
         <v>24</v>
@@ -40607,19 +40599,19 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E717" t="s">
         <v>4857</v>
       </c>
-      <c r="E717" t="s">
+      <c r="F717" t="s">
         <v>4858</v>
       </c>
-      <c r="F717" t="s">
+      <c r="G717" t="s">
         <v>4859</v>
       </c>
-      <c r="G717" t="s">
+      <c r="H717" t="s">
         <v>4860</v>
-      </c>
-      <c r="H717" t="s">
-        <v>4861</v>
       </c>
       <c r="I717" t="s">
         <v>304</v>
@@ -40628,16 +40620,16 @@
         <v>41</v>
       </c>
       <c r="K717" t="s">
+        <v>4861</v>
+      </c>
+      <c r="L717" s="1" t="s">
         <v>4862</v>
-      </c>
-      <c r="L717" s="1" t="s">
-        <v>4863</v>
       </c>
       <c r="M717" t="s">
         <v>34</v>
       </c>
       <c r="O717" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.25">
@@ -40645,16 +40637,16 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
+        <v>4864</v>
+      </c>
+      <c r="E718" t="s">
         <v>4865</v>
       </c>
-      <c r="E718" t="s">
+      <c r="F718" t="s">
         <v>4866</v>
       </c>
-      <c r="F718" t="s">
+      <c r="H718" t="s">
         <v>4867</v>
-      </c>
-      <c r="H718" t="s">
-        <v>4868</v>
       </c>
       <c r="I718" t="s">
         <v>320</v>
@@ -40663,10 +40655,10 @@
         <v>31</v>
       </c>
       <c r="K718" t="s">
+        <v>4868</v>
+      </c>
+      <c r="L718" t="s">
         <v>4869</v>
-      </c>
-      <c r="L718" t="s">
-        <v>4870</v>
       </c>
       <c r="M718" t="s">
         <v>34</v>
@@ -40677,16 +40669,16 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D719" t="s">
         <v>4871</v>
       </c>
-      <c r="D719" t="s">
+      <c r="E719" t="s">
         <v>4872</v>
       </c>
-      <c r="E719" t="s">
+      <c r="F719" t="s">
         <v>4873</v>
-      </c>
-      <c r="F719" t="s">
-        <v>4874</v>
       </c>
       <c r="H719" t="s">
         <v>591</v>
@@ -40698,10 +40690,10 @@
         <v>65</v>
       </c>
       <c r="K719" t="s">
+        <v>4874</v>
+      </c>
+      <c r="L719" t="s">
         <v>4875</v>
-      </c>
-      <c r="L719" t="s">
-        <v>4876</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.25">
@@ -40709,16 +40701,16 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E720" t="s">
         <v>4877</v>
       </c>
-      <c r="E720" t="s">
+      <c r="F720" t="s">
         <v>4878</v>
       </c>
-      <c r="F720" t="s">
+      <c r="H720" t="s">
         <v>4879</v>
-      </c>
-      <c r="H720" t="s">
-        <v>4880</v>
       </c>
       <c r="I720" t="s">
         <v>30</v>
@@ -40727,10 +40719,10 @@
         <v>31</v>
       </c>
       <c r="K720" t="s">
+        <v>4880</v>
+      </c>
+      <c r="L720" t="s">
         <v>4881</v>
-      </c>
-      <c r="L720" t="s">
-        <v>4882</v>
       </c>
       <c r="M720" t="s">
         <v>34</v>
@@ -40741,16 +40733,16 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
+        <v>4882</v>
+      </c>
+      <c r="E721" t="s">
         <v>4883</v>
       </c>
-      <c r="E721" t="s">
+      <c r="F721" t="s">
         <v>4884</v>
       </c>
-      <c r="F721" t="s">
+      <c r="H721" t="s">
         <v>4885</v>
-      </c>
-      <c r="H721" t="s">
-        <v>4886</v>
       </c>
       <c r="I721" t="s">
         <v>135</v>
@@ -40759,10 +40751,10 @@
         <v>56</v>
       </c>
       <c r="K721" t="s">
+        <v>4886</v>
+      </c>
+      <c r="L721" t="s">
         <v>4887</v>
-      </c>
-      <c r="L721" t="s">
-        <v>4888</v>
       </c>
       <c r="M721" t="s">
         <v>34</v>
@@ -40773,16 +40765,16 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
+        <v>4888</v>
+      </c>
+      <c r="E722" t="s">
         <v>4889</v>
       </c>
-      <c r="E722" t="s">
+      <c r="F722" t="s">
         <v>4890</v>
       </c>
-      <c r="F722" t="s">
+      <c r="H722" t="s">
         <v>4891</v>
-      </c>
-      <c r="H722" t="s">
-        <v>4892</v>
       </c>
       <c r="I722" t="s">
         <v>271</v>
@@ -40791,7 +40783,7 @@
         <v>41</v>
       </c>
       <c r="L722" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
       <c r="M722" t="s">
         <v>34</v>
@@ -40802,22 +40794,22 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C723" t="s">
+        <v>4893</v>
+      </c>
+      <c r="D723" t="s">
         <v>4894</v>
       </c>
-      <c r="C723" t="s">
-        <v>4894</v>
-      </c>
-      <c r="D723" t="s">
+      <c r="E723" t="s">
         <v>4895</v>
       </c>
-      <c r="E723" t="s">
+      <c r="F723" t="s">
         <v>4896</v>
       </c>
-      <c r="F723" t="s">
+      <c r="H723" t="s">
         <v>4897</v>
-      </c>
-      <c r="H723" t="s">
-        <v>4898</v>
       </c>
       <c r="I723" t="s">
         <v>374</v>
@@ -40826,10 +40818,10 @@
         <v>2171</v>
       </c>
       <c r="K723" t="s">
+        <v>4898</v>
+      </c>
+      <c r="L723" t="s">
         <v>4899</v>
-      </c>
-      <c r="L723" t="s">
-        <v>4900</v>
       </c>
       <c r="M723" t="s">
         <v>24</v>
@@ -40840,16 +40832,16 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
+        <v>4900</v>
+      </c>
+      <c r="E724" t="s">
         <v>4901</v>
       </c>
-      <c r="E724" t="s">
+      <c r="F724" t="s">
         <v>4902</v>
       </c>
-      <c r="F724" t="s">
+      <c r="H724" t="s">
         <v>4903</v>
-      </c>
-      <c r="H724" t="s">
-        <v>4904</v>
       </c>
       <c r="I724" t="s">
         <v>286</v>
@@ -40858,10 +40850,10 @@
         <v>31</v>
       </c>
       <c r="K724" t="s">
+        <v>4904</v>
+      </c>
+      <c r="L724" t="s">
         <v>4905</v>
-      </c>
-      <c r="L724" t="s">
-        <v>4906</v>
       </c>
       <c r="M724" t="s">
         <v>34</v>
@@ -40872,22 +40864,22 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C725" t="s">
         <v>4907</v>
       </c>
-      <c r="C725" t="s">
+      <c r="D725" t="s">
         <v>4908</v>
       </c>
-      <c r="D725" t="s">
+      <c r="E725" t="s">
         <v>4909</v>
       </c>
-      <c r="E725" t="s">
+      <c r="F725" t="s">
         <v>4910</v>
       </c>
-      <c r="F725" t="s">
+      <c r="H725" t="s">
         <v>4911</v>
-      </c>
-      <c r="H725" t="s">
-        <v>4912</v>
       </c>
       <c r="I725" t="s">
         <v>91</v>
@@ -40896,10 +40888,10 @@
         <v>91</v>
       </c>
       <c r="K725" t="s">
+        <v>4912</v>
+      </c>
+      <c r="L725" t="s">
         <v>4913</v>
-      </c>
-      <c r="L725" t="s">
-        <v>4914</v>
       </c>
       <c r="M725" t="s">
         <v>24</v>
@@ -40910,13 +40902,13 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E726" t="s">
         <v>4915</v>
       </c>
-      <c r="E726" t="s">
+      <c r="F726" t="s">
         <v>4916</v>
-      </c>
-      <c r="F726" t="s">
-        <v>4917</v>
       </c>
       <c r="H726" t="s">
         <v>30</v>
@@ -40928,10 +40920,10 @@
         <v>31</v>
       </c>
       <c r="K726" t="s">
+        <v>4917</v>
+      </c>
+      <c r="L726" t="s">
         <v>4918</v>
-      </c>
-      <c r="L726" t="s">
-        <v>4919</v>
       </c>
       <c r="M726" t="s">
         <v>34</v>
@@ -40942,16 +40934,16 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
+        <v>4919</v>
+      </c>
+      <c r="E727" t="s">
         <v>4920</v>
       </c>
-      <c r="E727" t="s">
+      <c r="F727" t="s">
         <v>4921</v>
       </c>
-      <c r="F727" t="s">
+      <c r="H727" t="s">
         <v>4922</v>
-      </c>
-      <c r="H727" t="s">
-        <v>4923</v>
       </c>
       <c r="I727" t="s">
         <v>591</v>
@@ -40960,10 +40952,10 @@
         <v>65</v>
       </c>
       <c r="K727" t="s">
+        <v>4923</v>
+      </c>
+      <c r="L727" t="s">
         <v>4924</v>
-      </c>
-      <c r="L727" t="s">
-        <v>4925</v>
       </c>
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.25">
@@ -40971,16 +40963,16 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
+        <v>4925</v>
+      </c>
+      <c r="E728" t="s">
         <v>4926</v>
       </c>
-      <c r="E728" t="s">
+      <c r="F728" t="s">
         <v>4927</v>
       </c>
-      <c r="F728" t="s">
+      <c r="H728" t="s">
         <v>4928</v>
-      </c>
-      <c r="H728" t="s">
-        <v>4929</v>
       </c>
       <c r="I728" t="s">
         <v>320</v>
@@ -40989,10 +40981,10 @@
         <v>31</v>
       </c>
       <c r="K728" t="s">
+        <v>4929</v>
+      </c>
+      <c r="L728" t="s">
         <v>4930</v>
-      </c>
-      <c r="L728" t="s">
-        <v>4931</v>
       </c>
       <c r="M728" t="s">
         <v>34</v>
@@ -41003,16 +40995,16 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
+        <v>4931</v>
+      </c>
+      <c r="E729" t="s">
         <v>4932</v>
       </c>
-      <c r="E729" t="s">
+      <c r="F729" t="s">
         <v>4933</v>
       </c>
-      <c r="F729" t="s">
+      <c r="H729" t="s">
         <v>4934</v>
-      </c>
-      <c r="H729" t="s">
-        <v>4935</v>
       </c>
       <c r="I729" t="s">
         <v>55</v>
@@ -41021,10 +41013,10 @@
         <v>56</v>
       </c>
       <c r="K729" t="s">
+        <v>4935</v>
+      </c>
+      <c r="L729" t="s">
         <v>4936</v>
-      </c>
-      <c r="L729" t="s">
-        <v>4937</v>
       </c>
       <c r="M729" t="s">
         <v>34</v>
@@ -41035,19 +41027,19 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D730" t="s">
         <v>4938</v>
       </c>
-      <c r="D730" t="s">
+      <c r="E730" t="s">
         <v>4939</v>
       </c>
-      <c r="E730" t="s">
+      <c r="F730" t="s">
         <v>4940</v>
       </c>
-      <c r="F730" t="s">
+      <c r="H730" t="s">
         <v>4941</v>
-      </c>
-      <c r="H730" t="s">
-        <v>4942</v>
       </c>
       <c r="I730" t="s">
         <v>304</v>
@@ -41056,10 +41048,10 @@
         <v>41</v>
       </c>
       <c r="K730" t="s">
+        <v>4942</v>
+      </c>
+      <c r="L730" t="s">
         <v>4943</v>
-      </c>
-      <c r="L730" t="s">
-        <v>4944</v>
       </c>
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.25">
@@ -41067,13 +41059,13 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C731" t="s">
         <v>4945</v>
       </c>
-      <c r="C731" t="s">
+      <c r="D731" t="s">
         <v>4946</v>
-      </c>
-      <c r="D731" t="s">
-        <v>4947</v>
       </c>
       <c r="E731" t="s">
         <v>3743</v>
@@ -41082,13 +41074,13 @@
         <v>3744</v>
       </c>
       <c r="H731" t="s">
+        <v>4947</v>
+      </c>
+      <c r="K731" t="s">
         <v>4948</v>
       </c>
-      <c r="K731" t="s">
+      <c r="L731" t="s">
         <v>4949</v>
-      </c>
-      <c r="L731" t="s">
-        <v>4950</v>
       </c>
       <c r="M731" t="s">
         <v>24</v>
@@ -41099,16 +41091,16 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D732" t="s">
         <v>4951</v>
       </c>
-      <c r="D732" t="s">
+      <c r="E732" t="s">
         <v>4952</v>
       </c>
-      <c r="E732" t="s">
+      <c r="F732" t="s">
         <v>4953</v>
-      </c>
-      <c r="F732" t="s">
-        <v>4954</v>
       </c>
       <c r="H732" t="s">
         <v>4070</v>
@@ -41120,10 +41112,10 @@
         <v>279</v>
       </c>
       <c r="K732" t="s">
+        <v>4954</v>
+      </c>
+      <c r="L732" t="s">
         <v>4955</v>
-      </c>
-      <c r="L732" t="s">
-        <v>4956</v>
       </c>
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.25">
@@ -41131,19 +41123,19 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
+        <v>4956</v>
+      </c>
+      <c r="D733" t="s">
         <v>4957</v>
       </c>
-      <c r="D733" t="s">
+      <c r="E733" t="s">
         <v>4958</v>
       </c>
-      <c r="E733" t="s">
+      <c r="F733" t="s">
         <v>4959</v>
       </c>
-      <c r="F733" t="s">
+      <c r="H733" t="s">
         <v>4960</v>
-      </c>
-      <c r="H733" t="s">
-        <v>4961</v>
       </c>
       <c r="I733" t="s">
         <v>345</v>
@@ -41152,10 +41144,10 @@
         <v>21</v>
       </c>
       <c r="K733" t="s">
+        <v>4961</v>
+      </c>
+      <c r="L733" t="s">
         <v>4962</v>
-      </c>
-      <c r="L733" t="s">
-        <v>4963</v>
       </c>
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.25">
@@ -41163,16 +41155,16 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
+        <v>4963</v>
+      </c>
+      <c r="D734" t="s">
         <v>4964</v>
       </c>
-      <c r="D734" t="s">
+      <c r="E734" t="s">
         <v>4965</v>
       </c>
-      <c r="E734" t="s">
+      <c r="F734" t="s">
         <v>4966</v>
-      </c>
-      <c r="F734" t="s">
-        <v>4967</v>
       </c>
       <c r="H734" t="s">
         <v>200</v>
@@ -41184,10 +41176,10 @@
         <v>202</v>
       </c>
       <c r="K734" t="s">
+        <v>4967</v>
+      </c>
+      <c r="L734" t="s">
         <v>4968</v>
-      </c>
-      <c r="L734" t="s">
-        <v>4969</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.25">
@@ -41195,16 +41187,16 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
+        <v>4969</v>
+      </c>
+      <c r="E735" t="s">
         <v>4970</v>
       </c>
-      <c r="E735" t="s">
+      <c r="F735" t="s">
         <v>4971</v>
       </c>
-      <c r="F735" t="s">
+      <c r="H735" t="s">
         <v>4972</v>
-      </c>
-      <c r="H735" t="s">
-        <v>4973</v>
       </c>
       <c r="I735" t="s">
         <v>135</v>
@@ -41213,10 +41205,10 @@
         <v>56</v>
       </c>
       <c r="K735" t="s">
+        <v>4973</v>
+      </c>
+      <c r="L735" t="s">
         <v>4974</v>
-      </c>
-      <c r="L735" t="s">
-        <v>4975</v>
       </c>
       <c r="M735" t="s">
         <v>34</v>
@@ -41227,13 +41219,13 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E736" t="s">
         <v>4976</v>
       </c>
-      <c r="E736" t="s">
+      <c r="F736" t="s">
         <v>4977</v>
-      </c>
-      <c r="F736" t="s">
-        <v>4978</v>
       </c>
       <c r="H736" t="s">
         <v>135</v>
@@ -41245,10 +41237,10 @@
         <v>56</v>
       </c>
       <c r="K736" t="s">
+        <v>4978</v>
+      </c>
+      <c r="L736" t="s">
         <v>4979</v>
-      </c>
-      <c r="L736" t="s">
-        <v>4980</v>
       </c>
       <c r="M736" t="s">
         <v>34</v>
@@ -41259,19 +41251,19 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D737" t="s">
         <v>4981</v>
       </c>
-      <c r="D737" t="s">
+      <c r="E737" t="s">
         <v>4982</v>
       </c>
-      <c r="E737" t="s">
+      <c r="F737" t="s">
         <v>4983</v>
       </c>
-      <c r="F737" t="s">
+      <c r="H737" t="s">
         <v>4984</v>
-      </c>
-      <c r="H737" t="s">
-        <v>4985</v>
       </c>
       <c r="I737" t="s">
         <v>251</v>
@@ -41280,10 +41272,10 @@
         <v>41</v>
       </c>
       <c r="K737" t="s">
+        <v>4985</v>
+      </c>
+      <c r="L737" t="s">
         <v>4986</v>
-      </c>
-      <c r="L737" t="s">
-        <v>4987</v>
       </c>
     </row>
     <row r="738" spans="1:13" x14ac:dyDescent="0.25">
@@ -41291,19 +41283,19 @@
         <v>737</v>
       </c>
       <c r="B738" t="s">
+        <v>4987</v>
+      </c>
+      <c r="D738" t="s">
         <v>4988</v>
       </c>
-      <c r="D738" t="s">
+      <c r="E738" t="s">
         <v>4989</v>
       </c>
-      <c r="E738" t="s">
+      <c r="F738" t="s">
         <v>4990</v>
       </c>
-      <c r="F738" t="s">
+      <c r="H738" t="s">
         <v>4991</v>
-      </c>
-      <c r="H738" t="s">
-        <v>4992</v>
       </c>
       <c r="I738" t="s">
         <v>64</v>
@@ -41312,10 +41304,10 @@
         <v>65</v>
       </c>
       <c r="K738" t="s">
+        <v>4992</v>
+      </c>
+      <c r="L738" t="s">
         <v>4993</v>
-      </c>
-      <c r="L738" t="s">
-        <v>4994</v>
       </c>
     </row>
     <row r="739" spans="1:13" x14ac:dyDescent="0.25">
@@ -41323,16 +41315,16 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E739" t="s">
         <v>4995</v>
       </c>
-      <c r="E739" t="s">
+      <c r="F739" t="s">
         <v>4996</v>
       </c>
-      <c r="F739" t="s">
+      <c r="H739" t="s">
         <v>4997</v>
-      </c>
-      <c r="H739" t="s">
-        <v>4998</v>
       </c>
       <c r="I739" t="s">
         <v>135</v>
@@ -41341,10 +41333,10 @@
         <v>56</v>
       </c>
       <c r="K739" t="s">
+        <v>4998</v>
+      </c>
+      <c r="L739" t="s">
         <v>4999</v>
-      </c>
-      <c r="L739" t="s">
-        <v>5000</v>
       </c>
       <c r="M739" t="s">
         <v>34</v>
@@ -41355,13 +41347,13 @@
         <v>739</v>
       </c>
       <c r="B740" t="s">
+        <v>5000</v>
+      </c>
+      <c r="E740" t="s">
         <v>5001</v>
       </c>
-      <c r="E740" t="s">
+      <c r="F740" t="s">
         <v>5002</v>
-      </c>
-      <c r="F740" t="s">
-        <v>5003</v>
       </c>
       <c r="H740" t="s">
         <v>115</v>
@@ -41373,10 +41365,10 @@
         <v>31</v>
       </c>
       <c r="K740" t="s">
+        <v>5003</v>
+      </c>
+      <c r="L740" t="s">
         <v>5004</v>
-      </c>
-      <c r="L740" t="s">
-        <v>5005</v>
       </c>
       <c r="M740" t="s">
         <v>34</v>
@@ -41387,16 +41379,16 @@
         <v>740</v>
       </c>
       <c r="B741" t="s">
+        <v>5005</v>
+      </c>
+      <c r="D741" t="s">
         <v>5006</v>
       </c>
-      <c r="D741" t="s">
+      <c r="E741" t="s">
         <v>5007</v>
       </c>
-      <c r="E741" t="s">
+      <c r="F741" t="s">
         <v>5008</v>
-      </c>
-      <c r="F741" t="s">
-        <v>5009</v>
       </c>
       <c r="H741" t="s">
         <v>201</v>
@@ -41408,10 +41400,10 @@
         <v>202</v>
       </c>
       <c r="K741" t="s">
+        <v>5009</v>
+      </c>
+      <c r="L741" t="s">
         <v>5010</v>
-      </c>
-      <c r="L741" t="s">
-        <v>5011</v>
       </c>
       <c r="M741" t="s">
         <v>34</v>
@@ -41422,19 +41414,19 @@
         <v>741</v>
       </c>
       <c r="B742" t="s">
+        <v>5011</v>
+      </c>
+      <c r="D742" t="s">
         <v>5012</v>
       </c>
-      <c r="D742" t="s">
+      <c r="E742" t="s">
         <v>5013</v>
       </c>
-      <c r="E742" t="s">
+      <c r="F742" t="s">
         <v>5014</v>
       </c>
-      <c r="F742" t="s">
+      <c r="H742" t="s">
         <v>5015</v>
-      </c>
-      <c r="H742" t="s">
-        <v>5016</v>
       </c>
       <c r="I742" t="s">
         <v>286</v>
@@ -41443,10 +41435,10 @@
         <v>31</v>
       </c>
       <c r="K742" t="s">
+        <v>5016</v>
+      </c>
+      <c r="L742" t="s">
         <v>5017</v>
-      </c>
-      <c r="L742" t="s">
-        <v>5018</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.25">
@@ -41454,16 +41446,16 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
+        <v>5018</v>
+      </c>
+      <c r="E743" t="s">
         <v>5019</v>
       </c>
-      <c r="E743" t="s">
+      <c r="F743" t="s">
         <v>5020</v>
       </c>
-      <c r="F743" t="s">
+      <c r="H743" t="s">
         <v>5021</v>
-      </c>
-      <c r="H743" t="s">
-        <v>5022</v>
       </c>
       <c r="I743" t="s">
         <v>30</v>
@@ -41472,10 +41464,10 @@
         <v>31</v>
       </c>
       <c r="K743" t="s">
+        <v>5022</v>
+      </c>
+      <c r="L743" t="s">
         <v>5023</v>
-      </c>
-      <c r="L743" t="s">
-        <v>5024</v>
       </c>
       <c r="M743" t="s">
         <v>34</v>
@@ -41486,22 +41478,22 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C744" t="s">
         <v>5025</v>
       </c>
-      <c r="C744" t="s">
+      <c r="D744" t="s">
         <v>5026</v>
       </c>
-      <c r="D744" t="s">
+      <c r="E744" t="s">
         <v>5027</v>
       </c>
-      <c r="E744" t="s">
+      <c r="F744" t="s">
         <v>5028</v>
       </c>
-      <c r="F744" t="s">
+      <c r="H744" t="s">
         <v>5029</v>
-      </c>
-      <c r="H744" t="s">
-        <v>5030</v>
       </c>
       <c r="I744" t="s">
         <v>714</v>
@@ -41510,10 +41502,10 @@
         <v>41</v>
       </c>
       <c r="K744" t="s">
+        <v>5030</v>
+      </c>
+      <c r="L744" t="s">
         <v>5031</v>
-      </c>
-      <c r="L744" t="s">
-        <v>5032</v>
       </c>
       <c r="M744" t="s">
         <v>24</v>
@@ -41524,22 +41516,22 @@
         <v>744</v>
       </c>
       <c r="B745" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C745" t="s">
         <v>5033</v>
       </c>
-      <c r="C745" t="s">
+      <c r="D745" t="s">
         <v>5034</v>
       </c>
-      <c r="D745" t="s">
+      <c r="E745" t="s">
         <v>5035</v>
       </c>
-      <c r="E745" t="s">
+      <c r="F745" t="s">
         <v>5036</v>
       </c>
-      <c r="F745" t="s">
+      <c r="H745" t="s">
         <v>5037</v>
-      </c>
-      <c r="H745" t="s">
-        <v>5038</v>
       </c>
       <c r="I745" t="s">
         <v>714</v>
@@ -41548,10 +41540,10 @@
         <v>41</v>
       </c>
       <c r="K745" t="s">
+        <v>5038</v>
+      </c>
+      <c r="L745" t="s">
         <v>5039</v>
-      </c>
-      <c r="L745" t="s">
-        <v>5040</v>
       </c>
       <c r="M745" t="s">
         <v>24</v>
@@ -41562,16 +41554,16 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
+        <v>5040</v>
+      </c>
+      <c r="D746" t="s">
         <v>5041</v>
       </c>
-      <c r="D746" t="s">
+      <c r="E746" t="s">
         <v>5042</v>
       </c>
-      <c r="E746" t="s">
+      <c r="F746" t="s">
         <v>5043</v>
-      </c>
-      <c r="F746" t="s">
-        <v>5044</v>
       </c>
       <c r="H746" t="s">
         <v>2879</v>
@@ -41583,10 +41575,10 @@
         <v>41</v>
       </c>
       <c r="K746" t="s">
+        <v>5044</v>
+      </c>
+      <c r="L746" t="s">
         <v>5045</v>
-      </c>
-      <c r="L746" t="s">
-        <v>5046</v>
       </c>
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.25">
@@ -41594,19 +41586,19 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
+        <v>5046</v>
+      </c>
+      <c r="E747" t="s">
         <v>5047</v>
       </c>
-      <c r="E747" t="s">
+      <c r="F747" t="s">
         <v>5048</v>
       </c>
-      <c r="F747" t="s">
+      <c r="G747" t="s">
         <v>5049</v>
       </c>
-      <c r="G747" t="s">
+      <c r="H747" t="s">
         <v>5050</v>
-      </c>
-      <c r="H747" t="s">
-        <v>5051</v>
       </c>
       <c r="I747" t="s">
         <v>251</v>
@@ -41615,10 +41607,10 @@
         <v>41</v>
       </c>
       <c r="K747" t="s">
+        <v>5051</v>
+      </c>
+      <c r="L747" t="s">
         <v>5052</v>
-      </c>
-      <c r="L747" t="s">
-        <v>5053</v>
       </c>
       <c r="M747" t="s">
         <v>34</v>
@@ -41629,16 +41621,16 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E748" t="s">
         <v>5054</v>
       </c>
-      <c r="E748" t="s">
+      <c r="F748" t="s">
         <v>5055</v>
       </c>
-      <c r="F748" t="s">
+      <c r="H748" t="s">
         <v>5056</v>
-      </c>
-      <c r="H748" t="s">
-        <v>5057</v>
       </c>
       <c r="I748" t="s">
         <v>30</v>
@@ -41647,7 +41639,7 @@
         <v>31</v>
       </c>
       <c r="L748" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="M748" t="s">
         <v>34</v>
@@ -41658,19 +41650,19 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
+        <v>5058</v>
+      </c>
+      <c r="D749" t="s">
         <v>5059</v>
       </c>
-      <c r="D749" t="s">
+      <c r="E749" t="s">
         <v>5060</v>
       </c>
-      <c r="E749" t="s">
+      <c r="F749" t="s">
         <v>5061</v>
       </c>
-      <c r="F749" t="s">
+      <c r="H749" t="s">
         <v>5062</v>
-      </c>
-      <c r="H749" t="s">
-        <v>5063</v>
       </c>
       <c r="I749" t="s">
         <v>55</v>
@@ -41679,10 +41671,10 @@
         <v>56</v>
       </c>
       <c r="K749" t="s">
+        <v>5063</v>
+      </c>
+      <c r="L749" t="s">
         <v>5064</v>
-      </c>
-      <c r="L749" t="s">
-        <v>5065</v>
       </c>
     </row>
   </sheetData>
@@ -41753,24 +41745,24 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="M1" t="s">
         <v>5066</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5067</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5068</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="D2" t="s">
         <v>5069</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5070</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5071</v>
       </c>
       <c r="G2" t="s">
         <v>4252</v>
@@ -41782,24 +41774,24 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
+        <v>5071</v>
+      </c>
+      <c r="K2" t="s">
         <v>5072</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5073</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5074</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D3" t="s">
         <v>5075</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5076</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5077</v>
       </c>
       <c r="G3" t="s">
         <v>2676</v>
@@ -41811,44 +41803,44 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>5078</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5079</v>
-      </c>
       <c r="L3" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D4" t="s">
         <v>5080</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5081</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>5082</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5083</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5083</v>
+      </c>
+      <c r="C5" t="s">
         <v>5084</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5085</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5086</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>5087</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5088</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -41857,30 +41849,30 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
+        <v>5088</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>5089</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>5090</v>
-      </c>
       <c r="L5" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5083</v>
+      </c>
+      <c r="C6" t="s">
         <v>5084</v>
       </c>
-      <c r="C6" t="s">
-        <v>5085</v>
-      </c>
       <c r="D6" t="s">
+        <v>5090</v>
+      </c>
+      <c r="E6" t="s">
         <v>5091</v>
       </c>
-      <c r="E6" t="s">
-        <v>5092</v>
-      </c>
       <c r="G6" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="H6" t="s">
         <v>64</v>
@@ -41889,30 +41881,30 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
+        <v>5092</v>
+      </c>
+      <c r="K6" t="s">
         <v>5093</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>5073</v>
+      </c>
+      <c r="N6" t="s">
         <v>5094</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5074</v>
-      </c>
-      <c r="N6" t="s">
-        <v>5095</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5095</v>
+      </c>
+      <c r="D7" t="s">
         <v>5096</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5097</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>5098</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5099</v>
       </c>
       <c r="H7" t="s">
         <v>591</v>
@@ -41921,52 +41913,52 @@
         <v>65</v>
       </c>
       <c r="J7" t="s">
+        <v>5099</v>
+      </c>
+      <c r="K7" t="s">
         <v>5100</v>
       </c>
-      <c r="K7" t="s">
-        <v>5101</v>
-      </c>
       <c r="L7" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D8" t="s">
         <v>5102</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>5103</v>
       </c>
-      <c r="E8" t="s">
-        <v>5104</v>
-      </c>
       <c r="L8" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5104</v>
+      </c>
+      <c r="D9" t="s">
         <v>5105</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>5106</v>
       </c>
-      <c r="E9" t="s">
-        <v>5107</v>
-      </c>
       <c r="L9" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5107</v>
+      </c>
+      <c r="D10" t="s">
         <v>5108</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>5109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5110</v>
       </c>
       <c r="G10" t="s">
         <v>1852</v>
@@ -41978,41 +41970,41 @@
         <v>279</v>
       </c>
       <c r="J10" t="s">
+        <v>5110</v>
+      </c>
+      <c r="K10" t="s">
         <v>5111</v>
       </c>
-      <c r="K10" t="s">
-        <v>5112</v>
-      </c>
       <c r="L10" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5112</v>
+      </c>
+      <c r="D11" t="s">
         <v>5113</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5114</v>
       </c>
-      <c r="E11" t="s">
-        <v>5115</v>
-      </c>
       <c r="L11" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5115</v>
+      </c>
+      <c r="D12" t="s">
         <v>5116</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5117</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>5118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5119</v>
       </c>
       <c r="H12" t="s">
         <v>304</v>
@@ -42021,30 +42013,30 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
+        <v>5119</v>
+      </c>
+      <c r="K12" t="s">
         <v>5120</v>
       </c>
-      <c r="K12" t="s">
-        <v>5121</v>
-      </c>
       <c r="L12" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C13" t="s">
         <v>5122</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>5123</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>5124</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>5125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5126</v>
       </c>
       <c r="H13" t="s">
         <v>400</v>
@@ -42053,13 +42045,13 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K13" t="s">
         <v>5127</v>
       </c>
-      <c r="K13" t="s">
-        <v>5128</v>
-      </c>
       <c r="L13" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
   </sheetData>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Miguel-Angel\Code\Python\red_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecemaml\My Code\Python\red_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D873E3-03FF-4361-AD9E-8E621DF606BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +20,7 @@
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$B$1:$M$749</definedName>
     <definedName name="ExternalData_1" localSheetId="1">Sheet2!$A$1:$M$13</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -15485,7 +15484,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="red" displayName="red" ref="B1:O749" totalsRowShown="0">
-  <autoFilter ref="B1:O749" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="B1:O749" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Murcia"/>
+        <filter val="Región de Murcia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Artículo en español"/>
@@ -15530,7 +15536,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15828,11 +15834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K335" sqref="K335"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125"/>
     <col min="2" max="2" width="44"/>
@@ -15893,7 +15899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15931,7 +15937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15998,7 +16004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16033,7 +16039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16071,7 +16077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16138,7 +16144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16170,7 +16176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16202,7 +16208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16237,7 +16243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16269,7 +16275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16301,7 +16307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16339,7 +16345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16371,7 +16377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16406,7 +16412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16438,7 +16444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16476,7 +16482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16511,7 +16517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16549,7 +16555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16581,7 +16587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16613,7 +16619,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16651,7 +16657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16683,7 +16689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16942,7 +16948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16977,7 +16983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17012,7 +17018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17047,7 +17053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17082,7 +17088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17114,7 +17120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17146,7 +17152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17178,7 +17184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17210,7 +17216,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17248,7 +17254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17283,7 +17289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17321,7 +17327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17359,7 +17365,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17397,7 +17403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17435,7 +17441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17470,7 +17476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17502,7 +17508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17531,7 +17537,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17572,7 +17578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17659,7 +17665,7 @@
         <v>393</v>
       </c>
       <c r="I53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J53" t="s">
         <v>202</v>
@@ -17671,7 +17677,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17703,7 +17709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17735,7 +17741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17802,7 +17808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17834,7 +17840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17869,7 +17875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17901,7 +17907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17933,7 +17939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17971,7 +17977,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18006,7 +18012,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18038,7 +18044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18070,7 +18076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18102,7 +18108,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18181,7 +18187,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18213,7 +18219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18245,7 +18251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18312,7 +18318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18382,7 +18388,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18414,7 +18420,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18446,7 +18452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18484,7 +18490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18519,7 +18525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18551,7 +18557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18586,7 +18592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18618,7 +18624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18650,7 +18656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18685,7 +18691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -18717,7 +18723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18746,7 +18752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -18784,7 +18790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -18816,7 +18822,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -18851,7 +18857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -18889,7 +18895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -18927,7 +18933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -18962,7 +18968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19000,7 +19006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -19032,7 +19038,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -19064,7 +19070,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -19093,7 +19099,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19128,7 +19134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19166,7 +19172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -19198,7 +19204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19236,7 +19242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19274,7 +19280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19312,7 +19318,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19344,7 +19350,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19382,7 +19388,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -19420,7 +19426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -19458,7 +19464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -19487,7 +19493,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -19525,7 +19531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -19557,7 +19563,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -19595,7 +19601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -19630,7 +19636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -19662,7 +19668,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19694,7 +19700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19726,7 +19732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19764,7 +19770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19805,7 +19811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19840,7 +19846,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19916,7 +19922,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19951,7 +19957,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19989,7 +19995,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -20059,7 +20065,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -20091,7 +20097,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -20123,7 +20129,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20161,7 +20167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -20199,7 +20205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -20237,7 +20243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -20275,7 +20281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -20310,7 +20316,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -20342,7 +20348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -20380,7 +20386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -20418,7 +20424,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -20514,7 +20520,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -20552,7 +20558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -20584,7 +20590,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -20622,7 +20628,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -20660,7 +20666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -20692,7 +20698,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20730,7 +20736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20768,7 +20774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20800,7 +20806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20832,7 +20838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20870,7 +20876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20902,7 +20908,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -20934,7 +20940,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -20972,7 +20978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -21042,7 +21048,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -21080,7 +21086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21118,7 +21124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21150,7 +21156,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -21179,7 +21185,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -21211,7 +21217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -21249,7 +21255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -21287,7 +21293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -21319,7 +21325,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -21360,7 +21366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -21398,7 +21404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -21436,7 +21442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -21471,7 +21477,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -21509,7 +21515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -21541,7 +21547,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -21573,7 +21579,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -21605,7 +21611,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -21640,7 +21646,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -21678,7 +21684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -21716,7 +21722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -21748,7 +21754,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -21786,7 +21792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -21815,7 +21821,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -21847,7 +21853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -21879,7 +21885,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -21917,7 +21923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -21949,7 +21955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -21981,7 +21987,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -22019,7 +22025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -22051,7 +22057,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -22083,7 +22089,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -22121,7 +22127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -22153,7 +22159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -22188,7 +22194,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -22226,7 +22232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -22264,7 +22270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -22296,7 +22302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -22328,7 +22334,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -22360,7 +22366,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -22392,7 +22398,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -22462,7 +22468,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -22494,7 +22500,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -22529,7 +22535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -22564,7 +22570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -22605,7 +22611,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -22684,7 +22690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -22716,7 +22722,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22754,7 +22760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22789,7 +22795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22827,7 +22833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22865,7 +22871,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -22894,7 +22900,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22932,7 +22938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22961,7 +22967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22993,7 +22999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -23028,7 +23034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -23063,7 +23069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -23095,7 +23101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -23127,7 +23133,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -23159,7 +23165,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -23191,7 +23197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -23223,7 +23229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -23255,7 +23261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -23287,7 +23293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -23325,7 +23331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -23357,7 +23363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23395,7 +23401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23433,7 +23439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -23468,7 +23474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -23503,7 +23509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -23541,7 +23547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -23579,7 +23585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23611,7 +23617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -23646,7 +23652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -23681,7 +23687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -23713,7 +23719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -23745,7 +23751,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -23777,7 +23783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -23815,7 +23821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23847,7 +23853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -23879,7 +23885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -23920,7 +23926,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -23958,7 +23964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -23990,7 +23996,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24028,7 +24034,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -24060,7 +24066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -24092,7 +24098,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -24127,7 +24133,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -24159,7 +24165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -24197,7 +24203,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -24232,7 +24238,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -24270,7 +24276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -24302,7 +24308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -24334,7 +24340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -24369,7 +24375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -24401,7 +24407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -24439,7 +24445,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -24474,7 +24480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -24512,7 +24518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -24547,7 +24553,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -24576,7 +24582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -24611,7 +24617,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -24652,7 +24658,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -24690,7 +24696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -24728,7 +24734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -24766,7 +24772,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -24801,7 +24807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -24833,7 +24839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -24865,7 +24871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -24897,7 +24903,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -24929,7 +24935,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -24967,7 +24973,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -24999,7 +25005,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -25031,7 +25037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -25066,7 +25072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -25098,7 +25104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -25136,7 +25142,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -25168,7 +25174,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -25203,7 +25209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -25235,7 +25241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -25270,7 +25276,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -25305,7 +25311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -25343,7 +25349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -25381,7 +25387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -25419,7 +25425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -25451,7 +25457,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -25483,7 +25489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -25515,7 +25521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -25553,7 +25559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -25585,7 +25591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -25620,7 +25626,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -25652,7 +25658,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -25681,7 +25687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -25719,7 +25725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -25754,7 +25760,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -25786,7 +25792,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -25824,7 +25830,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -25862,7 +25868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -25894,7 +25900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -25926,7 +25932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -25958,7 +25964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -25990,7 +25996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -26025,7 +26031,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -26057,7 +26063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -26092,7 +26098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -26127,7 +26133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -26159,7 +26165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -26197,7 +26203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -26232,7 +26238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -26270,7 +26276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -26308,7 +26314,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -26343,7 +26349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -26375,7 +26381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -26410,7 +26416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -26442,7 +26448,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -26477,7 +26483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -26509,7 +26515,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -26547,7 +26553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -26582,7 +26588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26617,7 +26623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26649,7 +26655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26681,7 +26687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26713,7 +26719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26745,7 +26751,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26780,7 +26786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -26815,7 +26821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -26847,7 +26853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -26879,7 +26885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -26914,7 +26920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -26946,7 +26952,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -26984,7 +26990,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27022,7 +27028,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27060,7 +27066,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27092,7 +27098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27127,7 +27133,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27165,7 +27171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27197,7 +27203,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27232,7 +27238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27267,7 +27273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27299,7 +27305,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27369,7 +27375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -27404,7 +27410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -27442,7 +27448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -27474,7 +27480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -27506,7 +27512,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -27538,7 +27544,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -27576,7 +27582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -27611,7 +27617,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -27646,7 +27652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -27681,7 +27687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -27716,7 +27722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -27751,7 +27757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -27789,7 +27795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -27827,7 +27833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -27862,7 +27868,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -27894,7 +27900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -27929,7 +27935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -27964,7 +27970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -27996,7 +28002,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -28028,7 +28034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -28066,7 +28072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -28098,7 +28104,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -28130,7 +28136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -28162,7 +28168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -28194,7 +28200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -28226,7 +28232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -28258,7 +28264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -28290,7 +28296,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -28325,7 +28331,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -28360,7 +28366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -28395,7 +28401,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -28427,7 +28433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -28459,7 +28465,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -28494,7 +28500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -28532,7 +28538,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -28567,7 +28573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -28608,7 +28614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -28646,7 +28652,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -28681,7 +28687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -28719,7 +28725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -28751,7 +28757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -28786,7 +28792,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -28818,7 +28824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -28853,7 +28859,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -28888,7 +28894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -28929,7 +28935,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -28961,7 +28967,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -28993,7 +28999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -29025,7 +29031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -29060,7 +29066,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -29092,7 +29098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -29127,7 +29133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -29159,7 +29165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -29191,7 +29197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -29226,7 +29232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -29261,7 +29267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -29299,7 +29305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -29331,7 +29337,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -29369,7 +29375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -29404,7 +29410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -29445,7 +29451,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -29477,7 +29483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -29509,7 +29515,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -29541,7 +29547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -29579,7 +29585,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -29614,7 +29620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -29646,7 +29652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -29681,7 +29687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -29719,7 +29725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -29751,7 +29757,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -29786,7 +29792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -29818,7 +29824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -29850,7 +29856,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -29882,7 +29888,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -29920,7 +29926,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -29955,7 +29961,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -29990,7 +29996,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -30025,7 +30031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -30057,7 +30063,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -30089,7 +30095,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -30121,7 +30127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -30156,7 +30162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -30194,7 +30200,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -30232,7 +30238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -30267,7 +30273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -30302,7 +30308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -30337,7 +30343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -30375,7 +30381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -30416,7 +30422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -30445,7 +30451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -30483,7 +30489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -30515,7 +30521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -30553,7 +30559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -30582,7 +30588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -30617,7 +30623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -30652,7 +30658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -30687,7 +30693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -30722,7 +30728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -30757,7 +30763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -30792,7 +30798,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -30827,7 +30833,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -30862,7 +30868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -30894,7 +30900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -30926,7 +30932,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -30961,7 +30967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -30996,7 +31002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -31028,7 +31034,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -31063,7 +31069,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -31104,7 +31110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -31139,7 +31145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -31171,7 +31177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -31203,7 +31209,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -31241,7 +31247,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -31282,7 +31288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -31320,7 +31326,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -31355,7 +31361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -31390,7 +31396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -31425,7 +31431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -31457,7 +31463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -31495,7 +31501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -31527,7 +31533,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -31559,7 +31565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -31594,7 +31600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -31629,7 +31635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -31661,7 +31667,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -31699,7 +31705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -31737,7 +31743,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -31769,7 +31775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -31804,7 +31810,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -31839,7 +31845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -31871,7 +31877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -31909,7 +31915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -31944,7 +31950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -31976,7 +31982,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -32008,7 +32014,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -32046,7 +32052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -32081,7 +32087,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -32113,7 +32119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -32148,7 +32154,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -32183,7 +32189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -32215,7 +32221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -32250,7 +32256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -32285,7 +32291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -32320,7 +32326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -32355,7 +32361,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -32387,7 +32393,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -32419,7 +32425,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -32457,7 +32463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -32489,7 +32495,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -32524,7 +32530,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -32556,7 +32562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -32588,7 +32594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -32623,7 +32629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -32652,7 +32658,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -32684,7 +32690,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -32719,7 +32725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -32754,7 +32760,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -32786,7 +32792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -32818,7 +32824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -32891,7 +32897,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -32926,7 +32932,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -32958,7 +32964,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -32990,7 +32996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -33022,7 +33028,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -33057,7 +33063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -33089,7 +33095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -33127,7 +33133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -33159,7 +33165,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -33197,7 +33203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -33235,7 +33241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -33267,7 +33273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -33337,7 +33343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -33375,7 +33381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -33407,7 +33413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -33445,7 +33451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -33483,7 +33489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -33524,7 +33530,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -33556,7 +33562,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -33594,7 +33600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -33626,7 +33632,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -33664,7 +33670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -33702,7 +33708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -33740,7 +33746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -33775,7 +33781,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -33807,7 +33813,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -33842,7 +33848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -33877,7 +33883,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -33909,7 +33915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -33950,7 +33956,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -33988,7 +33994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -34017,7 +34023,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -34049,7 +34055,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -34087,7 +34093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -34119,7 +34125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -34151,7 +34157,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -34189,7 +34195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -34221,7 +34227,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -34259,7 +34265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -34297,7 +34303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -34335,7 +34341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -34367,7 +34373,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -34405,7 +34411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -34437,7 +34443,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -34475,7 +34481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -34510,7 +34516,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -34545,7 +34551,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -34583,7 +34589,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -34621,7 +34627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -34656,7 +34662,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -34694,7 +34700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -34735,7 +34741,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -34764,7 +34770,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -34796,7 +34802,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -34831,7 +34837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -34863,7 +34869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -34892,7 +34898,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -34930,7 +34936,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -34962,7 +34968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -35000,7 +35006,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -35035,7 +35041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -35070,7 +35076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -35102,7 +35108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -35172,7 +35178,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -35204,7 +35210,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -35239,7 +35245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -35274,7 +35280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -35309,7 +35315,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -35347,7 +35353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -35385,7 +35391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -35423,7 +35429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -35461,7 +35467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -35496,7 +35502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -35534,7 +35540,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -35572,7 +35578,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -35610,7 +35616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -35645,7 +35651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -35677,7 +35683,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -35712,7 +35718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -35750,7 +35756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -35785,7 +35791,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -35817,7 +35823,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -35849,7 +35855,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -35887,7 +35893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -35919,7 +35925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -35954,7 +35960,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -35989,7 +35995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -36021,7 +36027,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -36059,7 +36065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -36091,7 +36097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -36126,7 +36132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -36158,7 +36164,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -36190,7 +36196,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -36225,7 +36231,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -36257,7 +36263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -36289,7 +36295,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -36321,7 +36327,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -36359,7 +36365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -36391,7 +36397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -36464,7 +36470,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -36502,7 +36508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -36534,7 +36540,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -36572,7 +36578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -36604,7 +36610,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -36636,7 +36642,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -36668,7 +36674,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -36706,7 +36712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -36738,7 +36744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -36770,7 +36776,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -36811,7 +36817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -36846,7 +36852,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -36881,7 +36887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -36919,7 +36925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -36957,7 +36963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -36989,7 +36995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -37030,7 +37036,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -37062,7 +37068,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -37094,7 +37100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -37129,7 +37135,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -37161,7 +37167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -37199,7 +37205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -37234,7 +37240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -37266,7 +37272,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -37298,7 +37304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -37327,7 +37333,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -37359,7 +37365,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -37388,7 +37394,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -37420,7 +37426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -37458,7 +37464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -37493,7 +37499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -37525,7 +37531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -37557,7 +37563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -37586,7 +37592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -37615,7 +37621,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -37653,7 +37659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -37688,7 +37694,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -37720,7 +37726,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -37752,7 +37758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -37787,7 +37793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -37819,7 +37825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -37851,7 +37857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -37886,7 +37892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -37924,7 +37930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -37965,7 +37971,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -37997,7 +38003,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -38029,7 +38035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -38064,7 +38070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -38096,7 +38102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -38128,7 +38134,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>644</v>
       </c>
@@ -38160,7 +38166,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -38192,7 +38198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -38227,7 +38233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -38262,7 +38268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -38294,7 +38300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -38326,7 +38332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -38364,7 +38370,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>651</v>
       </c>
@@ -38396,7 +38402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -38428,7 +38434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -38460,7 +38466,7 @@
         <v>5129</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -38492,7 +38498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>655</v>
       </c>
@@ -38524,7 +38530,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>656</v>
       </c>
@@ -38559,7 +38565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>657</v>
       </c>
@@ -38591,7 +38597,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>658</v>
       </c>
@@ -38629,7 +38635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>659</v>
       </c>
@@ -38661,7 +38667,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -38696,7 +38702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>661</v>
       </c>
@@ -38734,7 +38740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>662</v>
       </c>
@@ -38769,7 +38775,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>663</v>
       </c>
@@ -38804,7 +38810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>664</v>
       </c>
@@ -38842,7 +38848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>665</v>
       </c>
@@ -38880,7 +38886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>666</v>
       </c>
@@ -38912,7 +38918,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>667</v>
       </c>
@@ -38950,7 +38956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>668</v>
       </c>
@@ -38988,7 +38994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>669</v>
       </c>
@@ -39017,7 +39023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>670</v>
       </c>
@@ -39049,7 +39055,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>671</v>
       </c>
@@ -39078,7 +39084,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>672</v>
       </c>
@@ -39110,7 +39116,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>673</v>
       </c>
@@ -39145,7 +39151,7 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -39180,7 +39186,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>675</v>
       </c>
@@ -39215,7 +39221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>676</v>
       </c>
@@ -39253,7 +39259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>677</v>
       </c>
@@ -39285,7 +39291,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>678</v>
       </c>
@@ -39314,7 +39320,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>679</v>
       </c>
@@ -39349,7 +39355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>680</v>
       </c>
@@ -39378,7 +39384,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>681</v>
       </c>
@@ -39419,7 +39425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>682</v>
       </c>
@@ -39457,7 +39463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>683</v>
       </c>
@@ -39495,7 +39501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>684</v>
       </c>
@@ -39527,7 +39533,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>685</v>
       </c>
@@ -39565,7 +39571,7 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>686</v>
       </c>
@@ -39597,7 +39603,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -39661,7 +39667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>689</v>
       </c>
@@ -39693,7 +39699,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>690</v>
       </c>
@@ -39728,7 +39734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>691</v>
       </c>
@@ -39760,7 +39766,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -39792,7 +39798,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -39827,7 +39833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -39862,7 +39868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -39894,7 +39900,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -39926,7 +39932,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>697</v>
       </c>
@@ -39961,7 +39967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>698</v>
       </c>
@@ -39999,7 +40005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>699</v>
       </c>
@@ -40031,7 +40037,7 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>700</v>
       </c>
@@ -40072,7 +40078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>701</v>
       </c>
@@ -40136,7 +40142,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>703</v>
       </c>
@@ -40171,7 +40177,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>704</v>
       </c>
@@ -40212,7 +40218,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>705</v>
       </c>
@@ -40247,7 +40253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>706</v>
       </c>
@@ -40282,7 +40288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -40317,7 +40323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>708</v>
       </c>
@@ -40349,7 +40355,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -40381,7 +40387,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -40416,7 +40422,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>711</v>
       </c>
@@ -40521,7 +40527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -40556,7 +40562,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>715</v>
       </c>
@@ -40594,7 +40600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>716</v>
       </c>
@@ -40632,7 +40638,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>717</v>
       </c>
@@ -40664,7 +40670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>718</v>
       </c>
@@ -40696,7 +40702,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>719</v>
       </c>
@@ -40728,7 +40734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>720</v>
       </c>
@@ -40760,7 +40766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>721</v>
       </c>
@@ -40789,7 +40795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>722</v>
       </c>
@@ -40827,7 +40833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>723</v>
       </c>
@@ -40859,7 +40865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>724</v>
       </c>
@@ -40897,7 +40903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>725</v>
       </c>
@@ -40929,7 +40935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>726</v>
       </c>
@@ -40958,7 +40964,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>727</v>
       </c>
@@ -40990,7 +40996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>728</v>
       </c>
@@ -41022,7 +41028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>729</v>
       </c>
@@ -41054,7 +41060,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>730</v>
       </c>
@@ -41086,7 +41092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>731</v>
       </c>
@@ -41118,7 +41124,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>732</v>
       </c>
@@ -41182,7 +41188,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>734</v>
       </c>
@@ -41214,7 +41220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>735</v>
       </c>
@@ -41246,7 +41252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>736</v>
       </c>
@@ -41278,7 +41284,7 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>737</v>
       </c>
@@ -41310,7 +41316,7 @@
         <v>4993</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>738</v>
       </c>
@@ -41342,7 +41348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>739</v>
       </c>
@@ -41409,7 +41415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>741</v>
       </c>
@@ -41441,7 +41447,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>742</v>
       </c>
@@ -41473,7 +41479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>743</v>
       </c>
@@ -41511,7 +41517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>744</v>
       </c>
@@ -41549,7 +41555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>745</v>
       </c>
@@ -41581,7 +41587,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>746</v>
       </c>
@@ -41616,7 +41622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>747</v>
       </c>
@@ -41645,7 +41651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>748</v>
       </c>
@@ -41694,7 +41700,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44"/>
     <col min="2" max="2" width="0" hidden="1"/>
@@ -42069,7 +42075,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="9.42578125"/>
   </cols>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -14468,9 +14468,6 @@
     <t>-16.19087</t>
   </si>
   <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
     <t>Torre defensiva circular del siglo XVIII.</t>
   </si>
   <si>
@@ -15420,6 +15417,9 @@
   </si>
   <si>
     <t>Q29982228</t>
+  </si>
+  <si>
+    <t>Provincia</t>
   </si>
 </sst>
 </file>
@@ -15481,7 +15481,7 @@
   <autoFilter ref="B1:O749" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="7">
       <filters>
-        <filter val="España"/>
+        <filter val="Tenerife"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15493,7 +15493,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Longitud"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localidad"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Municipio"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provincia "/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provincia"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comunidad autónoma"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Descripción"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="URL"/>
@@ -15828,7 +15828,7 @@
   <dimension ref="A1:P749"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J485" sqref="J485"/>
+      <selection activeCell="I710" sqref="I710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15869,7 +15869,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>5129</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -19656,7 +19656,7 @@
         <v>793</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -32585,7 +32585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -38448,7 +38448,7 @@
         <v>4438</v>
       </c>
       <c r="L654" s="2" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40045,7 +40045,7 @@
         <v>4752</v>
       </c>
       <c r="H701" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="I701" t="s">
         <v>91</v>
@@ -40071,7 +40071,7 @@
         <v>4748</v>
       </c>
       <c r="D702" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="E702" t="s">
         <v>4755</v>
@@ -40340,7 +40340,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -40360,16 +40360,16 @@
         <v>431</v>
       </c>
       <c r="I710" t="s">
-        <v>4812</v>
+        <v>431</v>
       </c>
       <c r="J710" t="s">
         <v>432</v>
       </c>
       <c r="K710" t="s">
+        <v>4812</v>
+      </c>
+      <c r="L710" t="s">
         <v>4813</v>
-      </c>
-      <c r="L710" t="s">
-        <v>4814</v>
       </c>
     </row>
     <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40377,19 +40377,19 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
+        <v>4814</v>
+      </c>
+      <c r="D711" t="s">
         <v>4815</v>
       </c>
-      <c r="D711" t="s">
+      <c r="E711" t="s">
         <v>4816</v>
       </c>
-      <c r="E711" t="s">
+      <c r="F711" t="s">
         <v>4817</v>
       </c>
-      <c r="F711" t="s">
+      <c r="G711" t="s">
         <v>4818</v>
-      </c>
-      <c r="G711" t="s">
-        <v>4819</v>
       </c>
       <c r="H711" t="s">
         <v>4726</v>
@@ -40401,10 +40401,10 @@
         <v>31</v>
       </c>
       <c r="K711" t="s">
+        <v>4819</v>
+      </c>
+      <c r="L711" t="s">
         <v>4820</v>
-      </c>
-      <c r="L711" t="s">
-        <v>4821</v>
       </c>
     </row>
     <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40412,25 +40412,25 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
+        <v>4821</v>
+      </c>
+      <c r="C712" t="s">
+        <v>4821</v>
+      </c>
+      <c r="D712" t="s">
         <v>4822</v>
       </c>
-      <c r="C712" t="s">
-        <v>4822</v>
-      </c>
-      <c r="D712" t="s">
+      <c r="E712" t="s">
         <v>4823</v>
       </c>
-      <c r="E712" t="s">
+      <c r="F712" t="s">
         <v>4824</v>
       </c>
-      <c r="F712" t="s">
+      <c r="G712" t="s">
         <v>4825</v>
       </c>
-      <c r="G712" t="s">
+      <c r="H712" t="s">
         <v>4826</v>
-      </c>
-      <c r="H712" t="s">
-        <v>4827</v>
       </c>
       <c r="I712" t="s">
         <v>374</v>
@@ -40439,10 +40439,10 @@
         <v>2171</v>
       </c>
       <c r="K712" t="s">
+        <v>4827</v>
+      </c>
+      <c r="L712" t="s">
         <v>4828</v>
-      </c>
-      <c r="L712" t="s">
-        <v>4829</v>
       </c>
       <c r="M712" t="s">
         <v>24</v>
@@ -40453,16 +40453,16 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
+        <v>4829</v>
+      </c>
+      <c r="E713" t="s">
         <v>4830</v>
       </c>
-      <c r="E713" t="s">
+      <c r="F713" t="s">
         <v>4831</v>
       </c>
-      <c r="F713" t="s">
+      <c r="H713" t="s">
         <v>4832</v>
-      </c>
-      <c r="H713" t="s">
-        <v>4833</v>
       </c>
       <c r="I713" t="s">
         <v>201</v>
@@ -40471,10 +40471,10 @@
         <v>202</v>
       </c>
       <c r="K713" t="s">
+        <v>4833</v>
+      </c>
+      <c r="L713" t="s">
         <v>4834</v>
-      </c>
-      <c r="L713" t="s">
-        <v>4835</v>
       </c>
       <c r="M713" t="s">
         <v>34</v>
@@ -40485,16 +40485,16 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E714" t="s">
         <v>4836</v>
       </c>
-      <c r="E714" t="s">
+      <c r="F714" t="s">
         <v>4837</v>
       </c>
-      <c r="F714" t="s">
+      <c r="H714" t="s">
         <v>4838</v>
-      </c>
-      <c r="H714" t="s">
-        <v>4839</v>
       </c>
       <c r="I714" t="s">
         <v>201</v>
@@ -40503,10 +40503,10 @@
         <v>202</v>
       </c>
       <c r="K714" t="s">
+        <v>4839</v>
+      </c>
+      <c r="L714" t="s">
         <v>4840</v>
-      </c>
-      <c r="L714" t="s">
-        <v>4841</v>
       </c>
       <c r="M714" t="s">
         <v>34</v>
@@ -40517,13 +40517,13 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
+        <v>4841</v>
+      </c>
+      <c r="E715" t="s">
         <v>4842</v>
       </c>
-      <c r="E715" t="s">
+      <c r="F715" t="s">
         <v>4843</v>
-      </c>
-      <c r="F715" t="s">
-        <v>4844</v>
       </c>
       <c r="H715" t="s">
         <v>135</v>
@@ -40535,16 +40535,16 @@
         <v>56</v>
       </c>
       <c r="K715" t="s">
+        <v>4844</v>
+      </c>
+      <c r="L715" t="s">
         <v>4845</v>
-      </c>
-      <c r="L715" t="s">
-        <v>4846</v>
       </c>
       <c r="M715" t="s">
         <v>34</v>
       </c>
       <c r="O715" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40552,19 +40552,19 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C716" t="s">
+        <v>4847</v>
+      </c>
+      <c r="D716" t="s">
         <v>4848</v>
       </c>
-      <c r="C716" t="s">
-        <v>4848</v>
-      </c>
-      <c r="D716" t="s">
+      <c r="E716" t="s">
         <v>4849</v>
       </c>
-      <c r="E716" t="s">
+      <c r="F716" t="s">
         <v>4850</v>
-      </c>
-      <c r="F716" t="s">
-        <v>4851</v>
       </c>
       <c r="H716" t="s">
         <v>1082</v>
@@ -40576,10 +40576,10 @@
         <v>295</v>
       </c>
       <c r="K716" t="s">
+        <v>4851</v>
+      </c>
+      <c r="L716" t="s">
         <v>4852</v>
-      </c>
-      <c r="L716" t="s">
-        <v>4853</v>
       </c>
       <c r="M716" t="s">
         <v>24</v>
@@ -40590,19 +40590,19 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
+        <v>4853</v>
+      </c>
+      <c r="E717" t="s">
         <v>4854</v>
       </c>
-      <c r="E717" t="s">
+      <c r="F717" t="s">
         <v>4855</v>
       </c>
-      <c r="F717" t="s">
+      <c r="G717" t="s">
         <v>4856</v>
       </c>
-      <c r="G717" t="s">
+      <c r="H717" t="s">
         <v>4857</v>
-      </c>
-      <c r="H717" t="s">
-        <v>4858</v>
       </c>
       <c r="I717" t="s">
         <v>304</v>
@@ -40611,16 +40611,16 @@
         <v>41</v>
       </c>
       <c r="K717" t="s">
+        <v>4858</v>
+      </c>
+      <c r="L717" s="1" t="s">
         <v>4859</v>
-      </c>
-      <c r="L717" s="1" t="s">
-        <v>4860</v>
       </c>
       <c r="M717" t="s">
         <v>34</v>
       </c>
       <c r="O717" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40628,16 +40628,16 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E718" t="s">
         <v>4862</v>
       </c>
-      <c r="E718" t="s">
+      <c r="F718" t="s">
         <v>4863</v>
       </c>
-      <c r="F718" t="s">
+      <c r="H718" t="s">
         <v>4864</v>
-      </c>
-      <c r="H718" t="s">
-        <v>4865</v>
       </c>
       <c r="I718" t="s">
         <v>320</v>
@@ -40646,10 +40646,10 @@
         <v>31</v>
       </c>
       <c r="K718" t="s">
+        <v>4865</v>
+      </c>
+      <c r="L718" t="s">
         <v>4866</v>
-      </c>
-      <c r="L718" t="s">
-        <v>4867</v>
       </c>
       <c r="M718" t="s">
         <v>34</v>
@@ -40660,16 +40660,16 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
+        <v>4867</v>
+      </c>
+      <c r="D719" t="s">
         <v>4868</v>
       </c>
-      <c r="D719" t="s">
+      <c r="E719" t="s">
         <v>4869</v>
       </c>
-      <c r="E719" t="s">
+      <c r="F719" t="s">
         <v>4870</v>
-      </c>
-      <c r="F719" t="s">
-        <v>4871</v>
       </c>
       <c r="H719" t="s">
         <v>591</v>
@@ -40681,10 +40681,10 @@
         <v>65</v>
       </c>
       <c r="K719" t="s">
+        <v>4871</v>
+      </c>
+      <c r="L719" t="s">
         <v>4872</v>
-      </c>
-      <c r="L719" t="s">
-        <v>4873</v>
       </c>
     </row>
     <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -40692,16 +40692,16 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E720" t="s">
         <v>4874</v>
       </c>
-      <c r="E720" t="s">
+      <c r="F720" t="s">
         <v>4875</v>
       </c>
-      <c r="F720" t="s">
+      <c r="H720" t="s">
         <v>4876</v>
-      </c>
-      <c r="H720" t="s">
-        <v>4877</v>
       </c>
       <c r="I720" t="s">
         <v>30</v>
@@ -40710,10 +40710,10 @@
         <v>31</v>
       </c>
       <c r="K720" t="s">
+        <v>4877</v>
+      </c>
+      <c r="L720" t="s">
         <v>4878</v>
-      </c>
-      <c r="L720" t="s">
-        <v>4879</v>
       </c>
       <c r="M720" t="s">
         <v>34</v>
@@ -40724,16 +40724,16 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E721" t="s">
         <v>4880</v>
       </c>
-      <c r="E721" t="s">
+      <c r="F721" t="s">
         <v>4881</v>
       </c>
-      <c r="F721" t="s">
+      <c r="H721" t="s">
         <v>4882</v>
-      </c>
-      <c r="H721" t="s">
-        <v>4883</v>
       </c>
       <c r="I721" t="s">
         <v>135</v>
@@ -40742,10 +40742,10 @@
         <v>56</v>
       </c>
       <c r="K721" t="s">
+        <v>4883</v>
+      </c>
+      <c r="L721" t="s">
         <v>4884</v>
-      </c>
-      <c r="L721" t="s">
-        <v>4885</v>
       </c>
       <c r="M721" t="s">
         <v>34</v>
@@ -40756,16 +40756,16 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
+        <v>4885</v>
+      </c>
+      <c r="E722" t="s">
         <v>4886</v>
       </c>
-      <c r="E722" t="s">
+      <c r="F722" t="s">
         <v>4887</v>
       </c>
-      <c r="F722" t="s">
+      <c r="H722" t="s">
         <v>4888</v>
-      </c>
-      <c r="H722" t="s">
-        <v>4889</v>
       </c>
       <c r="I722" t="s">
         <v>271</v>
@@ -40774,7 +40774,7 @@
         <v>41</v>
       </c>
       <c r="L722" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="M722" t="s">
         <v>34</v>
@@ -40785,22 +40785,22 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C723" t="s">
+        <v>4890</v>
+      </c>
+      <c r="D723" t="s">
         <v>4891</v>
       </c>
-      <c r="C723" t="s">
-        <v>4891</v>
-      </c>
-      <c r="D723" t="s">
+      <c r="E723" t="s">
         <v>4892</v>
       </c>
-      <c r="E723" t="s">
+      <c r="F723" t="s">
         <v>4893</v>
       </c>
-      <c r="F723" t="s">
+      <c r="H723" t="s">
         <v>4894</v>
-      </c>
-      <c r="H723" t="s">
-        <v>4895</v>
       </c>
       <c r="I723" t="s">
         <v>374</v>
@@ -40809,10 +40809,10 @@
         <v>2171</v>
       </c>
       <c r="K723" t="s">
+        <v>4895</v>
+      </c>
+      <c r="L723" t="s">
         <v>4896</v>
-      </c>
-      <c r="L723" t="s">
-        <v>4897</v>
       </c>
       <c r="M723" t="s">
         <v>24</v>
@@ -40823,16 +40823,16 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
+        <v>4897</v>
+      </c>
+      <c r="E724" t="s">
         <v>4898</v>
       </c>
-      <c r="E724" t="s">
+      <c r="F724" t="s">
         <v>4899</v>
       </c>
-      <c r="F724" t="s">
+      <c r="H724" t="s">
         <v>4900</v>
-      </c>
-      <c r="H724" t="s">
-        <v>4901</v>
       </c>
       <c r="I724" t="s">
         <v>286</v>
@@ -40841,10 +40841,10 @@
         <v>31</v>
       </c>
       <c r="K724" t="s">
+        <v>4901</v>
+      </c>
+      <c r="L724" t="s">
         <v>4902</v>
-      </c>
-      <c r="L724" t="s">
-        <v>4903</v>
       </c>
       <c r="M724" t="s">
         <v>34</v>
@@ -40855,22 +40855,22 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C725" t="s">
         <v>4904</v>
       </c>
-      <c r="C725" t="s">
+      <c r="D725" t="s">
         <v>4905</v>
       </c>
-      <c r="D725" t="s">
+      <c r="E725" t="s">
         <v>4906</v>
       </c>
-      <c r="E725" t="s">
+      <c r="F725" t="s">
         <v>4907</v>
       </c>
-      <c r="F725" t="s">
+      <c r="H725" t="s">
         <v>4908</v>
-      </c>
-      <c r="H725" t="s">
-        <v>4909</v>
       </c>
       <c r="I725" t="s">
         <v>91</v>
@@ -40879,10 +40879,10 @@
         <v>91</v>
       </c>
       <c r="K725" t="s">
+        <v>4909</v>
+      </c>
+      <c r="L725" t="s">
         <v>4910</v>
-      </c>
-      <c r="L725" t="s">
-        <v>4911</v>
       </c>
       <c r="M725" t="s">
         <v>24</v>
@@ -40893,13 +40893,13 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
+        <v>4911</v>
+      </c>
+      <c r="E726" t="s">
         <v>4912</v>
       </c>
-      <c r="E726" t="s">
+      <c r="F726" t="s">
         <v>4913</v>
-      </c>
-      <c r="F726" t="s">
-        <v>4914</v>
       </c>
       <c r="H726" t="s">
         <v>30</v>
@@ -40911,10 +40911,10 @@
         <v>31</v>
       </c>
       <c r="K726" t="s">
+        <v>4914</v>
+      </c>
+      <c r="L726" t="s">
         <v>4915</v>
-      </c>
-      <c r="L726" t="s">
-        <v>4916</v>
       </c>
       <c r="M726" t="s">
         <v>34</v>
@@ -40925,16 +40925,16 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
+        <v>4916</v>
+      </c>
+      <c r="E727" t="s">
         <v>4917</v>
       </c>
-      <c r="E727" t="s">
+      <c r="F727" t="s">
         <v>4918</v>
       </c>
-      <c r="F727" t="s">
+      <c r="H727" t="s">
         <v>4919</v>
-      </c>
-      <c r="H727" t="s">
-        <v>4920</v>
       </c>
       <c r="I727" t="s">
         <v>591</v>
@@ -40943,10 +40943,10 @@
         <v>65</v>
       </c>
       <c r="K727" t="s">
+        <v>4920</v>
+      </c>
+      <c r="L727" t="s">
         <v>4921</v>
-      </c>
-      <c r="L727" t="s">
-        <v>4922</v>
       </c>
     </row>
     <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -40954,16 +40954,16 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E728" t="s">
         <v>4923</v>
       </c>
-      <c r="E728" t="s">
+      <c r="F728" t="s">
         <v>4924</v>
       </c>
-      <c r="F728" t="s">
+      <c r="H728" t="s">
         <v>4925</v>
-      </c>
-      <c r="H728" t="s">
-        <v>4926</v>
       </c>
       <c r="I728" t="s">
         <v>320</v>
@@ -40972,10 +40972,10 @@
         <v>31</v>
       </c>
       <c r="K728" t="s">
+        <v>4926</v>
+      </c>
+      <c r="L728" t="s">
         <v>4927</v>
-      </c>
-      <c r="L728" t="s">
-        <v>4928</v>
       </c>
       <c r="M728" t="s">
         <v>34</v>
@@ -40986,16 +40986,16 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
+        <v>4928</v>
+      </c>
+      <c r="E729" t="s">
         <v>4929</v>
       </c>
-      <c r="E729" t="s">
+      <c r="F729" t="s">
         <v>4930</v>
       </c>
-      <c r="F729" t="s">
+      <c r="H729" t="s">
         <v>4931</v>
-      </c>
-      <c r="H729" t="s">
-        <v>4932</v>
       </c>
       <c r="I729" t="s">
         <v>55</v>
@@ -41004,10 +41004,10 @@
         <v>56</v>
       </c>
       <c r="K729" t="s">
+        <v>4932</v>
+      </c>
+      <c r="L729" t="s">
         <v>4933</v>
-      </c>
-      <c r="L729" t="s">
-        <v>4934</v>
       </c>
       <c r="M729" t="s">
         <v>34</v>
@@ -41018,19 +41018,19 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
+        <v>4934</v>
+      </c>
+      <c r="D730" t="s">
         <v>4935</v>
       </c>
-      <c r="D730" t="s">
+      <c r="E730" t="s">
         <v>4936</v>
       </c>
-      <c r="E730" t="s">
+      <c r="F730" t="s">
         <v>4937</v>
       </c>
-      <c r="F730" t="s">
+      <c r="H730" t="s">
         <v>4938</v>
-      </c>
-      <c r="H730" t="s">
-        <v>4939</v>
       </c>
       <c r="I730" t="s">
         <v>304</v>
@@ -41039,10 +41039,10 @@
         <v>41</v>
       </c>
       <c r="K730" t="s">
+        <v>4939</v>
+      </c>
+      <c r="L730" t="s">
         <v>4940</v>
-      </c>
-      <c r="L730" t="s">
-        <v>4941</v>
       </c>
     </row>
     <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41050,13 +41050,13 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
+        <v>4941</v>
+      </c>
+      <c r="C731" t="s">
         <v>4942</v>
       </c>
-      <c r="C731" t="s">
+      <c r="D731" t="s">
         <v>4943</v>
-      </c>
-      <c r="D731" t="s">
-        <v>4944</v>
       </c>
       <c r="E731" t="s">
         <v>3741</v>
@@ -41065,13 +41065,13 @@
         <v>3742</v>
       </c>
       <c r="H731" t="s">
+        <v>4944</v>
+      </c>
+      <c r="K731" t="s">
         <v>4945</v>
       </c>
-      <c r="K731" t="s">
+      <c r="L731" t="s">
         <v>4946</v>
-      </c>
-      <c r="L731" t="s">
-        <v>4947</v>
       </c>
       <c r="M731" t="s">
         <v>24</v>
@@ -41082,16 +41082,16 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
+        <v>4947</v>
+      </c>
+      <c r="D732" t="s">
         <v>4948</v>
       </c>
-      <c r="D732" t="s">
+      <c r="E732" t="s">
         <v>4949</v>
       </c>
-      <c r="E732" t="s">
+      <c r="F732" t="s">
         <v>4950</v>
-      </c>
-      <c r="F732" t="s">
-        <v>4951</v>
       </c>
       <c r="H732" t="s">
         <v>4068</v>
@@ -41103,10 +41103,10 @@
         <v>279</v>
       </c>
       <c r="K732" t="s">
+        <v>4951</v>
+      </c>
+      <c r="L732" t="s">
         <v>4952</v>
-      </c>
-      <c r="L732" t="s">
-        <v>4953</v>
       </c>
     </row>
     <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41114,19 +41114,19 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
+        <v>4953</v>
+      </c>
+      <c r="D733" t="s">
         <v>4954</v>
       </c>
-      <c r="D733" t="s">
+      <c r="E733" t="s">
         <v>4955</v>
       </c>
-      <c r="E733" t="s">
+      <c r="F733" t="s">
         <v>4956</v>
       </c>
-      <c r="F733" t="s">
+      <c r="H733" t="s">
         <v>4957</v>
-      </c>
-      <c r="H733" t="s">
-        <v>4958</v>
       </c>
       <c r="I733" t="s">
         <v>345</v>
@@ -41135,10 +41135,10 @@
         <v>21</v>
       </c>
       <c r="K733" t="s">
+        <v>4958</v>
+      </c>
+      <c r="L733" t="s">
         <v>4959</v>
-      </c>
-      <c r="L733" t="s">
-        <v>4960</v>
       </c>
     </row>
     <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41146,16 +41146,16 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D734" t="s">
         <v>4961</v>
       </c>
-      <c r="D734" t="s">
+      <c r="E734" t="s">
         <v>4962</v>
       </c>
-      <c r="E734" t="s">
+      <c r="F734" t="s">
         <v>4963</v>
-      </c>
-      <c r="F734" t="s">
-        <v>4964</v>
       </c>
       <c r="H734" t="s">
         <v>200</v>
@@ -41167,10 +41167,10 @@
         <v>202</v>
       </c>
       <c r="K734" t="s">
+        <v>4964</v>
+      </c>
+      <c r="L734" t="s">
         <v>4965</v>
-      </c>
-      <c r="L734" t="s">
-        <v>4966</v>
       </c>
     </row>
     <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41178,16 +41178,16 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E735" t="s">
         <v>4967</v>
       </c>
-      <c r="E735" t="s">
+      <c r="F735" t="s">
         <v>4968</v>
       </c>
-      <c r="F735" t="s">
+      <c r="H735" t="s">
         <v>4969</v>
-      </c>
-      <c r="H735" t="s">
-        <v>4970</v>
       </c>
       <c r="I735" t="s">
         <v>135</v>
@@ -41196,10 +41196,10 @@
         <v>56</v>
       </c>
       <c r="K735" t="s">
+        <v>4970</v>
+      </c>
+      <c r="L735" t="s">
         <v>4971</v>
-      </c>
-      <c r="L735" t="s">
-        <v>4972</v>
       </c>
       <c r="M735" t="s">
         <v>34</v>
@@ -41210,13 +41210,13 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
+        <v>4972</v>
+      </c>
+      <c r="E736" t="s">
         <v>4973</v>
       </c>
-      <c r="E736" t="s">
+      <c r="F736" t="s">
         <v>4974</v>
-      </c>
-      <c r="F736" t="s">
-        <v>4975</v>
       </c>
       <c r="H736" t="s">
         <v>135</v>
@@ -41228,10 +41228,10 @@
         <v>56</v>
       </c>
       <c r="K736" t="s">
+        <v>4975</v>
+      </c>
+      <c r="L736" t="s">
         <v>4976</v>
-      </c>
-      <c r="L736" t="s">
-        <v>4977</v>
       </c>
       <c r="M736" t="s">
         <v>34</v>
@@ -41242,19 +41242,19 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
+        <v>4977</v>
+      </c>
+      <c r="D737" t="s">
         <v>4978</v>
       </c>
-      <c r="D737" t="s">
+      <c r="E737" t="s">
         <v>4979</v>
       </c>
-      <c r="E737" t="s">
+      <c r="F737" t="s">
         <v>4980</v>
       </c>
-      <c r="F737" t="s">
+      <c r="H737" t="s">
         <v>4981</v>
-      </c>
-      <c r="H737" t="s">
-        <v>4982</v>
       </c>
       <c r="I737" t="s">
         <v>251</v>
@@ -41263,10 +41263,10 @@
         <v>41</v>
       </c>
       <c r="K737" t="s">
+        <v>4982</v>
+      </c>
+      <c r="L737" t="s">
         <v>4983</v>
-      </c>
-      <c r="L737" t="s">
-        <v>4984</v>
       </c>
     </row>
     <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41274,19 +41274,19 @@
         <v>737</v>
       </c>
       <c r="B738" t="s">
+        <v>4984</v>
+      </c>
+      <c r="D738" t="s">
         <v>4985</v>
       </c>
-      <c r="D738" t="s">
+      <c r="E738" t="s">
         <v>4986</v>
       </c>
-      <c r="E738" t="s">
+      <c r="F738" t="s">
         <v>4987</v>
       </c>
-      <c r="F738" t="s">
+      <c r="H738" t="s">
         <v>4988</v>
-      </c>
-      <c r="H738" t="s">
-        <v>4989</v>
       </c>
       <c r="I738" t="s">
         <v>64</v>
@@ -41295,10 +41295,10 @@
         <v>65</v>
       </c>
       <c r="K738" t="s">
+        <v>4989</v>
+      </c>
+      <c r="L738" t="s">
         <v>4990</v>
-      </c>
-      <c r="L738" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41306,16 +41306,16 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
+        <v>4991</v>
+      </c>
+      <c r="E739" t="s">
         <v>4992</v>
       </c>
-      <c r="E739" t="s">
+      <c r="F739" t="s">
         <v>4993</v>
       </c>
-      <c r="F739" t="s">
+      <c r="H739" t="s">
         <v>4994</v>
-      </c>
-      <c r="H739" t="s">
-        <v>4995</v>
       </c>
       <c r="I739" t="s">
         <v>135</v>
@@ -41324,10 +41324,10 @@
         <v>56</v>
       </c>
       <c r="K739" t="s">
+        <v>4995</v>
+      </c>
+      <c r="L739" t="s">
         <v>4996</v>
-      </c>
-      <c r="L739" t="s">
-        <v>4997</v>
       </c>
       <c r="M739" t="s">
         <v>34</v>
@@ -41338,13 +41338,13 @@
         <v>739</v>
       </c>
       <c r="B740" t="s">
+        <v>4997</v>
+      </c>
+      <c r="E740" t="s">
         <v>4998</v>
       </c>
-      <c r="E740" t="s">
+      <c r="F740" t="s">
         <v>4999</v>
-      </c>
-      <c r="F740" t="s">
-        <v>5000</v>
       </c>
       <c r="H740" t="s">
         <v>115</v>
@@ -41356,10 +41356,10 @@
         <v>31</v>
       </c>
       <c r="K740" t="s">
+        <v>5000</v>
+      </c>
+      <c r="L740" t="s">
         <v>5001</v>
-      </c>
-      <c r="L740" t="s">
-        <v>5002</v>
       </c>
       <c r="M740" t="s">
         <v>34</v>
@@ -41370,16 +41370,16 @@
         <v>740</v>
       </c>
       <c r="B741" t="s">
+        <v>5002</v>
+      </c>
+      <c r="D741" t="s">
         <v>5003</v>
       </c>
-      <c r="D741" t="s">
+      <c r="E741" t="s">
         <v>5004</v>
       </c>
-      <c r="E741" t="s">
+      <c r="F741" t="s">
         <v>5005</v>
-      </c>
-      <c r="F741" t="s">
-        <v>5006</v>
       </c>
       <c r="H741" t="s">
         <v>201</v>
@@ -41391,10 +41391,10 @@
         <v>202</v>
       </c>
       <c r="K741" t="s">
+        <v>5006</v>
+      </c>
+      <c r="L741" t="s">
         <v>5007</v>
-      </c>
-      <c r="L741" t="s">
-        <v>5008</v>
       </c>
       <c r="M741" t="s">
         <v>34</v>
@@ -41405,19 +41405,19 @@
         <v>741</v>
       </c>
       <c r="B742" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D742" t="s">
         <v>5009</v>
       </c>
-      <c r="D742" t="s">
+      <c r="E742" t="s">
         <v>5010</v>
       </c>
-      <c r="E742" t="s">
+      <c r="F742" t="s">
         <v>5011</v>
       </c>
-      <c r="F742" t="s">
+      <c r="H742" t="s">
         <v>5012</v>
-      </c>
-      <c r="H742" t="s">
-        <v>5013</v>
       </c>
       <c r="I742" t="s">
         <v>286</v>
@@ -41426,10 +41426,10 @@
         <v>31</v>
       </c>
       <c r="K742" t="s">
+        <v>5013</v>
+      </c>
+      <c r="L742" t="s">
         <v>5014</v>
-      </c>
-      <c r="L742" t="s">
-        <v>5015</v>
       </c>
     </row>
     <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41437,16 +41437,16 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
+        <v>5015</v>
+      </c>
+      <c r="E743" t="s">
         <v>5016</v>
       </c>
-      <c r="E743" t="s">
+      <c r="F743" t="s">
         <v>5017</v>
       </c>
-      <c r="F743" t="s">
+      <c r="H743" t="s">
         <v>5018</v>
-      </c>
-      <c r="H743" t="s">
-        <v>5019</v>
       </c>
       <c r="I743" t="s">
         <v>30</v>
@@ -41455,10 +41455,10 @@
         <v>31</v>
       </c>
       <c r="K743" t="s">
+        <v>5019</v>
+      </c>
+      <c r="L743" t="s">
         <v>5020</v>
-      </c>
-      <c r="L743" t="s">
-        <v>5021</v>
       </c>
       <c r="M743" t="s">
         <v>34</v>
@@ -41469,22 +41469,22 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C744" t="s">
         <v>5022</v>
       </c>
-      <c r="C744" t="s">
+      <c r="D744" t="s">
         <v>5023</v>
       </c>
-      <c r="D744" t="s">
+      <c r="E744" t="s">
         <v>5024</v>
       </c>
-      <c r="E744" t="s">
+      <c r="F744" t="s">
         <v>5025</v>
       </c>
-      <c r="F744" t="s">
+      <c r="H744" t="s">
         <v>5026</v>
-      </c>
-      <c r="H744" t="s">
-        <v>5027</v>
       </c>
       <c r="I744" t="s">
         <v>714</v>
@@ -41493,10 +41493,10 @@
         <v>41</v>
       </c>
       <c r="K744" t="s">
+        <v>5027</v>
+      </c>
+      <c r="L744" t="s">
         <v>5028</v>
-      </c>
-      <c r="L744" t="s">
-        <v>5029</v>
       </c>
       <c r="M744" t="s">
         <v>24</v>
@@ -41507,22 +41507,22 @@
         <v>744</v>
       </c>
       <c r="B745" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C745" t="s">
         <v>5030</v>
       </c>
-      <c r="C745" t="s">
+      <c r="D745" t="s">
         <v>5031</v>
       </c>
-      <c r="D745" t="s">
+      <c r="E745" t="s">
         <v>5032</v>
       </c>
-      <c r="E745" t="s">
+      <c r="F745" t="s">
         <v>5033</v>
       </c>
-      <c r="F745" t="s">
+      <c r="H745" t="s">
         <v>5034</v>
-      </c>
-      <c r="H745" t="s">
-        <v>5035</v>
       </c>
       <c r="I745" t="s">
         <v>714</v>
@@ -41531,10 +41531,10 @@
         <v>41</v>
       </c>
       <c r="K745" t="s">
+        <v>5035</v>
+      </c>
+      <c r="L745" t="s">
         <v>5036</v>
-      </c>
-      <c r="L745" t="s">
-        <v>5037</v>
       </c>
       <c r="M745" t="s">
         <v>24</v>
@@ -41545,16 +41545,16 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
+        <v>5037</v>
+      </c>
+      <c r="D746" t="s">
         <v>5038</v>
       </c>
-      <c r="D746" t="s">
+      <c r="E746" t="s">
         <v>5039</v>
       </c>
-      <c r="E746" t="s">
+      <c r="F746" t="s">
         <v>5040</v>
-      </c>
-      <c r="F746" t="s">
-        <v>5041</v>
       </c>
       <c r="H746" t="s">
         <v>2879</v>
@@ -41566,10 +41566,10 @@
         <v>41</v>
       </c>
       <c r="K746" t="s">
+        <v>5041</v>
+      </c>
+      <c r="L746" t="s">
         <v>5042</v>
-      </c>
-      <c r="L746" t="s">
-        <v>5043</v>
       </c>
     </row>
     <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -41577,19 +41577,19 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
+        <v>5043</v>
+      </c>
+      <c r="E747" t="s">
         <v>5044</v>
       </c>
-      <c r="E747" t="s">
+      <c r="F747" t="s">
         <v>5045</v>
       </c>
-      <c r="F747" t="s">
+      <c r="G747" t="s">
         <v>5046</v>
       </c>
-      <c r="G747" t="s">
+      <c r="H747" t="s">
         <v>5047</v>
-      </c>
-      <c r="H747" t="s">
-        <v>5048</v>
       </c>
       <c r="I747" t="s">
         <v>251</v>
@@ -41598,10 +41598,10 @@
         <v>41</v>
       </c>
       <c r="K747" t="s">
+        <v>5048</v>
+      </c>
+      <c r="L747" t="s">
         <v>5049</v>
-      </c>
-      <c r="L747" t="s">
-        <v>5050</v>
       </c>
       <c r="M747" t="s">
         <v>34</v>
@@ -41612,16 +41612,16 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
+        <v>5050</v>
+      </c>
+      <c r="E748" t="s">
         <v>5051</v>
       </c>
-      <c r="E748" t="s">
+      <c r="F748" t="s">
         <v>5052</v>
       </c>
-      <c r="F748" t="s">
+      <c r="H748" t="s">
         <v>5053</v>
-      </c>
-      <c r="H748" t="s">
-        <v>5054</v>
       </c>
       <c r="I748" t="s">
         <v>30</v>
@@ -41630,7 +41630,7 @@
         <v>31</v>
       </c>
       <c r="L748" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="M748" t="s">
         <v>34</v>
@@ -41641,19 +41641,19 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
+        <v>5055</v>
+      </c>
+      <c r="D749" t="s">
         <v>5056</v>
       </c>
-      <c r="D749" t="s">
+      <c r="E749" t="s">
         <v>5057</v>
       </c>
-      <c r="E749" t="s">
+      <c r="F749" t="s">
         <v>5058</v>
       </c>
-      <c r="F749" t="s">
+      <c r="H749" t="s">
         <v>5059</v>
-      </c>
-      <c r="H749" t="s">
-        <v>5060</v>
       </c>
       <c r="I749" t="s">
         <v>55</v>
@@ -41662,10 +41662,10 @@
         <v>56</v>
       </c>
       <c r="K749" t="s">
+        <v>5060</v>
+      </c>
+      <c r="L749" t="s">
         <v>5061</v>
-      </c>
-      <c r="L749" t="s">
-        <v>5062</v>
       </c>
     </row>
   </sheetData>
@@ -41736,24 +41736,24 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="M1" t="s">
         <v>5063</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5064</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5065</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D2" t="s">
         <v>5066</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5067</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5068</v>
       </c>
       <c r="G2" t="s">
         <v>4250</v>
@@ -41765,24 +41765,24 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K2" t="s">
         <v>5069</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5070</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5071</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D3" t="s">
         <v>5072</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5073</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5074</v>
       </c>
       <c r="G3" t="s">
         <v>2676</v>
@@ -41794,44 +41794,44 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
+        <v>5074</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>5075</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5076</v>
-      </c>
       <c r="L3" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D4" t="s">
         <v>5077</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5078</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>5079</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5080</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C5" t="s">
         <v>5081</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5082</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5083</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>5084</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5085</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
@@ -41840,30 +41840,30 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
+        <v>5085</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>5086</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>5087</v>
-      </c>
       <c r="L5" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C6" t="s">
         <v>5081</v>
       </c>
-      <c r="C6" t="s">
-        <v>5082</v>
-      </c>
       <c r="D6" t="s">
+        <v>5087</v>
+      </c>
+      <c r="E6" t="s">
         <v>5088</v>
       </c>
-      <c r="E6" t="s">
-        <v>5089</v>
-      </c>
       <c r="G6" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="H6" t="s">
         <v>64</v>
@@ -41872,30 +41872,30 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
+        <v>5089</v>
+      </c>
+      <c r="K6" t="s">
         <v>5090</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>5070</v>
+      </c>
+      <c r="N6" t="s">
         <v>5091</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5071</v>
-      </c>
-      <c r="N6" t="s">
-        <v>5092</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5092</v>
+      </c>
+      <c r="D7" t="s">
         <v>5093</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5094</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>5095</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5096</v>
       </c>
       <c r="H7" t="s">
         <v>591</v>
@@ -41904,52 +41904,52 @@
         <v>65</v>
       </c>
       <c r="J7" t="s">
+        <v>5096</v>
+      </c>
+      <c r="K7" t="s">
         <v>5097</v>
       </c>
-      <c r="K7" t="s">
-        <v>5098</v>
-      </c>
       <c r="L7" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D8" t="s">
         <v>5099</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>5100</v>
       </c>
-      <c r="E8" t="s">
-        <v>5101</v>
-      </c>
       <c r="L8" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D9" t="s">
         <v>5102</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>5103</v>
       </c>
-      <c r="E9" t="s">
-        <v>5104</v>
-      </c>
       <c r="L9" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5104</v>
+      </c>
+      <c r="D10" t="s">
         <v>5105</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>5106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5107</v>
       </c>
       <c r="G10" t="s">
         <v>1852</v>
@@ -41961,41 +41961,41 @@
         <v>279</v>
       </c>
       <c r="J10" t="s">
+        <v>5107</v>
+      </c>
+      <c r="K10" t="s">
         <v>5108</v>
       </c>
-      <c r="K10" t="s">
-        <v>5109</v>
-      </c>
       <c r="L10" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5109</v>
+      </c>
+      <c r="D11" t="s">
         <v>5110</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5111</v>
       </c>
-      <c r="E11" t="s">
-        <v>5112</v>
-      </c>
       <c r="L11" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5112</v>
+      </c>
+      <c r="D12" t="s">
         <v>5113</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>5115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5116</v>
       </c>
       <c r="H12" t="s">
         <v>304</v>
@@ -42004,30 +42004,30 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
+        <v>5116</v>
+      </c>
+      <c r="K12" t="s">
         <v>5117</v>
       </c>
-      <c r="K12" t="s">
-        <v>5118</v>
-      </c>
       <c r="L12" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5118</v>
+      </c>
+      <c r="C13" t="s">
         <v>5119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>5120</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>5121</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>5122</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5123</v>
       </c>
       <c r="H13" t="s">
         <v>400</v>
@@ -42036,13 +42036,13 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
+        <v>5123</v>
+      </c>
+      <c r="K13" t="s">
         <v>5124</v>
       </c>
-      <c r="K13" t="s">
-        <v>5125</v>
-      </c>
       <c r="L13" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
   </sheetData>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Miguel-Angel\Code\Python\red_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11D976-C82B-4FEB-8F33-CAA44E52B5F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCDD78-B382-4A2F-8397-D06E014B6753}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17388,9 +17388,9 @@
   <dimension ref="A1:V751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H271" sqref="H271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Miguel-Angel\Code\Python\red_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8B51FF-E5D8-4AAE-B6C6-C3E7C00F0991}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2DBA6-1799-4649-A0C9-2BCC15B7609B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21082,8 +21082,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Artículo en español"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Wikidata ID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Latitud" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Longitud" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Latitud" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Longitud" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localidad"/>
     <tableColumn id="26" xr3:uid="{CC9E75EA-CF64-4C47-ACD0-EA00790A4E72}" name="Localidad ID"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Municipio"/>
@@ -21092,7 +21092,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comunidad autónoma"/>
     <tableColumn id="22" xr3:uid="{71EABA7C-6FD0-4256-8FB1-F6E5FDEAA527}" name="Tipo"/>
     <tableColumn id="19" xr3:uid="{6D0DA6FB-8C61-493E-A0FD-5A70747292AA}" name="Tipo 2"/>
-    <tableColumn id="20" xr3:uid="{C554A925-2031-451F-9465-7536E63979A2}" name="Fecha inclusión" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{C554A925-2031-451F-9465-7536E63979A2}" name="Fecha inclusión" dataDxfId="0"/>
     <tableColumn id="21" xr3:uid="{CC5DF0C4-CC60-4CF3-A502-91D8466D692A}" name="Fecha salida"/>
     <tableColumn id="23" xr3:uid="{60CF273A-FAE2-4647-9CD9-E298738B9BCE}" name="Estatus retirada"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Descripción"/>
@@ -21429,14 +21429,14 @@
   <dimension ref="A1:V755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>

--- a/red2.xlsx
+++ b/red2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11994" uniqueCount="7546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="7548">
   <si>
     <t>Nombre</t>
   </si>
@@ -21695,9 +21695,6 @@
     <t>Q52850706</t>
   </si>
   <si>
-    <t>Q52850831</t>
-  </si>
-  <si>
     <t>Q52850976</t>
   </si>
   <si>
@@ -21725,9 +21722,6 @@
     <t>Q52851773</t>
   </si>
   <si>
-    <t>Q52851881</t>
-  </si>
-  <si>
     <t>Q52851990</t>
   </si>
   <si>
@@ -22175,9 +22169,6 @@
     <t>Q52861885</t>
   </si>
   <si>
-    <t>Q52861953</t>
-  </si>
-  <si>
     <t>Q52862030</t>
   </si>
   <si>
@@ -22343,15 +22334,9 @@
     <t>Q52865358</t>
   </si>
   <si>
-    <t>Q52865408</t>
-  </si>
-  <si>
     <t>Q52865532</t>
   </si>
   <si>
-    <t>Q52865611</t>
-  </si>
-  <si>
     <t>Q52865706</t>
   </si>
   <si>
@@ -22406,9 +22391,6 @@
     <t>Q52866937</t>
   </si>
   <si>
-    <t>Q52867003</t>
-  </si>
-  <si>
     <t>Q52867082</t>
   </si>
   <si>
@@ -22424,9 +22406,6 @@
     <t>Q52867367</t>
   </si>
   <si>
-    <t>Q52867428</t>
-  </si>
-  <si>
     <t>Q52867501</t>
   </si>
   <si>
@@ -22668,6 +22647,33 @@
   </si>
   <si>
     <t>Q52894696</t>
+  </si>
+  <si>
+    <t>Q43161874</t>
+  </si>
+  <si>
+    <t>Q24538876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castillo de las Cinco Esquinas</t>
+  </si>
+  <si>
+    <t>Q27506915</t>
+  </si>
+  <si>
+    <t>Q11913061</t>
+  </si>
+  <si>
+    <t>Q43114146</t>
+  </si>
+  <si>
+    <t>Q52573044</t>
+  </si>
+  <si>
+    <t>Palacio de los duques de Osuna (Aranjuez)</t>
+  </si>
+  <si>
+    <t>Q43115231</t>
   </si>
 </sst>
 </file>
@@ -23156,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -28533,7 +28539,7 @@
         <v>704</v>
       </c>
       <c r="D105" t="s">
-        <v>7221</v>
+        <v>7539</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>705</v>
@@ -29018,7 +29024,7 @@
         <v>3120</v>
       </c>
       <c r="D114" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>3121</v>
@@ -29333,7 +29339,7 @@
         <v>808</v>
       </c>
       <c r="D120" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>809</v>
@@ -29387,7 +29393,7 @@
         <v>816</v>
       </c>
       <c r="D121" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>817</v>
@@ -29959,7 +29965,7 @@
         <v>2672</v>
       </c>
       <c r="D132" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>2673</v>
@@ -30013,7 +30019,7 @@
         <v>897</v>
       </c>
       <c r="D133" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>898</v>
@@ -30120,7 +30126,7 @@
         <v>1217</v>
       </c>
       <c r="D135" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>1218</v>
@@ -30429,7 +30435,7 @@
         <v>1920</v>
       </c>
       <c r="D141" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>1921</v>
@@ -30687,7 +30693,7 @@
         <v>3090</v>
       </c>
       <c r="D146" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>3091</v>
@@ -30741,7 +30747,7 @@
         <v>1394</v>
       </c>
       <c r="D147" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>1395</v>
@@ -32311,8 +32317,11 @@
       <c r="B176" t="s">
         <v>953</v>
       </c>
+      <c r="C176" t="s">
+        <v>7541</v>
+      </c>
       <c r="D176" t="s">
-        <v>7231</v>
+        <v>7540</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>954</v>
@@ -32482,7 +32491,7 @@
         <v>7064</v>
       </c>
       <c r="D179" t="s">
-        <v>7232</v>
+        <v>7230</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>1547</v>
@@ -32799,7 +32808,7 @@
         <v>3134</v>
       </c>
       <c r="D185" t="s">
-        <v>7233</v>
+        <v>7231</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>3135</v>
@@ -32850,7 +32859,7 @@
         <v>1265</v>
       </c>
       <c r="D186" t="s">
-        <v>7234</v>
+        <v>7232</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>1266</v>
@@ -33011,7 +33020,7 @@
         <v>1594</v>
       </c>
       <c r="D189" t="s">
-        <v>7235</v>
+        <v>7233</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>1595</v>
@@ -33353,7 +33362,7 @@
         <v>3096</v>
       </c>
       <c r="D195" t="s">
-        <v>7236</v>
+        <v>7234</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>3097</v>
@@ -33455,7 +33464,7 @@
         <v>4231</v>
       </c>
       <c r="D197" t="s">
-        <v>7237</v>
+        <v>7235</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>4232</v>
@@ -33515,7 +33524,7 @@
         <v>4770</v>
       </c>
       <c r="D198" t="s">
-        <v>7238</v>
+        <v>7236</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>4771</v>
@@ -33563,7 +33572,7 @@
         <v>4304</v>
       </c>
       <c r="D199" t="s">
-        <v>7239</v>
+        <v>7237</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>4305</v>
@@ -33779,7 +33788,7 @@
         <v>2800</v>
       </c>
       <c r="D203" t="s">
-        <v>7240</v>
+        <v>7238</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>2801</v>
@@ -33886,7 +33895,7 @@
         <v>7130</v>
       </c>
       <c r="D205" t="s">
-        <v>7241</v>
+        <v>7239</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>4208</v>
@@ -34104,7 +34113,7 @@
         <v>400</v>
       </c>
       <c r="D209" t="s">
-        <v>7242</v>
+        <v>7240</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>401</v>
@@ -34152,7 +34161,7 @@
         <v>1416</v>
       </c>
       <c r="D210" t="s">
-        <v>7243</v>
+        <v>7241</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>1417</v>
@@ -34197,7 +34206,7 @@
         <v>2381</v>
       </c>
       <c r="D211" t="s">
-        <v>7244</v>
+        <v>7242</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>2382</v>
@@ -34353,7 +34362,7 @@
         <v>1457</v>
       </c>
       <c r="D214" t="s">
-        <v>7245</v>
+        <v>7243</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>1458</v>
@@ -34401,7 +34410,7 @@
         <v>1463</v>
       </c>
       <c r="D215" t="s">
-        <v>7246</v>
+        <v>7244</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>1465</v>
@@ -34449,7 +34458,7 @@
         <v>1939</v>
       </c>
       <c r="D216" t="s">
-        <v>7247</v>
+        <v>7245</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>1940</v>
@@ -34494,7 +34503,7 @@
         <v>4916</v>
       </c>
       <c r="D217" t="s">
-        <v>7248</v>
+        <v>7246</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>4917</v>
@@ -34601,7 +34610,7 @@
         <v>4752</v>
       </c>
       <c r="D219" t="s">
-        <v>7249</v>
+        <v>7247</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>4753</v>
@@ -34799,7 +34808,7 @@
         <v>1339</v>
       </c>
       <c r="D223" t="s">
-        <v>7250</v>
+        <v>7248</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>1340</v>
@@ -34963,7 +34972,7 @@
         <v>475</v>
       </c>
       <c r="D226" t="s">
-        <v>7251</v>
+        <v>7249</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>476</v>
@@ -35011,7 +35020,7 @@
         <v>910</v>
       </c>
       <c r="D227" t="s">
-        <v>7252</v>
+        <v>7250</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>911</v>
@@ -35068,7 +35077,7 @@
         <v>7065</v>
       </c>
       <c r="D228" t="s">
-        <v>7253</v>
+        <v>7251</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>421</v>
@@ -35116,7 +35125,7 @@
         <v>1070</v>
       </c>
       <c r="D229" t="s">
-        <v>7254</v>
+        <v>7252</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>1071</v>
@@ -35218,7 +35227,7 @@
         <v>1491</v>
       </c>
       <c r="D231" t="s">
-        <v>7255</v>
+        <v>7253</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>1492</v>
@@ -35314,7 +35323,7 @@
         <v>1589</v>
       </c>
       <c r="D233" t="s">
-        <v>7256</v>
+        <v>7254</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>1590</v>
@@ -35362,7 +35371,7 @@
         <v>2569</v>
       </c>
       <c r="D234" t="s">
-        <v>7257</v>
+        <v>7255</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>2570</v>
@@ -35515,7 +35524,7 @@
         <v>5590</v>
       </c>
       <c r="D237" t="s">
-        <v>7258</v>
+        <v>7256</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>2998</v>
@@ -35572,7 +35581,7 @@
         <v>1618</v>
       </c>
       <c r="D238" t="s">
-        <v>7259</v>
+        <v>7257</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>1619</v>
@@ -35625,7 +35634,7 @@
         <v>1625</v>
       </c>
       <c r="D239" t="s">
-        <v>7260</v>
+        <v>7258</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>1626</v>
@@ -35732,7 +35741,7 @@
         <v>1672</v>
       </c>
       <c r="D241" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>1673</v>
@@ -35780,7 +35789,7 @@
         <v>3359</v>
       </c>
       <c r="D242" t="s">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>3360</v>
@@ -35885,7 +35894,7 @@
         <v>7066</v>
       </c>
       <c r="D244" t="s">
-        <v>7263</v>
+        <v>7261</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>2857</v>
@@ -35989,7 +35998,7 @@
         <v>2214</v>
       </c>
       <c r="D246" t="s">
-        <v>7264</v>
+        <v>7262</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>2215</v>
@@ -36043,7 +36052,7 @@
         <v>7067</v>
       </c>
       <c r="D247" t="s">
-        <v>7265</v>
+        <v>7263</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>1560</v>
@@ -36091,7 +36100,7 @@
         <v>2208</v>
       </c>
       <c r="D248" t="s">
-        <v>7266</v>
+        <v>7264</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>2209</v>
@@ -36139,7 +36148,7 @@
         <v>2946</v>
       </c>
       <c r="D249" t="s">
-        <v>7267</v>
+        <v>7265</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>2947</v>
@@ -36190,7 +36199,7 @@
         <v>1694</v>
       </c>
       <c r="D250" t="s">
-        <v>7268</v>
+        <v>7266</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>1695</v>
@@ -36352,7 +36361,7 @@
         <v>2400</v>
       </c>
       <c r="D253" t="s">
-        <v>7269</v>
+        <v>7267</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>2401</v>
@@ -36403,7 +36412,7 @@
         <v>7068</v>
       </c>
       <c r="D254" t="s">
-        <v>7270</v>
+        <v>7268</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>4294</v>
@@ -36451,7 +36460,7 @@
         <v>3252</v>
       </c>
       <c r="D255" t="s">
-        <v>7271</v>
+        <v>7269</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>3253</v>
@@ -36505,7 +36514,7 @@
         <v>1735</v>
       </c>
       <c r="D256" t="s">
-        <v>7272</v>
+        <v>7270</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>1736</v>
@@ -36678,7 +36687,7 @@
         <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>7273</v>
+        <v>7271</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>273</v>
@@ -36726,7 +36735,7 @@
         <v>3474</v>
       </c>
       <c r="D260" t="s">
-        <v>7274</v>
+        <v>7272</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>3475</v>
@@ -36777,7 +36786,7 @@
         <v>2351</v>
       </c>
       <c r="D261" t="s">
-        <v>7275</v>
+        <v>7273</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>2352</v>
@@ -36828,7 +36837,7 @@
         <v>3650</v>
       </c>
       <c r="D262" t="s">
-        <v>7276</v>
+        <v>7274</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>3651</v>
@@ -36980,7 +36989,7 @@
         <v>1797</v>
       </c>
       <c r="D265" t="s">
-        <v>7277</v>
+        <v>7275</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>1798</v>
@@ -37093,7 +37102,7 @@
         <v>4317</v>
       </c>
       <c r="D267" t="s">
-        <v>7278</v>
+        <v>7276</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>4318</v>
@@ -37138,7 +37147,7 @@
         <v>4328</v>
       </c>
       <c r="D268" t="s">
-        <v>7279</v>
+        <v>7277</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>4329</v>
@@ -37186,7 +37195,7 @@
         <v>1824</v>
       </c>
       <c r="D269" t="s">
-        <v>7280</v>
+        <v>7278</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>1825</v>
@@ -37231,7 +37240,7 @@
         <v>3780</v>
       </c>
       <c r="D270" t="s">
-        <v>7281</v>
+        <v>7279</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>3781</v>
@@ -37347,7 +37356,7 @@
         <v>7163</v>
       </c>
       <c r="D272" t="s">
-        <v>7282</v>
+        <v>7280</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>1844</v>
@@ -37401,7 +37410,7 @@
         <v>4213</v>
       </c>
       <c r="D273" t="s">
-        <v>7283</v>
+        <v>7281</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>4214</v>
@@ -37509,7 +37518,7 @@
         <v>7135</v>
       </c>
       <c r="D275" t="s">
-        <v>7284</v>
+        <v>7282</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>2585</v>
@@ -37800,7 +37809,7 @@
         <v>1894</v>
       </c>
       <c r="D280" t="s">
-        <v>7285</v>
+        <v>7283</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>1895</v>
@@ -37848,7 +37857,7 @@
         <v>1471</v>
       </c>
       <c r="D281" t="s">
-        <v>7286</v>
+        <v>7284</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>1472</v>
@@ -37899,7 +37908,7 @@
         <v>7069</v>
       </c>
       <c r="D282" t="s">
-        <v>7287</v>
+        <v>7285</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>1554</v>
@@ -38013,7 +38022,7 @@
         <v>2716</v>
       </c>
       <c r="D284" t="s">
-        <v>7288</v>
+        <v>7286</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>2717</v>
@@ -38061,7 +38070,7 @@
         <v>5592</v>
       </c>
       <c r="D285" t="s">
-        <v>7289</v>
+        <v>7287</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>4275</v>
@@ -38228,7 +38237,7 @@
         <v>5588</v>
       </c>
       <c r="D288" t="s">
-        <v>7290</v>
+        <v>7288</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>1440</v>
@@ -38276,7 +38285,7 @@
         <v>2186</v>
       </c>
       <c r="D289" t="s">
-        <v>7291</v>
+        <v>7289</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>2187</v>
@@ -38387,7 +38396,7 @@
         <v>668</v>
       </c>
       <c r="D291" t="s">
-        <v>7292</v>
+        <v>7290</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>669</v>
@@ -38435,7 +38444,7 @@
         <v>3165</v>
       </c>
       <c r="D292" t="s">
-        <v>7293</v>
+        <v>7291</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>3166</v>
@@ -38494,7 +38503,7 @@
         <v>3109</v>
       </c>
       <c r="D293" t="s">
-        <v>7294</v>
+        <v>7292</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>3110</v>
@@ -38548,7 +38557,7 @@
         <v>6767</v>
       </c>
       <c r="D294" t="s">
-        <v>7295</v>
+        <v>7293</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>3661</v>
@@ -38602,7 +38611,7 @@
         <v>2124</v>
       </c>
       <c r="D295" t="s">
-        <v>7296</v>
+        <v>7294</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>2125</v>
@@ -38655,7 +38664,7 @@
         <v>1999</v>
       </c>
       <c r="D296" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>2000</v>
@@ -38703,7 +38712,7 @@
         <v>426</v>
       </c>
       <c r="D297" t="s">
-        <v>7298</v>
+        <v>7296</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>427</v>
@@ -38768,7 +38777,7 @@
         <v>7070</v>
       </c>
       <c r="D298" t="s">
-        <v>7299</v>
+        <v>7297</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>2013</v>
@@ -38816,7 +38825,7 @@
         <v>2527</v>
       </c>
       <c r="D299" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>2528</v>
@@ -38864,7 +38873,7 @@
         <v>1644</v>
       </c>
       <c r="D300" t="s">
-        <v>7301</v>
+        <v>7299</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>1645</v>
@@ -38912,7 +38921,7 @@
         <v>2813</v>
       </c>
       <c r="D301" t="s">
-        <v>7302</v>
+        <v>7300</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>2814</v>
@@ -39029,7 +39038,7 @@
         <v>7071</v>
       </c>
       <c r="D303" t="s">
-        <v>7303</v>
+        <v>7301</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>2045</v>
@@ -39086,7 +39095,7 @@
         <v>7072</v>
       </c>
       <c r="D304" t="s">
-        <v>7304</v>
+        <v>7302</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>2878</v>
@@ -39140,7 +39149,7 @@
         <v>1951</v>
       </c>
       <c r="D305" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>1952</v>
@@ -39196,7 +39205,7 @@
         <v>2710</v>
       </c>
       <c r="D306" t="s">
-        <v>7306</v>
+        <v>7304</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>2711</v>
@@ -39298,7 +39307,7 @@
         <v>4587</v>
       </c>
       <c r="D308" t="s">
-        <v>7307</v>
+        <v>7305</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>4588</v>
@@ -39412,7 +39421,7 @@
         <v>2602</v>
       </c>
       <c r="D310" t="s">
-        <v>7308</v>
+        <v>7306</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>2603</v>
@@ -39582,7 +39591,7 @@
         <v>7073</v>
       </c>
       <c r="D313" t="s">
-        <v>7309</v>
+        <v>7307</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>3155</v>
@@ -39636,7 +39645,7 @@
         <v>2116</v>
       </c>
       <c r="D314" t="s">
-        <v>7310</v>
+        <v>7308</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>2117</v>
@@ -39690,7 +39699,7 @@
         <v>990</v>
       </c>
       <c r="D315" t="s">
-        <v>7311</v>
+        <v>7309</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>991</v>
@@ -39741,7 +39750,7 @@
         <v>7074</v>
       </c>
       <c r="D316" t="s">
-        <v>7312</v>
+        <v>7310</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>2131</v>
@@ -39792,7 +39801,7 @@
         <v>7075</v>
       </c>
       <c r="D317" t="s">
-        <v>7313</v>
+        <v>7311</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>2162</v>
@@ -39894,7 +39903,7 @@
         <v>3941</v>
       </c>
       <c r="D319" t="s">
-        <v>7314</v>
+        <v>7312</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>3942</v>
@@ -39942,7 +39951,7 @@
         <v>4650</v>
       </c>
       <c r="D320" t="s">
-        <v>7315</v>
+        <v>7313</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>4651</v>
@@ -40002,7 +40011,7 @@
         <v>3732</v>
       </c>
       <c r="D321" t="s">
-        <v>7316</v>
+        <v>7314</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>3733</v>
@@ -40056,7 +40065,7 @@
         <v>3698</v>
       </c>
       <c r="D322" t="s">
-        <v>7317</v>
+        <v>7315</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>3661</v>
@@ -40110,7 +40119,7 @@
         <v>2540</v>
       </c>
       <c r="D323" t="s">
-        <v>7318</v>
+        <v>7316</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>2541</v>
@@ -40212,7 +40221,7 @@
         <v>446</v>
       </c>
       <c r="D325" t="s">
-        <v>7319</v>
+        <v>7317</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>447</v>
@@ -40260,7 +40269,7 @@
         <v>2031</v>
       </c>
       <c r="D326" t="s">
-        <v>7320</v>
+        <v>7318</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>2032</v>
@@ -40311,7 +40320,7 @@
         <v>7077</v>
       </c>
       <c r="D327" t="s">
-        <v>7321</v>
+        <v>7319</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>2073</v>
@@ -40362,7 +40371,7 @@
         <v>7078</v>
       </c>
       <c r="D328" t="s">
-        <v>7322</v>
+        <v>7320</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>342</v>
@@ -40410,7 +40419,7 @@
         <v>4801</v>
       </c>
       <c r="D329" t="s">
-        <v>7323</v>
+        <v>7321</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>4802</v>
@@ -40571,7 +40580,7 @@
         <v>2065</v>
       </c>
       <c r="D332" t="s">
-        <v>7324</v>
+        <v>7322</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>2066</v>
@@ -40625,7 +40634,7 @@
         <v>7079</v>
       </c>
       <c r="D333" t="s">
-        <v>7325</v>
+        <v>7323</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>2006</v>
@@ -40684,7 +40693,7 @@
         <v>7080</v>
       </c>
       <c r="D334" t="s">
-        <v>7326</v>
+        <v>7324</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>6781</v>
@@ -40907,7 +40916,7 @@
         <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>7327</v>
+        <v>7325</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>488</v>
@@ -41015,7 +41024,7 @@
         <v>2283</v>
       </c>
       <c r="D340" t="s">
-        <v>7328</v>
+        <v>7326</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>2284</v>
@@ -41219,7 +41228,7 @@
         <v>7081</v>
       </c>
       <c r="D344" t="s">
-        <v>7329</v>
+        <v>7327</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>3141</v>
@@ -41327,7 +41336,7 @@
         <v>569</v>
       </c>
       <c r="D346" t="s">
-        <v>7330</v>
+        <v>7328</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>570</v>
@@ -41429,7 +41438,7 @@
         <v>2364</v>
       </c>
       <c r="D348" t="s">
-        <v>7331</v>
+        <v>7329</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>2365</v>
@@ -41585,7 +41594,7 @@
         <v>1571</v>
       </c>
       <c r="D351" t="s">
-        <v>7332</v>
+        <v>7330</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>1572</v>
@@ -41633,7 +41642,7 @@
         <v>1677</v>
       </c>
       <c r="D352" t="s">
-        <v>7333</v>
+        <v>7331</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>1678</v>
@@ -41681,7 +41690,7 @@
         <v>2914</v>
       </c>
       <c r="D353" t="s">
-        <v>7334</v>
+        <v>7332</v>
       </c>
       <c r="E353" s="5" t="s">
         <v>2915</v>
@@ -41729,7 +41738,7 @@
         <v>4888</v>
       </c>
       <c r="D354" t="s">
-        <v>7335</v>
+        <v>7333</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>4889</v>
@@ -41946,7 +41955,7 @@
         <v>258</v>
       </c>
       <c r="D358" t="s">
-        <v>7336</v>
+        <v>7334</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>259</v>
@@ -41994,7 +42003,7 @@
         <v>2406</v>
       </c>
       <c r="D359" t="s">
-        <v>7337</v>
+        <v>7335</v>
       </c>
       <c r="E359" s="5" t="s">
         <v>2407</v>
@@ -42039,7 +42048,7 @@
         <v>2412</v>
       </c>
       <c r="D360" t="s">
-        <v>7338</v>
+        <v>7336</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>2413</v>
@@ -42087,7 +42096,7 @@
         <v>2418</v>
       </c>
       <c r="D361" t="s">
-        <v>7339</v>
+        <v>7337</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>2419</v>
@@ -42185,7 +42194,7 @@
         <v>2423</v>
       </c>
       <c r="D363" t="s">
-        <v>7340</v>
+        <v>7338</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>2424</v>
@@ -42284,7 +42293,7 @@
         <v>4864</v>
       </c>
       <c r="D365" t="s">
-        <v>7341</v>
+        <v>7339</v>
       </c>
       <c r="E365" s="5" t="s">
         <v>4865</v>
@@ -42329,7 +42338,7 @@
         <v>3690</v>
       </c>
       <c r="D366" t="s">
-        <v>7342</v>
+        <v>7340</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>3691</v>
@@ -42380,7 +42389,7 @@
         <v>481</v>
       </c>
       <c r="D367" t="s">
-        <v>7343</v>
+        <v>7341</v>
       </c>
       <c r="E367" s="5" t="s">
         <v>482</v>
@@ -42428,7 +42437,7 @@
         <v>2371</v>
       </c>
       <c r="D368" t="s">
-        <v>7344</v>
+        <v>7342</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>2372</v>
@@ -42479,7 +42488,7 @@
         <v>6773</v>
       </c>
       <c r="D369" t="s">
-        <v>7345</v>
+        <v>7343</v>
       </c>
       <c r="E369" s="5" t="s">
         <v>6775</v>
@@ -42523,7 +42532,7 @@
         <v>6768</v>
       </c>
       <c r="D370" t="s">
-        <v>7346</v>
+        <v>7344</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>2807</v>
@@ -42631,7 +42640,7 @@
         <v>2078</v>
       </c>
       <c r="D372" t="s">
-        <v>7347</v>
+        <v>7345</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>2079</v>
@@ -42685,7 +42694,7 @@
         <v>7083</v>
       </c>
       <c r="D373" t="s">
-        <v>7348</v>
+        <v>7346</v>
       </c>
       <c r="E373" s="5" t="s">
         <v>2494</v>
@@ -42745,7 +42754,7 @@
         <v>7082</v>
       </c>
       <c r="D374" t="s">
-        <v>7349</v>
+        <v>7347</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>2090</v>
@@ -42862,7 +42871,7 @@
         <v>7084</v>
       </c>
       <c r="D376" t="s">
-        <v>7350</v>
+        <v>7348</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>2471</v>
@@ -42922,7 +42931,7 @@
         <v>7085</v>
       </c>
       <c r="D377" t="s">
-        <v>7351</v>
+        <v>7349</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>2502</v>
@@ -43035,7 +43044,7 @@
         <v>1583</v>
       </c>
       <c r="D379" t="s">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>1584</v>
@@ -43083,7 +43092,7 @@
         <v>5589</v>
       </c>
       <c r="D380" t="s">
-        <v>7353</v>
+        <v>7351</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>2522</v>
@@ -43134,7 +43143,7 @@
         <v>2962</v>
       </c>
       <c r="D381" t="s">
-        <v>7354</v>
+        <v>7352</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>2963</v>
@@ -43188,7 +43197,7 @@
         <v>2440</v>
       </c>
       <c r="D382" t="s">
-        <v>7355</v>
+        <v>7353</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>2441</v>
@@ -43242,7 +43251,7 @@
         <v>5591</v>
       </c>
       <c r="D383" t="s">
-        <v>7356</v>
+        <v>7354</v>
       </c>
       <c r="E383" s="5" t="s">
         <v>3643</v>
@@ -43362,7 +43371,7 @@
         <v>2563</v>
       </c>
       <c r="D385" t="s">
-        <v>7357</v>
+        <v>7355</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>2564</v>
@@ -43464,7 +43473,7 @@
         <v>3468</v>
       </c>
       <c r="D387" t="s">
-        <v>7358</v>
+        <v>7356</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>3469</v>
@@ -43521,7 +43530,7 @@
         <v>7086</v>
       </c>
       <c r="D388" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>2195</v>
@@ -43578,7 +43587,7 @@
         <v>7087</v>
       </c>
       <c r="D389" t="s">
-        <v>7360</v>
+        <v>7358</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>2581</v>
@@ -43626,7 +43635,7 @@
         <v>1863</v>
       </c>
       <c r="D390" t="s">
-        <v>7361</v>
+        <v>7359</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>1864</v>
@@ -43677,7 +43686,7 @@
         <v>3005</v>
       </c>
       <c r="D391" t="s">
-        <v>7362</v>
+        <v>7360</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>3006</v>
@@ -43728,7 +43737,7 @@
         <v>3005</v>
       </c>
       <c r="D392" t="s">
-        <v>7363</v>
+        <v>7361</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>3178</v>
@@ -43779,7 +43788,7 @@
         <v>2866</v>
       </c>
       <c r="D393" t="s">
-        <v>7364</v>
+        <v>7362</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>2867</v>
@@ -43833,7 +43842,7 @@
         <v>2270</v>
       </c>
       <c r="D394" t="s">
-        <v>7365</v>
+        <v>7363</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>2271</v>
@@ -44060,7 +44069,7 @@
         <v>2638</v>
       </c>
       <c r="D398" t="s">
-        <v>7366</v>
+        <v>7364</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>2639</v>
@@ -44111,7 +44120,7 @@
         <v>2645</v>
       </c>
       <c r="D399" t="s">
-        <v>7367</v>
+        <v>7365</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>2646</v>
@@ -44171,7 +44180,7 @@
         <v>2477</v>
       </c>
       <c r="D400" t="s">
-        <v>7368</v>
+        <v>7366</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>2478</v>
@@ -44284,7 +44293,7 @@
         <v>2453</v>
       </c>
       <c r="D402" t="s">
-        <v>7369</v>
+        <v>7367</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>2454</v>
@@ -44337,7 +44346,7 @@
         <v>1767</v>
       </c>
       <c r="D403" t="s">
-        <v>7370</v>
+        <v>7368</v>
       </c>
       <c r="E403" s="5" t="s">
         <v>1768</v>
@@ -44448,7 +44457,7 @@
         <v>334</v>
       </c>
       <c r="D405" t="s">
-        <v>7371</v>
+        <v>7369</v>
       </c>
       <c r="E405" s="5" t="s">
         <v>335</v>
@@ -44499,7 +44508,7 @@
         <v>334</v>
       </c>
       <c r="D406" t="s">
-        <v>7372</v>
+        <v>7370</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>2313</v>
@@ -44612,7 +44621,7 @@
         <v>2464</v>
       </c>
       <c r="D408" t="s">
-        <v>7373</v>
+        <v>7371</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>2465</v>
@@ -44784,7 +44793,7 @@
         <v>2721</v>
       </c>
       <c r="D411" t="s">
-        <v>7374</v>
+        <v>7372</v>
       </c>
       <c r="E411" s="5" t="s">
         <v>3794</v>
@@ -44843,7 +44852,7 @@
         <v>2728</v>
       </c>
       <c r="D412" t="s">
-        <v>7375</v>
+        <v>7373</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>2729</v>
@@ -44897,7 +44906,7 @@
         <v>2733</v>
       </c>
       <c r="D413" t="s">
-        <v>7376</v>
+        <v>7374</v>
       </c>
       <c r="E413" s="5" t="s">
         <v>2734</v>
@@ -45018,7 +45027,7 @@
         <v>2358</v>
       </c>
       <c r="D415" t="s">
-        <v>7377</v>
+        <v>7375</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>2359</v>
@@ -45071,7 +45080,7 @@
         <v>4339</v>
       </c>
       <c r="D416" t="s">
-        <v>7378</v>
+        <v>7376</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>4340</v>
@@ -45241,7 +45250,7 @@
         <v>7089</v>
       </c>
       <c r="D419" t="s">
-        <v>7379</v>
+        <v>7377</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>2059</v>
@@ -45361,7 +45370,7 @@
         <v>7090</v>
       </c>
       <c r="D421" t="s">
-        <v>7380</v>
+        <v>7378</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>2780</v>
@@ -45418,7 +45427,7 @@
         <v>7091</v>
       </c>
       <c r="D422" t="s">
-        <v>7381</v>
+        <v>7542</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>2202</v>
@@ -45472,7 +45481,7 @@
         <v>139</v>
       </c>
       <c r="D423" t="s">
-        <v>7382</v>
+        <v>7379</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>140</v>
@@ -45523,7 +45532,7 @@
         <v>139</v>
       </c>
       <c r="D424" t="s">
-        <v>7383</v>
+        <v>7380</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>2755</v>
@@ -45580,7 +45589,7 @@
         <v>7092</v>
       </c>
       <c r="D425" t="s">
-        <v>7384</v>
+        <v>7381</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>1651</v>
@@ -45637,7 +45646,7 @@
         <v>7093</v>
       </c>
       <c r="D426" t="s">
-        <v>7385</v>
+        <v>7382</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>996</v>
@@ -45818,7 +45827,7 @@
         <v>7094</v>
       </c>
       <c r="D429" t="s">
-        <v>7386</v>
+        <v>7383</v>
       </c>
       <c r="E429" s="5" t="s">
         <v>2836</v>
@@ -45863,7 +45872,7 @@
         <v>2516</v>
       </c>
       <c r="D430" t="s">
-        <v>7387</v>
+        <v>7384</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>2517</v>
@@ -46029,7 +46038,7 @@
         <v>2018</v>
       </c>
       <c r="D433" t="s">
-        <v>7388</v>
+        <v>7385</v>
       </c>
       <c r="E433" s="5" t="s">
         <v>4664</v>
@@ -46083,7 +46092,7 @@
         <v>2018</v>
       </c>
       <c r="D434" t="s">
-        <v>7389</v>
+        <v>7386</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>4151</v>
@@ -46196,7 +46205,7 @@
         <v>2173</v>
       </c>
       <c r="D436" t="s">
-        <v>7390</v>
+        <v>7387</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>3320</v>
@@ -46255,7 +46264,7 @@
         <v>2173</v>
       </c>
       <c r="D437" t="s">
-        <v>7391</v>
+        <v>7388</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>2174</v>
@@ -46309,7 +46318,7 @@
         <v>2173</v>
       </c>
       <c r="D438" t="s">
-        <v>7392</v>
+        <v>7389</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>2872</v>
@@ -46482,7 +46491,7 @@
         <v>7095</v>
       </c>
       <c r="D441" t="s">
-        <v>7393</v>
+        <v>7390</v>
       </c>
       <c r="E441" s="5" t="s">
         <v>3161</v>
@@ -46530,7 +46539,7 @@
         <v>1426</v>
       </c>
       <c r="D442" t="s">
-        <v>7394</v>
+        <v>7391</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>1427</v>
@@ -46638,7 +46647,7 @@
         <v>245</v>
       </c>
       <c r="D444" t="s">
-        <v>7395</v>
+        <v>7392</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>246</v>
@@ -46692,7 +46701,7 @@
         <v>245</v>
       </c>
       <c r="D445" t="s">
-        <v>7396</v>
+        <v>7393</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>4287</v>
@@ -46797,7 +46806,7 @@
         <v>2685</v>
       </c>
       <c r="D447" t="s">
-        <v>7397</v>
+        <v>7394</v>
       </c>
       <c r="E447" s="5" t="s">
         <v>2686</v>
@@ -46904,7 +46913,7 @@
         <v>2236</v>
       </c>
       <c r="D449" t="s">
-        <v>7398</v>
+        <v>7395</v>
       </c>
       <c r="E449" s="5" t="s">
         <v>2237</v>
@@ -46958,7 +46967,7 @@
         <v>4201</v>
       </c>
       <c r="D450" t="s">
-        <v>7399</v>
+        <v>7396</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>4202</v>
@@ -47125,7 +47134,7 @@
         <v>2989</v>
       </c>
       <c r="D453" t="s">
-        <v>7400</v>
+        <v>7397</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>3011</v>
@@ -47179,7 +47188,7 @@
         <v>1332</v>
       </c>
       <c r="D454" t="s">
-        <v>7401</v>
+        <v>7398</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>1333</v>
@@ -47233,7 +47242,7 @@
         <v>3047</v>
       </c>
       <c r="D455" t="s">
-        <v>7402</v>
+        <v>7399</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>3048</v>
@@ -47287,7 +47296,7 @@
         <v>621</v>
       </c>
       <c r="D456" t="s">
-        <v>7403</v>
+        <v>7400</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>622</v>
@@ -47341,7 +47350,7 @@
         <v>467</v>
       </c>
       <c r="D457" t="s">
-        <v>7404</v>
+        <v>7401</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>468</v>
@@ -47406,7 +47415,7 @@
         <v>3308</v>
       </c>
       <c r="D458" t="s">
-        <v>7405</v>
+        <v>7402</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>4100</v>
@@ -47465,7 +47474,7 @@
         <v>3308</v>
       </c>
       <c r="D459" t="s">
-        <v>7406</v>
+        <v>7403</v>
       </c>
       <c r="E459" s="5" t="s">
         <v>3309</v>
@@ -47563,7 +47572,7 @@
         <v>2845</v>
       </c>
       <c r="D461" t="s">
-        <v>7407</v>
+        <v>7404</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>2846</v>
@@ -47611,7 +47620,7 @@
         <v>2860</v>
       </c>
       <c r="D462" t="s">
-        <v>7408</v>
+        <v>7405</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>2861</v>
@@ -47665,7 +47674,7 @@
         <v>4218</v>
       </c>
       <c r="D463" t="s">
-        <v>7409</v>
+        <v>7406</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>4219</v>
@@ -47828,7 +47837,7 @@
         <v>3053</v>
       </c>
       <c r="D466" t="s">
-        <v>7410</v>
+        <v>7407</v>
       </c>
       <c r="E466" s="5" t="s">
         <v>3054</v>
@@ -47882,7 +47891,7 @@
         <v>3077</v>
       </c>
       <c r="D467" t="s">
-        <v>7411</v>
+        <v>7408</v>
       </c>
       <c r="E467" s="5" t="s">
         <v>3078</v>
@@ -47990,7 +47999,7 @@
         <v>1540</v>
       </c>
       <c r="D469" t="s">
-        <v>7412</v>
+        <v>7409</v>
       </c>
       <c r="E469" s="5" t="s">
         <v>1541</v>
@@ -48038,7 +48047,7 @@
         <v>3042</v>
       </c>
       <c r="D470" t="s">
-        <v>7413</v>
+        <v>7410</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>3043</v>
@@ -48139,7 +48148,7 @@
         <v>441</v>
       </c>
       <c r="D472" t="s">
-        <v>7414</v>
+        <v>7411</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>442</v>
@@ -48241,7 +48250,7 @@
         <v>2786</v>
       </c>
       <c r="D474" t="s">
-        <v>7415</v>
+        <v>7412</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>2787</v>
@@ -48352,7 +48361,7 @@
         <v>1716</v>
       </c>
       <c r="D476" t="s">
-        <v>7416</v>
+        <v>7413</v>
       </c>
       <c r="E476" s="5" t="s">
         <v>2308</v>
@@ -48403,7 +48412,7 @@
         <v>1716</v>
       </c>
       <c r="D477" t="s">
-        <v>7417</v>
+        <v>7414</v>
       </c>
       <c r="E477" s="5" t="s">
         <v>1717</v>
@@ -48559,7 +48568,7 @@
         <v>4560</v>
       </c>
       <c r="D480" t="s">
-        <v>7418</v>
+        <v>7415</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>4561</v>
@@ -48616,7 +48625,7 @@
         <v>3071</v>
       </c>
       <c r="D481" t="s">
-        <v>7419</v>
+        <v>7416</v>
       </c>
       <c r="E481" s="5" t="s">
         <v>3072</v>
@@ -48676,7 +48685,7 @@
         <v>7111</v>
       </c>
       <c r="D482" t="s">
-        <v>7420</v>
+        <v>7417</v>
       </c>
       <c r="E482" s="5" t="s">
         <v>2111</v>
@@ -48730,7 +48739,7 @@
         <v>3171</v>
       </c>
       <c r="D483" t="s">
-        <v>7421</v>
+        <v>7418</v>
       </c>
       <c r="E483" s="5" t="s">
         <v>3172</v>
@@ -48784,7 +48793,7 @@
         <v>181</v>
       </c>
       <c r="D484" t="s">
-        <v>7422</v>
+        <v>7419</v>
       </c>
       <c r="E484" s="5" t="s">
         <v>182</v>
@@ -49053,7 +49062,7 @@
         <v>5035</v>
       </c>
       <c r="D489" t="s">
-        <v>7423</v>
+        <v>7420</v>
       </c>
       <c r="E489" s="5" t="s">
         <v>3217</v>
@@ -49104,7 +49113,7 @@
         <v>1727</v>
       </c>
       <c r="D490" t="s">
-        <v>7424</v>
+        <v>7421</v>
       </c>
       <c r="E490" s="5" t="s">
         <v>1728</v>
@@ -49155,7 +49164,7 @@
         <v>79</v>
       </c>
       <c r="D491" t="s">
-        <v>7425</v>
+        <v>7422</v>
       </c>
       <c r="E491" s="5" t="s">
         <v>80</v>
@@ -49359,7 +49368,7 @@
         <v>4171</v>
       </c>
       <c r="D495" t="s">
-        <v>7426</v>
+        <v>7423</v>
       </c>
       <c r="E495" s="5" t="s">
         <v>4172</v>
@@ -49460,7 +49469,7 @@
         <v>3267</v>
       </c>
       <c r="D497" t="s">
-        <v>7427</v>
+        <v>7424</v>
       </c>
       <c r="E497" s="5" t="s">
         <v>3268</v>
@@ -49505,7 +49514,7 @@
         <v>3273</v>
       </c>
       <c r="D498" t="s">
-        <v>7428</v>
+        <v>7425</v>
       </c>
       <c r="E498" s="5" t="s">
         <v>3274</v>
@@ -49661,7 +49670,7 @@
         <v>347</v>
       </c>
       <c r="D501" t="s">
-        <v>7429</v>
+        <v>7426</v>
       </c>
       <c r="E501" s="5" t="s">
         <v>348</v>
@@ -49760,7 +49769,7 @@
         <v>7097</v>
       </c>
       <c r="D503" t="s">
-        <v>7430</v>
+        <v>7427</v>
       </c>
       <c r="E503" s="5" t="s">
         <v>3315</v>
@@ -49808,7 +49817,7 @@
         <v>2968</v>
       </c>
       <c r="D504" t="s">
-        <v>7431</v>
+        <v>7428</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>2969</v>
@@ -49856,7 +49865,7 @@
         <v>3831</v>
       </c>
       <c r="D505" t="s">
-        <v>7432</v>
+        <v>7429</v>
       </c>
       <c r="E505" s="5" t="s">
         <v>3832</v>
@@ -49907,7 +49916,7 @@
         <v>1993</v>
       </c>
       <c r="D506" t="s">
-        <v>7433</v>
+        <v>7430</v>
       </c>
       <c r="E506" s="5" t="s">
         <v>1994</v>
@@ -50181,7 +50190,7 @@
         <v>3522</v>
       </c>
       <c r="D511" t="s">
-        <v>7434</v>
+        <v>7431</v>
       </c>
       <c r="E511" s="5" t="s">
         <v>3523</v>
@@ -50229,7 +50238,7 @@
         <v>4366</v>
       </c>
       <c r="D512" t="s">
-        <v>7435</v>
+        <v>7432</v>
       </c>
       <c r="E512" s="5" t="s">
         <v>4367</v>
@@ -50396,7 +50405,7 @@
         <v>2242</v>
       </c>
       <c r="D515" t="s">
-        <v>7436</v>
+        <v>7433</v>
       </c>
       <c r="E515" s="5" t="s">
         <v>2243</v>
@@ -50561,7 +50570,7 @@
         <v>7110</v>
       </c>
       <c r="D518" t="s">
-        <v>7437</v>
+        <v>7543</v>
       </c>
       <c r="E518" s="5" t="s">
         <v>3404</v>
@@ -51089,7 +51098,7 @@
         <v>3365</v>
       </c>
       <c r="D527" t="s">
-        <v>7438</v>
+        <v>7434</v>
       </c>
       <c r="E527" s="5" t="s">
         <v>3366</v>
@@ -51137,7 +51146,7 @@
         <v>890</v>
       </c>
       <c r="D528" t="s">
-        <v>7439</v>
+        <v>7544</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>891</v>
@@ -51199,7 +51208,7 @@
         <v>7109</v>
       </c>
       <c r="D529" t="s">
-        <v>7440</v>
+        <v>7435</v>
       </c>
       <c r="E529" s="5" t="s">
         <v>3482</v>
@@ -51247,7 +51256,7 @@
         <v>3487</v>
       </c>
       <c r="D530" t="s">
-        <v>7441</v>
+        <v>7436</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>3488</v>
@@ -51516,7 +51525,7 @@
         <v>2774</v>
       </c>
       <c r="D535" t="s">
-        <v>7442</v>
+        <v>7437</v>
       </c>
       <c r="E535" s="5" t="s">
         <v>2775</v>
@@ -52189,7 +52198,7 @@
         <v>3023</v>
       </c>
       <c r="D547" t="s">
-        <v>7443</v>
+        <v>7438</v>
       </c>
       <c r="E547" s="5" t="s">
         <v>3024</v>
@@ -52243,7 +52252,7 @@
         <v>3613</v>
       </c>
       <c r="D548" t="s">
-        <v>7444</v>
+        <v>7439</v>
       </c>
       <c r="E548" s="5" t="s">
         <v>3614</v>
@@ -52462,7 +52471,7 @@
         <v>2575</v>
       </c>
       <c r="D552" t="s">
-        <v>7445</v>
+        <v>7440</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>2576</v>
@@ -52518,7 +52527,7 @@
         <v>1723</v>
       </c>
       <c r="D553" t="s">
-        <v>7446</v>
+        <v>7441</v>
       </c>
       <c r="E553" s="5" t="s">
         <v>1724</v>
@@ -52617,7 +52626,7 @@
         <v>3192</v>
       </c>
       <c r="D555" t="s">
-        <v>7447</v>
+        <v>7442</v>
       </c>
       <c r="E555" s="5" t="s">
         <v>3193</v>
@@ -52665,7 +52674,7 @@
         <v>7104</v>
       </c>
       <c r="D556" t="s">
-        <v>7448</v>
+        <v>7443</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>4544</v>
@@ -52718,7 +52727,7 @@
         <v>3677</v>
       </c>
       <c r="D557" t="s">
-        <v>7449</v>
+        <v>7444</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>3678</v>
@@ -52772,7 +52781,7 @@
         <v>3685</v>
       </c>
       <c r="D558" t="s">
-        <v>7450</v>
+        <v>7445</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>3686</v>
@@ -52820,7 +52829,7 @@
         <v>2547</v>
       </c>
       <c r="D559" t="s">
-        <v>7451</v>
+        <v>7446</v>
       </c>
       <c r="E559" s="5" t="s">
         <v>2548</v>
@@ -52880,7 +52889,7 @@
         <v>3383</v>
       </c>
       <c r="D560" t="s">
-        <v>7452</v>
+        <v>7447</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>3384</v>
@@ -52928,7 +52937,7 @@
         <v>2655</v>
       </c>
       <c r="D561" t="s">
-        <v>7453</v>
+        <v>7448</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>2656</v>
@@ -52976,7 +52985,7 @@
         <v>3706</v>
       </c>
       <c r="D562" t="s">
-        <v>7454</v>
+        <v>7449</v>
       </c>
       <c r="E562" s="5" t="s">
         <v>3707</v>
@@ -53188,7 +53197,7 @@
         <v>2590</v>
       </c>
       <c r="D566" t="s">
-        <v>7455</v>
+        <v>7450</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>2591</v>
@@ -53241,7 +53250,7 @@
         <v>3738</v>
       </c>
       <c r="D567" t="s">
-        <v>7456</v>
+        <v>7451</v>
       </c>
       <c r="E567" s="5" t="s">
         <v>3739</v>
@@ -53575,7 +53584,7 @@
         <v>1259</v>
       </c>
       <c r="D573" t="s">
-        <v>7457</v>
+        <v>7452</v>
       </c>
       <c r="E573" s="5" t="s">
         <v>1260</v>
@@ -53622,8 +53631,11 @@
       <c r="B574" t="s">
         <v>3787</v>
       </c>
+      <c r="C574" t="s">
+        <v>7546</v>
+      </c>
       <c r="D574" t="s">
-        <v>7458</v>
+        <v>7545</v>
       </c>
       <c r="E574" s="5" t="s">
         <v>3788</v>
@@ -53677,7 +53689,7 @@
         <v>6914</v>
       </c>
       <c r="D575" t="s">
-        <v>7459</v>
+        <v>7453</v>
       </c>
       <c r="E575" s="5" t="s">
         <v>1346</v>
@@ -53791,7 +53803,7 @@
         <v>548</v>
       </c>
       <c r="D577" t="s">
-        <v>7460</v>
+        <v>7454</v>
       </c>
       <c r="E577" s="5" t="s">
         <v>549</v>
@@ -53899,7 +53911,7 @@
         <v>3820</v>
       </c>
       <c r="D579" t="s">
-        <v>7461</v>
+        <v>7455</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>3821</v>
@@ -54007,7 +54019,7 @@
         <v>2155</v>
       </c>
       <c r="D581" t="s">
-        <v>7462</v>
+        <v>7456</v>
       </c>
       <c r="E581" s="5" t="s">
         <v>2156</v>
@@ -54231,7 +54243,7 @@
         <v>2447</v>
       </c>
       <c r="D585" t="s">
-        <v>7463</v>
+        <v>7457</v>
       </c>
       <c r="E585" s="5" t="s">
         <v>2448</v>
@@ -54333,7 +54345,7 @@
         <v>508</v>
       </c>
       <c r="D587" t="s">
-        <v>7464</v>
+        <v>7547</v>
       </c>
       <c r="E587" s="5" t="s">
         <v>509</v>
@@ -54386,7 +54398,7 @@
         <v>3875</v>
       </c>
       <c r="D588" t="s">
-        <v>7465</v>
+        <v>7458</v>
       </c>
       <c r="E588" s="5" t="s">
         <v>3876</v>
@@ -54482,7 +54494,7 @@
         <v>2667</v>
       </c>
       <c r="D590" t="s">
-        <v>7466</v>
+        <v>7459</v>
       </c>
       <c r="E590" s="5" t="s">
         <v>2668</v>
@@ -54530,7 +54542,7 @@
         <v>3892</v>
       </c>
       <c r="D591" t="s">
-        <v>7467</v>
+        <v>7460</v>
       </c>
       <c r="E591" s="5" t="s">
         <v>3893</v>
@@ -54683,7 +54695,7 @@
         <v>3911</v>
       </c>
       <c r="D594" t="s">
-        <v>7468</v>
+        <v>7461</v>
       </c>
       <c r="E594" s="5" t="s">
         <v>3912</v>
@@ -54734,7 +54746,7 @@
         <v>3667</v>
       </c>
       <c r="D595" t="s">
-        <v>7469</v>
+        <v>7462</v>
       </c>
       <c r="E595" s="5" t="s">
         <v>3668</v>
@@ -54944,7 +54956,7 @@
         <v>772</v>
       </c>
       <c r="D599" t="s">
-        <v>7470</v>
+        <v>7463</v>
       </c>
       <c r="E599" s="5" t="s">
         <v>773</v>
@@ -55043,7 +55055,7 @@
         <v>4708</v>
       </c>
       <c r="D601" t="s">
-        <v>7471</v>
+        <v>7464</v>
       </c>
       <c r="E601" s="5" t="s">
         <v>4709</v>
@@ -55252,7 +55264,7 @@
         <v>7103</v>
       </c>
       <c r="D605" t="s">
-        <v>7472</v>
+        <v>7465</v>
       </c>
       <c r="E605" s="5" t="s">
         <v>3982</v>
@@ -55459,7 +55471,7 @@
         <v>1779</v>
       </c>
       <c r="D609" t="s">
-        <v>7473</v>
+        <v>7466</v>
       </c>
       <c r="E609" s="5" t="s">
         <v>1780</v>
@@ -55672,7 +55684,7 @@
         <v>3807</v>
       </c>
       <c r="D613" t="s">
-        <v>7474</v>
+        <v>7467</v>
       </c>
       <c r="E613" s="5" t="s">
         <v>3808</v>
@@ -55838,7 +55850,7 @@
         <v>4054</v>
       </c>
       <c r="D616" t="s">
-        <v>7475</v>
+        <v>7468</v>
       </c>
       <c r="E616" s="5" t="s">
         <v>4055</v>
@@ -55886,7 +55898,7 @@
         <v>4060</v>
       </c>
       <c r="D617" t="s">
-        <v>7476</v>
+        <v>7469</v>
       </c>
       <c r="E617" s="5" t="s">
         <v>4061</v>
@@ -55991,7 +56003,7 @@
         <v>1906</v>
       </c>
       <c r="D619" t="s">
-        <v>7477</v>
+        <v>7470</v>
       </c>
       <c r="E619" s="5" t="s">
         <v>1907</v>
@@ -56096,7 +56108,7 @@
         <v>3888</v>
       </c>
       <c r="D621" t="s">
-        <v>7478</v>
+        <v>7471</v>
       </c>
       <c r="E621" s="5" t="s">
         <v>3889</v>
@@ -56206,7 +56218,7 @@
         <v>2691</v>
       </c>
       <c r="D623" t="s">
-        <v>7479</v>
+        <v>7472</v>
       </c>
       <c r="E623" s="5" t="s">
         <v>2692</v>
@@ -56314,7 +56326,7 @@
         <v>4113</v>
       </c>
       <c r="D625" t="s">
-        <v>7480</v>
+        <v>7473</v>
       </c>
       <c r="E625" s="5" t="s">
         <v>4114</v>
@@ -56362,7 +56374,7 @@
         <v>1637</v>
       </c>
       <c r="D626" t="s">
-        <v>7481</v>
+        <v>7474</v>
       </c>
       <c r="E626" s="5" t="s">
         <v>1638</v>
@@ -56472,7 +56484,7 @@
         <v>4131</v>
       </c>
       <c r="D628" t="s">
-        <v>7482</v>
+        <v>7475</v>
       </c>
       <c r="E628" s="5" t="s">
         <v>4132</v>
@@ -56517,7 +56529,7 @@
         <v>1774</v>
       </c>
       <c r="D629" t="s">
-        <v>7483</v>
+        <v>7476</v>
       </c>
       <c r="E629" s="5" t="s">
         <v>1775</v>
@@ -56613,7 +56625,7 @@
         <v>2135</v>
       </c>
       <c r="D631" t="s">
-        <v>7484</v>
+        <v>7477</v>
       </c>
       <c r="E631" s="5" t="s">
         <v>2136</v>
@@ -56661,7 +56673,7 @@
         <v>3017</v>
       </c>
       <c r="D632" t="s">
-        <v>7485</v>
+        <v>7478</v>
       </c>
       <c r="E632" s="5" t="s">
         <v>3018</v>
@@ -56715,7 +56727,7 @@
         <v>4161</v>
       </c>
       <c r="D633" t="s">
-        <v>7486</v>
+        <v>7479</v>
       </c>
       <c r="E633" s="5" t="s">
         <v>4162</v>
@@ -56763,7 +56775,7 @@
         <v>311</v>
       </c>
       <c r="D634" t="s">
-        <v>7487</v>
+        <v>7480</v>
       </c>
       <c r="E634" s="5" t="s">
         <v>312</v>
@@ -56820,7 +56832,7 @@
         <v>3222</v>
       </c>
       <c r="D635" t="s">
-        <v>7488</v>
+        <v>7481</v>
       </c>
       <c r="E635" s="5" t="s">
         <v>3223</v>
@@ -57032,7 +57044,7 @@
         <v>4008</v>
       </c>
       <c r="D639" t="s">
-        <v>7489</v>
+        <v>7482</v>
       </c>
       <c r="E639" s="5" t="s">
         <v>4009</v>
@@ -57077,7 +57089,7 @@
         <v>1658</v>
       </c>
       <c r="D640" t="s">
-        <v>7490</v>
+        <v>7483</v>
       </c>
       <c r="E640" s="5" t="s">
         <v>1659</v>
@@ -57128,7 +57140,7 @@
         <v>1420</v>
       </c>
       <c r="D641" t="s">
-        <v>7491</v>
+        <v>7484</v>
       </c>
       <c r="E641" s="5" t="s">
         <v>1421</v>
@@ -57182,7 +57194,7 @@
         <v>4195</v>
       </c>
       <c r="D642" t="s">
-        <v>7492</v>
+        <v>7485</v>
       </c>
       <c r="E642" s="5" t="s">
         <v>4196</v>
@@ -57230,7 +57242,7 @@
         <v>2907</v>
       </c>
       <c r="D643" t="s">
-        <v>7493</v>
+        <v>7486</v>
       </c>
       <c r="E643" s="5" t="s">
         <v>2908</v>
@@ -57338,7 +57350,7 @@
         <v>2926</v>
       </c>
       <c r="D645" t="s">
-        <v>7494</v>
+        <v>7487</v>
       </c>
       <c r="E645" s="5" t="s">
         <v>2927</v>
@@ -57446,7 +57458,7 @@
         <v>1352</v>
       </c>
       <c r="D647" t="s">
-        <v>7495</v>
+        <v>7488</v>
       </c>
       <c r="E647" s="5" t="s">
         <v>1353</v>
@@ -57559,7 +57571,7 @@
         <v>1811</v>
       </c>
       <c r="D649" t="s">
-        <v>7496</v>
+        <v>7489</v>
       </c>
       <c r="E649" s="5" t="s">
         <v>1812</v>
@@ -57720,7 +57732,7 @@
         <v>1926</v>
       </c>
       <c r="D652" t="s">
-        <v>7497</v>
+        <v>7490</v>
       </c>
       <c r="E652" s="5" t="s">
         <v>1927</v>
@@ -57771,7 +57783,7 @@
         <v>1198</v>
       </c>
       <c r="D653" t="s">
-        <v>7498</v>
+        <v>7491</v>
       </c>
       <c r="E653" s="5" t="s">
         <v>1199</v>
@@ -57819,7 +57831,7 @@
         <v>2932</v>
       </c>
       <c r="D654" t="s">
-        <v>7499</v>
+        <v>7492</v>
       </c>
       <c r="E654" s="5" t="s">
         <v>2933</v>
@@ -57873,7 +57885,7 @@
         <v>1850</v>
       </c>
       <c r="D655" t="s">
-        <v>7500</v>
+        <v>7493</v>
       </c>
       <c r="E655" s="5" t="s">
         <v>1851</v>
@@ -57921,7 +57933,7 @@
         <v>4298</v>
       </c>
       <c r="D656" t="s">
-        <v>7501</v>
+        <v>7494</v>
       </c>
       <c r="E656" s="5" t="s">
         <v>4299</v>
@@ -57969,7 +57981,7 @@
         <v>4246</v>
       </c>
       <c r="D657" t="s">
-        <v>7502</v>
+        <v>7495</v>
       </c>
       <c r="E657" s="5" t="s">
         <v>4247</v>
@@ -58017,7 +58029,7 @@
         <v>4312</v>
       </c>
       <c r="D658" t="s">
-        <v>7503</v>
+        <v>7496</v>
       </c>
       <c r="E658" s="5" t="s">
         <v>4313</v>
@@ -58065,7 +58077,7 @@
         <v>3294</v>
       </c>
       <c r="D659" t="s">
-        <v>7504</v>
+        <v>7497</v>
       </c>
       <c r="E659" s="5" t="s">
         <v>3295</v>
@@ -58170,7 +58182,7 @@
         <v>2609</v>
       </c>
       <c r="D661" t="s">
-        <v>7505</v>
+        <v>7498</v>
       </c>
       <c r="E661" s="5" t="s">
         <v>2610</v>
@@ -58227,7 +58239,7 @@
         <v>4334</v>
       </c>
       <c r="D662" t="s">
-        <v>7545</v>
+        <v>7538</v>
       </c>
       <c r="E662" s="5" t="s">
         <v>4335</v>
@@ -58278,7 +58290,7 @@
         <v>7102</v>
       </c>
       <c r="D663" t="s">
-        <v>7506</v>
+        <v>7499</v>
       </c>
       <c r="E663" s="5" t="s">
         <v>3608</v>
@@ -58498,7 +58510,7 @@
         <v>1285</v>
       </c>
       <c r="D667" t="s">
-        <v>7507</v>
+        <v>7500</v>
       </c>
       <c r="E667" s="5" t="s">
         <v>1286</v>
@@ -58983,7 +58995,7 @@
         <v>4425</v>
       </c>
       <c r="D676" t="s">
-        <v>7508</v>
+        <v>7501</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>4426</v>
@@ -59073,7 +59085,7 @@
         <v>4436</v>
       </c>
       <c r="D678" t="s">
-        <v>7509</v>
+        <v>7502</v>
       </c>
       <c r="E678" s="5" t="s">
         <v>4437</v>
@@ -59175,7 +59187,7 @@
         <v>4454</v>
       </c>
       <c r="D680" t="s">
-        <v>7510</v>
+        <v>7503</v>
       </c>
       <c r="E680" s="5" t="s">
         <v>4455</v>
@@ -59450,7 +59462,7 @@
         <v>4488</v>
       </c>
       <c r="D685" t="s">
-        <v>7511</v>
+        <v>7504</v>
       </c>
       <c r="E685" s="5" t="s">
         <v>4489</v>
@@ -59776,7 +59788,7 @@
         <v>4531</v>
       </c>
       <c r="D691" t="s">
-        <v>7512</v>
+        <v>7505</v>
       </c>
       <c r="E691" s="5" t="s">
         <v>4532</v>
@@ -59890,7 +59902,7 @@
         <v>3918</v>
       </c>
       <c r="D693" t="s">
-        <v>7513</v>
+        <v>7506</v>
       </c>
       <c r="E693" s="5" t="s">
         <v>3919</v>
@@ -59938,7 +59950,7 @@
         <v>366</v>
       </c>
       <c r="D694" t="s">
-        <v>7514</v>
+        <v>7507</v>
       </c>
       <c r="E694" s="5" t="s">
         <v>367</v>
@@ -60042,7 +60054,7 @@
         <v>575</v>
       </c>
       <c r="D696" t="s">
-        <v>7515</v>
+        <v>7508</v>
       </c>
       <c r="E696" s="5" t="s">
         <v>576</v>
@@ -60195,7 +60207,7 @@
         <v>4580</v>
       </c>
       <c r="D699" t="s">
-        <v>7516</v>
+        <v>7509</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>4581</v>
@@ -60303,7 +60315,7 @@
         <v>7100</v>
       </c>
       <c r="D701" t="s">
-        <v>7517</v>
+        <v>7510</v>
       </c>
       <c r="E701" s="5" t="s">
         <v>4595</v>
@@ -60408,7 +60420,7 @@
         <v>4606</v>
       </c>
       <c r="D703" t="s">
-        <v>7518</v>
+        <v>7511</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>4607</v>
@@ -60785,7 +60797,7 @@
         <v>434</v>
       </c>
       <c r="D710" t="s">
-        <v>7519</v>
+        <v>7512</v>
       </c>
       <c r="E710" s="5" t="s">
         <v>435</v>
@@ -60839,7 +60851,7 @@
         <v>4658</v>
       </c>
       <c r="D711" t="s">
-        <v>7520</v>
+        <v>7513</v>
       </c>
       <c r="E711" s="5" t="s">
         <v>4659</v>
@@ -60896,7 +60908,7 @@
         <v>3701</v>
       </c>
       <c r="D712" t="s">
-        <v>7521</v>
+        <v>7514</v>
       </c>
       <c r="E712" s="5" t="s">
         <v>3702</v>
@@ -60953,7 +60965,7 @@
         <v>4669</v>
       </c>
       <c r="D713" t="s">
-        <v>7522</v>
+        <v>7515</v>
       </c>
       <c r="E713" s="5" t="s">
         <v>4670</v>
@@ -61118,7 +61130,7 @@
         <v>7099</v>
       </c>
       <c r="D716" t="s">
-        <v>7523</v>
+        <v>7516</v>
       </c>
       <c r="E716" s="5" t="s">
         <v>4690</v>
@@ -61223,7 +61235,7 @@
         <v>5001</v>
       </c>
       <c r="D718" t="s">
-        <v>7524</v>
+        <v>7517</v>
       </c>
       <c r="E718" s="5">
         <v>41.715038</v>
@@ -61271,7 +61283,7 @@
         <v>7098</v>
       </c>
       <c r="D719" t="s">
-        <v>7525</v>
+        <v>7518</v>
       </c>
       <c r="E719" s="5" t="s">
         <v>494</v>
@@ -61328,7 +61340,7 @@
         <v>3953</v>
       </c>
       <c r="D720" t="s">
-        <v>7526</v>
+        <v>7519</v>
       </c>
       <c r="E720" s="5" t="s">
         <v>3954</v>
@@ -61391,7 +61403,7 @@
         <v>7112</v>
       </c>
       <c r="D721" t="s">
-        <v>7527</v>
+        <v>7520</v>
       </c>
       <c r="E721" s="5" t="s">
         <v>4715</v>
@@ -61500,7 +61512,7 @@
         <v>4726</v>
       </c>
       <c r="D723" t="s">
-        <v>7528</v>
+        <v>7521</v>
       </c>
       <c r="E723" s="5" t="s">
         <v>4727</v>
@@ -61557,7 +61569,7 @@
         <v>4734</v>
       </c>
       <c r="D724" t="s">
-        <v>7529</v>
+        <v>7522</v>
       </c>
       <c r="E724" s="5" t="s">
         <v>4735</v>
@@ -61659,7 +61671,7 @@
         <v>4746</v>
       </c>
       <c r="D726" t="s">
-        <v>7530</v>
+        <v>7523</v>
       </c>
       <c r="E726" s="5" t="s">
         <v>4747</v>
@@ -61710,7 +61722,7 @@
         <v>2433</v>
       </c>
       <c r="D727" t="s">
-        <v>7531</v>
+        <v>7524</v>
       </c>
       <c r="E727" s="5" t="s">
         <v>2434</v>
@@ -61764,7 +61776,7 @@
         <v>4758</v>
       </c>
       <c r="D728" t="s">
-        <v>7532</v>
+        <v>7525</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>4759</v>
@@ -61863,7 +61875,7 @@
         <v>1759</v>
       </c>
       <c r="D730" t="s">
-        <v>7533</v>
+        <v>7526</v>
       </c>
       <c r="E730" s="5" t="s">
         <v>1760</v>
@@ -61980,7 +61992,7 @@
         <v>4088</v>
       </c>
       <c r="D732" t="s">
-        <v>7534</v>
+        <v>7527</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>4089</v>
@@ -62028,7 +62040,7 @@
         <v>4789</v>
       </c>
       <c r="D733" t="s">
-        <v>7535</v>
+        <v>7528</v>
       </c>
       <c r="E733" s="5" t="s">
         <v>4790</v>
@@ -62082,7 +62094,7 @@
         <v>4795</v>
       </c>
       <c r="D734" t="s">
-        <v>7536</v>
+        <v>7529</v>
       </c>
       <c r="E734" s="5" t="s">
         <v>4796</v>
@@ -62133,7 +62145,7 @@
         <v>4119</v>
       </c>
       <c r="D735" t="s">
-        <v>7537</v>
+        <v>7530</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>4120</v>
@@ -62451,7 +62463,7 @@
         <v>4839</v>
       </c>
       <c r="D741" t="s">
-        <v>7538</v>
+        <v>7531</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>4840</v>
@@ -62502,7 +62514,7 @@
         <v>4845</v>
       </c>
       <c r="D742" t="s">
-        <v>7539</v>
+        <v>7532</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>4846</v>
@@ -62652,7 +62664,7 @@
         <v>2748</v>
       </c>
       <c r="D745" t="s">
-        <v>7540</v>
+        <v>7533</v>
       </c>
       <c r="E745" s="5" t="s">
         <v>2749</v>
@@ -62706,7 +62718,7 @@
         <v>4870</v>
       </c>
       <c r="D746" t="s">
-        <v>7541</v>
+        <v>7534</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>4871</v>
@@ -62873,7 +62885,7 @@
         <v>4784</v>
       </c>
       <c r="D749" t="s">
-        <v>7542</v>
+        <v>7535</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>4785</v>
@@ -63108,7 +63120,7 @@
         <v>2319</v>
       </c>
       <c r="D753" t="s">
-        <v>7543</v>
+        <v>7536</v>
       </c>
       <c r="E753" s="5" t="s">
         <v>2320</v>
@@ -63165,7 +63177,7 @@
         <v>4923</v>
       </c>
       <c r="D754" t="s">
-        <v>7544</v>
+        <v>7537</v>
       </c>
       <c r="E754" s="5" t="s">
         <v>4924</v>
